--- a/data/BD ONs.xlsx
+++ b/data/BD ONs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B133C43A-5BF3-4ADD-B5B4-0F730261CF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAC489C-82FE-4888-B192-F640EC1FC454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB8ACD95-2FAD-499C-A444-8C523315DBC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="25">
   <si>
     <t>ARC1O</t>
   </si>
@@ -82,11 +82,44 @@
   <si>
     <t>NY</t>
   </si>
+  <si>
+    <t>TLC1O</t>
+  </si>
+  <si>
+    <t>PNDCO</t>
+  </si>
+  <si>
+    <t>RUCDO</t>
+  </si>
+  <si>
+    <t>TLCMO</t>
+  </si>
+  <si>
+    <t>YMCXO</t>
+  </si>
+  <si>
+    <t>PNXCO</t>
+  </si>
+  <si>
+    <t>PLC5O</t>
+  </si>
+  <si>
+    <t>MGCMO</t>
+  </si>
+  <si>
+    <t>PLC4O</t>
+  </si>
+  <si>
+    <t>YMCJO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,12 +155,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -200,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -234,6 +279,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7999CC-3586-44AD-A24E-E30070673374}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75"/>
+    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J214" sqref="J214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +665,7 @@
       </c>
       <c r="Q1" s="5">
         <f ca="1">+TODAY()</f>
-        <v>46005</v>
+        <v>46011</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -631,7 +686,7 @@
       <c r="F2" s="10"/>
       <c r="G2">
         <f t="shared" ref="G2:G18" ca="1" si="1">B2-$Q$1</f>
-        <v>-1508</v>
+        <v>-1514</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -662,7 +717,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1412</v>
+        <v>-1418</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -693,7 +748,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1323</v>
+        <v>-1329</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -724,7 +779,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1231</v>
+        <v>-1237</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -758,7 +813,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1139</v>
+        <v>-1145</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -792,7 +847,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1047</v>
+        <v>-1053</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -826,7 +881,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>-958</v>
+        <v>-964</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -860,7 +915,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>-866</v>
+        <v>-872</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -894,7 +949,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>-774</v>
+        <v>-780</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -928,7 +983,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>-682</v>
+        <v>-688</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -959,7 +1014,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>-592</v>
+        <v>-598</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -990,7 +1045,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>-500</v>
+        <v>-506</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1021,7 +1076,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>-408</v>
+        <v>-414</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1052,7 +1107,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>-316</v>
+        <v>-322</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1083,7 +1138,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>-227</v>
+        <v>-233</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1114,7 +1169,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-135</v>
+        <v>-141</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1145,7 +1200,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-43</v>
+        <v>-49</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1176,7 +1231,7 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G41" ca="1" si="3">B19-$Q$1</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1207,7 +1262,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1238,7 +1293,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1269,7 +1324,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1300,7 +1355,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1331,7 +1386,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1362,7 +1417,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1393,7 +1448,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1424,7 +1479,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1455,7 +1510,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1486,7 +1541,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1517,7 +1572,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1548,7 +1603,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -1579,7 +1634,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1610,7 +1665,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1641,7 +1696,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1672,7 +1727,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1703,7 +1758,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1734,7 +1789,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>1691</v>
+        <v>1685</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -1765,7 +1820,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -1796,7 +1851,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>1875</v>
+        <v>1869</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -1827,7 +1882,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -1858,7 +1913,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1888,8 +1943,8 @@
         <v>0.08</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42:G83" ca="1" si="4">B42-$Q$1</f>
-        <v>-174</v>
+        <f t="shared" ref="G42:G105" ca="1" si="4">B42-$Q$1</f>
+        <v>-180</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -1912,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" ref="E43:E83" si="5">C43+D43</f>
+        <f t="shared" ref="E43:E106" si="5">C43+D43</f>
         <v>4</v>
       </c>
       <c r="F43" s="11">
@@ -1920,7 +1975,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -1951,7 +2006,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -1982,7 +2037,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -2013,7 +2068,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -2044,7 +2099,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2075,7 +2130,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2106,7 +2161,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2137,7 +2192,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2168,7 +2223,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>-430</v>
+        <v>-436</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -2199,7 +2254,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>-248</v>
+        <v>-254</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2230,7 +2285,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>-65</v>
+        <v>-71</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2261,7 +2316,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2292,7 +2347,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2323,7 +2378,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2354,7 +2409,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2385,7 +2440,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2416,7 +2471,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -2447,7 +2502,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>-842</v>
+        <v>-848</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -2478,7 +2533,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>-658</v>
+        <v>-664</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2509,7 +2564,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>-476</v>
+        <v>-482</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -2540,7 +2595,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>-292</v>
+        <v>-298</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -2571,7 +2626,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>-111</v>
+        <v>-117</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -2602,7 +2657,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -2633,7 +2688,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2664,7 +2719,7 @@
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="4"/>
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2695,7 +2750,7 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="4"/>
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2726,7 +2781,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2757,7 +2812,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2788,7 +2843,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>-416</v>
+        <v>-422</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2819,7 +2874,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>-234</v>
+        <v>-240</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -2850,7 +2905,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -2881,7 +2936,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -2912,7 +2967,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -2943,7 +2998,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -2974,7 +3029,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3005,7 +3060,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -3036,7 +3091,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3067,7 +3122,7 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -3098,7 +3153,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3129,7 +3184,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -3138,7 +3193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3160,13 +3215,4661 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
       </c>
       <c r="I83">
         <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C84" s="7">
+        <v>0</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G84">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1797</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" s="1">
+        <v>44395</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
+        <v>4</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1616</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44579</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>4</v>
+      </c>
+      <c r="E86" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F86" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1432</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <v>4</v>
+      </c>
+      <c r="E87" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F87" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1251</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44944</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0</v>
+      </c>
+      <c r="D88" s="8">
+        <v>4</v>
+      </c>
+      <c r="E88" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G88">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1067</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45125</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0</v>
+      </c>
+      <c r="D89" s="8">
+        <v>4</v>
+      </c>
+      <c r="E89" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F89" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ca="1" si="4"/>
+        <v>-886</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8">
+        <v>4</v>
+      </c>
+      <c r="E90" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="4"/>
+        <v>-702</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0</v>
+      </c>
+      <c r="D91" s="8">
+        <v>4</v>
+      </c>
+      <c r="E91" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ca="1" si="4"/>
+        <v>-520</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0</v>
+      </c>
+      <c r="D92" s="8">
+        <v>4</v>
+      </c>
+      <c r="E92" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ca="1" si="4"/>
+        <v>-336</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45856</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4</v>
+      </c>
+      <c r="E93" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F93" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G93">
+        <f t="shared" ca="1" si="4"/>
+        <v>-155</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="1">
+        <v>46040</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0</v>
+      </c>
+      <c r="D94" s="8">
+        <v>4</v>
+      </c>
+      <c r="E94" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F94" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G94">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="1">
+        <v>46221</v>
+      </c>
+      <c r="C95" s="8">
+        <v>100</v>
+      </c>
+      <c r="D95" s="8">
+        <v>4</v>
+      </c>
+      <c r="E95" s="7">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="F95" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="G95">
+        <f t="shared" ca="1" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="1">
+        <v>44316</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1695</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="1">
+        <v>44681</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0</v>
+      </c>
+      <c r="D97" s="8">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="E97" s="7">
+        <f t="shared" si="5"/>
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="F97" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1330</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="1">
+        <v>44864</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0</v>
+      </c>
+      <c r="D98" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E98" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F98" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1147</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45046</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0</v>
+      </c>
+      <c r="D99" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E99" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F99" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ca="1" si="4"/>
+        <v>-965</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45229</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0</v>
+      </c>
+      <c r="D100" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E100" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F100" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" ca="1" si="4"/>
+        <v>-782</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E101" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F101" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ca="1" si="4"/>
+        <v>-599</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45595</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E102" s="7">
+        <f t="shared" si="5"/>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F102" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" ca="1" si="4"/>
+        <v>-416</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C103" s="8">
+        <v>20</v>
+      </c>
+      <c r="D103" s="8">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E103" s="7">
+        <f t="shared" si="5"/>
+        <v>24.56</v>
+      </c>
+      <c r="F103" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ca="1" si="4"/>
+        <v>-234</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C104" s="8">
+        <v>20</v>
+      </c>
+      <c r="D104" s="8">
+        <v>3.65</v>
+      </c>
+      <c r="E104" s="7">
+        <f t="shared" si="5"/>
+        <v>23.65</v>
+      </c>
+      <c r="F104" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" ca="1" si="4"/>
+        <v>-51</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="1">
+        <v>46142</v>
+      </c>
+      <c r="C105" s="8">
+        <v>20</v>
+      </c>
+      <c r="D105" s="8">
+        <v>2.74</v>
+      </c>
+      <c r="E105" s="7">
+        <f t="shared" si="5"/>
+        <v>22.740000000000002</v>
+      </c>
+      <c r="F105" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" ca="1" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" s="1">
+        <v>46325</v>
+      </c>
+      <c r="C106" s="8">
+        <v>20</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1.83</v>
+      </c>
+      <c r="E106" s="7">
+        <f t="shared" si="5"/>
+        <v>21.83</v>
+      </c>
+      <c r="F106" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G106">
+        <f t="shared" ref="G106:G169" ca="1" si="6">B106-$Q$1</f>
+        <v>314</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="1">
+        <v>46507</v>
+      </c>
+      <c r="C107" s="8">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="E107" s="7">
+        <f t="shared" ref="E107:E170" si="7">C107+D107</f>
+        <v>20.91</v>
+      </c>
+      <c r="F107" s="14">
+        <v>9.1249999999999998E-2</v>
+      </c>
+      <c r="G107">
+        <f t="shared" ca="1" si="6"/>
+        <v>496</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45631</v>
+      </c>
+      <c r="C108" s="7">
+        <v>0</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ca="1" si="6"/>
+        <v>-380</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45813</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0</v>
+      </c>
+      <c r="D109" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E109" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F109" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ca="1" si="6"/>
+        <v>-198</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45996</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0</v>
+      </c>
+      <c r="D110" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F110" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ca="1" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="1">
+        <v>46178</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0</v>
+      </c>
+      <c r="D111" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F111" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G111">
+        <f t="shared" ca="1" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="1">
+        <v>46361</v>
+      </c>
+      <c r="C112" s="8">
+        <v>0</v>
+      </c>
+      <c r="D112" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F112" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ca="1" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="1">
+        <v>46543</v>
+      </c>
+      <c r="C113" s="8">
+        <v>0</v>
+      </c>
+      <c r="D113" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E113" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F113" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ca="1" si="6"/>
+        <v>532</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="1">
+        <v>46726</v>
+      </c>
+      <c r="C114" s="8">
+        <v>0</v>
+      </c>
+      <c r="D114" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E114" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F114" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ca="1" si="6"/>
+        <v>715</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115" s="1">
+        <v>46909</v>
+      </c>
+      <c r="C115" s="8">
+        <v>0</v>
+      </c>
+      <c r="D115" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E115" s="7">
+        <f t="shared" si="7"/>
+        <v>4.88</v>
+      </c>
+      <c r="F115" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G115">
+        <f t="shared" ca="1" si="6"/>
+        <v>898</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="1">
+        <v>47092</v>
+      </c>
+      <c r="C116" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="D116" s="8">
+        <v>4.88</v>
+      </c>
+      <c r="E116" s="7">
+        <f t="shared" si="7"/>
+        <v>22.38</v>
+      </c>
+      <c r="F116" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G116">
+        <f t="shared" ca="1" si="6"/>
+        <v>1081</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="1">
+        <v>47274</v>
+      </c>
+      <c r="C117" s="8">
+        <v>0</v>
+      </c>
+      <c r="D117" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" si="7"/>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F117" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ca="1" si="6"/>
+        <v>1263</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="1">
+        <v>47457</v>
+      </c>
+      <c r="C118" s="8">
+        <v>17.5</v>
+      </c>
+      <c r="D118" s="8">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="7"/>
+        <v>21.52</v>
+      </c>
+      <c r="F118" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G118">
+        <f t="shared" ca="1" si="6"/>
+        <v>1446</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="1">
+        <v>47639</v>
+      </c>
+      <c r="C119" s="8">
+        <v>0</v>
+      </c>
+      <c r="D119" s="8">
+        <v>3.17</v>
+      </c>
+      <c r="E119" s="7">
+        <f t="shared" si="7"/>
+        <v>3.17</v>
+      </c>
+      <c r="F119" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G119">
+        <f t="shared" ca="1" si="6"/>
+        <v>1628</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" s="15">
+        <v>47822</v>
+      </c>
+      <c r="C120" s="8">
+        <v>65</v>
+      </c>
+      <c r="D120" s="9">
+        <v>3.17</v>
+      </c>
+      <c r="E120" s="7">
+        <f t="shared" si="7"/>
+        <v>68.17</v>
+      </c>
+      <c r="F120" s="14">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="G120">
+        <f t="shared" ca="1" si="6"/>
+        <v>1811</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45491</v>
+      </c>
+      <c r="C121" s="7">
+        <v>0</v>
+      </c>
+      <c r="D121" s="12"/>
+      <c r="E121" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G121">
+        <f t="shared" ca="1" si="6"/>
+        <v>-520</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>18</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45675</v>
+      </c>
+      <c r="C122" s="8">
+        <v>0</v>
+      </c>
+      <c r="D122" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E122" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F122" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G122">
+        <f t="shared" ca="1" si="6"/>
+        <v>-336</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45856</v>
+      </c>
+      <c r="C123" s="8">
+        <v>0</v>
+      </c>
+      <c r="D123" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E123" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F123" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G123">
+        <f t="shared" ca="1" si="6"/>
+        <v>-155</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>18</v>
+      </c>
+      <c r="B124" s="1">
+        <v>46040</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0</v>
+      </c>
+      <c r="D124" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E124" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F124" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G124">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>18</v>
+      </c>
+      <c r="B125" s="1">
+        <v>46221</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0</v>
+      </c>
+      <c r="D125" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E125" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F125" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G125">
+        <f t="shared" ca="1" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="1">
+        <v>46405</v>
+      </c>
+      <c r="C126" s="8">
+        <v>0</v>
+      </c>
+      <c r="D126" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E126" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F126" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G126">
+        <f t="shared" ca="1" si="6"/>
+        <v>394</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="1">
+        <v>46586</v>
+      </c>
+      <c r="C127" s="8">
+        <v>0</v>
+      </c>
+      <c r="D127" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E127" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F127" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G127">
+        <f t="shared" ca="1" si="6"/>
+        <v>575</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>18</v>
+      </c>
+      <c r="B128" s="1">
+        <v>46770</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0</v>
+      </c>
+      <c r="D128" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E128" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F128" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G128">
+        <f t="shared" ca="1" si="6"/>
+        <v>759</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="1">
+        <v>46952</v>
+      </c>
+      <c r="C129" s="8">
+        <v>0</v>
+      </c>
+      <c r="D129" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E129" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F129" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G129">
+        <f t="shared" ca="1" si="6"/>
+        <v>941</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="1">
+        <v>47136</v>
+      </c>
+      <c r="C130" s="8">
+        <v>0</v>
+      </c>
+      <c r="D130" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E130" s="7">
+        <f t="shared" si="7"/>
+        <v>4.75</v>
+      </c>
+      <c r="F130" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G130">
+        <f t="shared" ca="1" si="6"/>
+        <v>1125</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="1">
+        <v>47317</v>
+      </c>
+      <c r="C131" s="8">
+        <v>33</v>
+      </c>
+      <c r="D131" s="8">
+        <v>4.75</v>
+      </c>
+      <c r="E131" s="7">
+        <f t="shared" si="7"/>
+        <v>37.75</v>
+      </c>
+      <c r="F131" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ca="1" si="6"/>
+        <v>1306</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>18</v>
+      </c>
+      <c r="B132" s="1">
+        <v>47501</v>
+      </c>
+      <c r="C132" s="8">
+        <v>0</v>
+      </c>
+      <c r="D132" s="8">
+        <v>3.18</v>
+      </c>
+      <c r="E132" s="7">
+        <f t="shared" si="7"/>
+        <v>3.18</v>
+      </c>
+      <c r="F132" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G132">
+        <f t="shared" ca="1" si="6"/>
+        <v>1490</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="1">
+        <v>47682</v>
+      </c>
+      <c r="C133" s="8">
+        <v>33</v>
+      </c>
+      <c r="D133" s="8">
+        <v>3.18</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="7"/>
+        <v>36.18</v>
+      </c>
+      <c r="F133" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ca="1" si="6"/>
+        <v>1671</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="1">
+        <v>47866</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0</v>
+      </c>
+      <c r="D134" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="7"/>
+        <v>1.62</v>
+      </c>
+      <c r="F134" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G134">
+        <f t="shared" ca="1" si="6"/>
+        <v>1855</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="15">
+        <v>48047</v>
+      </c>
+      <c r="C135" s="8">
+        <v>34</v>
+      </c>
+      <c r="D135" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="7"/>
+        <v>35.619999999999997</v>
+      </c>
+      <c r="F135" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G135">
+        <f t="shared" ca="1" si="6"/>
+        <v>2036</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45546</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="12"/>
+      <c r="E136" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F136" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G136">
+        <f t="shared" ca="1" si="6"/>
+        <v>-465</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C137" s="8">
+        <v>0</v>
+      </c>
+      <c r="D137" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F137" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ca="1" si="6"/>
+        <v>-284</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45911</v>
+      </c>
+      <c r="C138" s="8">
+        <v>0</v>
+      </c>
+      <c r="D138" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E138" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F138" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G138">
+        <f t="shared" ca="1" si="6"/>
+        <v>-100</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" s="1">
+        <v>46092</v>
+      </c>
+      <c r="C139" s="8">
+        <v>0</v>
+      </c>
+      <c r="D139" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E139" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F139" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G139">
+        <f t="shared" ca="1" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="1">
+        <v>46276</v>
+      </c>
+      <c r="C140" s="8">
+        <v>0</v>
+      </c>
+      <c r="D140" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E140" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F140" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G140">
+        <f t="shared" ca="1" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" s="1">
+        <v>46457</v>
+      </c>
+      <c r="C141" s="8">
+        <v>0</v>
+      </c>
+      <c r="D141" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E141" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F141" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G141">
+        <f t="shared" ca="1" si="6"/>
+        <v>446</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" s="1">
+        <v>46641</v>
+      </c>
+      <c r="C142" s="8">
+        <v>0</v>
+      </c>
+      <c r="D142" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E142" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F142" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G142">
+        <f t="shared" ca="1" si="6"/>
+        <v>630</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" s="1">
+        <v>46823</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0</v>
+      </c>
+      <c r="D143" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E143" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F143" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ca="1" si="6"/>
+        <v>812</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" s="1">
+        <v>47007</v>
+      </c>
+      <c r="C144" s="8">
+        <v>0</v>
+      </c>
+      <c r="D144" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E144" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F144" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G144">
+        <f t="shared" ca="1" si="6"/>
+        <v>996</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" s="1">
+        <v>47188</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0</v>
+      </c>
+      <c r="D145" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E145" s="7">
+        <f t="shared" si="7"/>
+        <v>4.38</v>
+      </c>
+      <c r="F145" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G145">
+        <f t="shared" ca="1" si="6"/>
+        <v>1177</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" s="1">
+        <v>47372</v>
+      </c>
+      <c r="C146" s="8">
+        <v>20</v>
+      </c>
+      <c r="D146" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="E146" s="7">
+        <f t="shared" si="7"/>
+        <v>24.38</v>
+      </c>
+      <c r="F146" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G146">
+        <f t="shared" ca="1" si="6"/>
+        <v>1361</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" s="1">
+        <v>47553</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0</v>
+      </c>
+      <c r="D147" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E147" s="7">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="F147" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G147">
+        <f t="shared" ca="1" si="6"/>
+        <v>1542</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" s="1">
+        <v>47737</v>
+      </c>
+      <c r="C148" s="8">
+        <v>20</v>
+      </c>
+      <c r="D148" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E148" s="7">
+        <f t="shared" si="7"/>
+        <v>23.5</v>
+      </c>
+      <c r="F148" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G148">
+        <f t="shared" ca="1" si="6"/>
+        <v>1726</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" s="1">
+        <v>47918</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="E149" s="7">
+        <f t="shared" si="7"/>
+        <v>2.63</v>
+      </c>
+      <c r="F149" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G149">
+        <f t="shared" ca="1" si="6"/>
+        <v>1907</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="15">
+        <v>48102</v>
+      </c>
+      <c r="C150" s="8">
+        <v>60</v>
+      </c>
+      <c r="D150" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="E150" s="7">
+        <f t="shared" si="7"/>
+        <v>62.63</v>
+      </c>
+      <c r="F150" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G150">
+        <f t="shared" ca="1" si="6"/>
+        <v>2091</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>20</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45412</v>
+      </c>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F151" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G151">
+        <f t="shared" ca="1" si="6"/>
+        <v>-599</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>20</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45595</v>
+      </c>
+      <c r="C152" s="8">
+        <v>0</v>
+      </c>
+      <c r="D152" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E152" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F152" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G152">
+        <f t="shared" ca="1" si="6"/>
+        <v>-416</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0</v>
+      </c>
+      <c r="D153" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E153" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F153" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G153">
+        <f t="shared" ca="1" si="6"/>
+        <v>-234</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45960</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0</v>
+      </c>
+      <c r="D154" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E154" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F154" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ca="1" si="6"/>
+        <v>-51</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="1">
+        <v>46142</v>
+      </c>
+      <c r="C155" s="8">
+        <v>0</v>
+      </c>
+      <c r="D155" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E155" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F155" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ca="1" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="1">
+        <v>46325</v>
+      </c>
+      <c r="C156" s="8">
+        <v>0</v>
+      </c>
+      <c r="D156" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E156" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F156" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G156">
+        <f t="shared" ca="1" si="6"/>
+        <v>314</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="1">
+        <v>46507</v>
+      </c>
+      <c r="C157" s="8">
+        <v>0</v>
+      </c>
+      <c r="D157" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E157" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F157" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G157">
+        <f t="shared" ca="1" si="6"/>
+        <v>496</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="1">
+        <v>46690</v>
+      </c>
+      <c r="C158" s="8">
+        <v>0</v>
+      </c>
+      <c r="D158" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E158" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F158" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G158">
+        <f t="shared" ca="1" si="6"/>
+        <v>679</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="1">
+        <v>46873</v>
+      </c>
+      <c r="C159" s="8">
+        <v>0</v>
+      </c>
+      <c r="D159" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E159" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F159" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G159">
+        <f t="shared" ca="1" si="6"/>
+        <v>862</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="1">
+        <v>47056</v>
+      </c>
+      <c r="C160" s="8">
+        <v>0</v>
+      </c>
+      <c r="D160" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E160" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F160" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ca="1" si="6"/>
+        <v>1045</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="1">
+        <v>47238</v>
+      </c>
+      <c r="C161" s="8">
+        <v>0</v>
+      </c>
+      <c r="D161" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E161" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F161" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G161">
+        <f t="shared" ca="1" si="6"/>
+        <v>1227</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="1">
+        <v>47421</v>
+      </c>
+      <c r="C162" s="8">
+        <v>0</v>
+      </c>
+      <c r="D162" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E162" s="7">
+        <f t="shared" si="7"/>
+        <v>4.25</v>
+      </c>
+      <c r="F162" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G162">
+        <f t="shared" ca="1" si="6"/>
+        <v>1410</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="1">
+        <v>47603</v>
+      </c>
+      <c r="C163" s="8">
+        <v>33.33</v>
+      </c>
+      <c r="D163" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E163" s="7">
+        <f t="shared" si="7"/>
+        <v>37.58</v>
+      </c>
+      <c r="F163" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G163">
+        <f t="shared" ca="1" si="6"/>
+        <v>1592</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="1">
+        <v>47786</v>
+      </c>
+      <c r="C164" s="8">
+        <v>0</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="E164" s="7">
+        <f t="shared" si="7"/>
+        <v>2.83</v>
+      </c>
+      <c r="F164" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G164">
+        <f t="shared" ca="1" si="6"/>
+        <v>1775</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>20</v>
+      </c>
+      <c r="B165" s="1">
+        <v>47968</v>
+      </c>
+      <c r="C165" s="8">
+        <v>33.33</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2.83</v>
+      </c>
+      <c r="E165" s="7">
+        <f t="shared" si="7"/>
+        <v>36.159999999999997</v>
+      </c>
+      <c r="F165" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G165">
+        <f t="shared" ca="1" si="6"/>
+        <v>1957</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>20</v>
+      </c>
+      <c r="B166" s="1">
+        <v>48151</v>
+      </c>
+      <c r="C166" s="8">
+        <v>0</v>
+      </c>
+      <c r="D166" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="E166" s="7">
+        <f t="shared" si="7"/>
+        <v>1.42</v>
+      </c>
+      <c r="F166" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G166">
+        <f t="shared" ca="1" si="6"/>
+        <v>2140</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>20</v>
+      </c>
+      <c r="B167" s="15">
+        <v>48334</v>
+      </c>
+      <c r="C167" s="8">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="D167" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="E167" s="7">
+        <f t="shared" si="7"/>
+        <v>34.760000000000005</v>
+      </c>
+      <c r="F167" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G167">
+        <f t="shared" ca="1" si="6"/>
+        <v>2323</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45979</v>
+      </c>
+      <c r="C168" s="7">
+        <v>0</v>
+      </c>
+      <c r="D168" s="12"/>
+      <c r="E168" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F168" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G168">
+        <f t="shared" ca="1" si="6"/>
+        <v>-32</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="1">
+        <v>46160</v>
+      </c>
+      <c r="C169" s="8">
+        <v>0</v>
+      </c>
+      <c r="D169" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E169" s="7">
+        <f t="shared" si="7"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F169" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G169">
+        <f t="shared" ca="1" si="6"/>
+        <v>149</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="1">
+        <v>46344</v>
+      </c>
+      <c r="C170" s="8">
+        <v>0</v>
+      </c>
+      <c r="D170" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E170" s="7">
+        <f t="shared" si="7"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F170" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G170">
+        <f t="shared" ref="G170:G233" ca="1" si="8">B170-$Q$1</f>
+        <v>333</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="1">
+        <v>46525</v>
+      </c>
+      <c r="C171" s="8">
+        <v>0</v>
+      </c>
+      <c r="D171" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E171" s="7">
+        <f t="shared" ref="E171:E234" si="9">C171+D171</f>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F171" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G171">
+        <f t="shared" ca="1" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" s="1">
+        <v>46709</v>
+      </c>
+      <c r="C172" s="8">
+        <v>0</v>
+      </c>
+      <c r="D172" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E172" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F172" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G172">
+        <f t="shared" ca="1" si="8"/>
+        <v>698</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="1">
+        <v>46891</v>
+      </c>
+      <c r="C173" s="8">
+        <v>0</v>
+      </c>
+      <c r="D173" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E173" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F173" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G173">
+        <f t="shared" ca="1" si="8"/>
+        <v>880</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="1">
+        <v>47075</v>
+      </c>
+      <c r="C174" s="8">
+        <v>0</v>
+      </c>
+      <c r="D174" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E174" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F174" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ca="1" si="8"/>
+        <v>1064</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" s="1">
+        <v>47256</v>
+      </c>
+      <c r="C175" s="8">
+        <v>0</v>
+      </c>
+      <c r="D175" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E175" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F175" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G175">
+        <f t="shared" ca="1" si="8"/>
+        <v>1245</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" s="1">
+        <v>47440</v>
+      </c>
+      <c r="C176" s="8">
+        <v>0</v>
+      </c>
+      <c r="D176" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E176" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F176" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G176">
+        <f t="shared" ca="1" si="8"/>
+        <v>1429</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" s="1">
+        <v>47621</v>
+      </c>
+      <c r="C177" s="8">
+        <v>0</v>
+      </c>
+      <c r="D177" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E177" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F177" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G177">
+        <f t="shared" ca="1" si="8"/>
+        <v>1610</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" s="1">
+        <v>47805</v>
+      </c>
+      <c r="C178" s="8">
+        <v>0</v>
+      </c>
+      <c r="D178" s="8">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E178" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F178" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G178">
+        <f t="shared" ca="1" si="8"/>
+        <v>1794</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="16">
+        <v>47986</v>
+      </c>
+      <c r="C179" s="8">
+        <v>100</v>
+      </c>
+      <c r="D179" s="9">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E179" s="7">
+        <f t="shared" si="9"/>
+        <v>104.06</v>
+      </c>
+      <c r="F179" s="10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ca="1" si="8"/>
+        <v>1975</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45545</v>
+      </c>
+      <c r="C180" s="7">
+        <v>0</v>
+      </c>
+      <c r="D180" s="12"/>
+      <c r="E180" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F180" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G180">
+        <f t="shared" ca="1" si="8"/>
+        <v>-466</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>22</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45726</v>
+      </c>
+      <c r="C181" s="8">
+        <v>0</v>
+      </c>
+      <c r="D181" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E181" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F181" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G181">
+        <f t="shared" ca="1" si="8"/>
+        <v>-285</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45910</v>
+      </c>
+      <c r="C182" s="8">
+        <v>0</v>
+      </c>
+      <c r="D182" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E182" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F182" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G182">
+        <f t="shared" ca="1" si="8"/>
+        <v>-101</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>22</v>
+      </c>
+      <c r="B183" s="1">
+        <v>46091</v>
+      </c>
+      <c r="C183" s="8">
+        <v>0</v>
+      </c>
+      <c r="D183" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E183" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F183" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G183">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>22</v>
+      </c>
+      <c r="B184" s="1">
+        <v>46275</v>
+      </c>
+      <c r="C184" s="8">
+        <v>0</v>
+      </c>
+      <c r="D184" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E184" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F184" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G184">
+        <f t="shared" ca="1" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>22</v>
+      </c>
+      <c r="B185" s="1">
+        <v>46456</v>
+      </c>
+      <c r="C185" s="8">
+        <v>0</v>
+      </c>
+      <c r="D185" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E185" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F185" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G185">
+        <f t="shared" ca="1" si="8"/>
+        <v>445</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>22</v>
+      </c>
+      <c r="B186" s="1">
+        <v>46640</v>
+      </c>
+      <c r="C186" s="8">
+        <v>0</v>
+      </c>
+      <c r="D186" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E186" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F186" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G186">
+        <f t="shared" ca="1" si="8"/>
+        <v>629</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>22</v>
+      </c>
+      <c r="B187" s="1">
+        <v>46822</v>
+      </c>
+      <c r="C187" s="8">
+        <v>0</v>
+      </c>
+      <c r="D187" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E187" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F187" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G187">
+        <f t="shared" ca="1" si="8"/>
+        <v>811</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>22</v>
+      </c>
+      <c r="B188" s="1">
+        <v>47006</v>
+      </c>
+      <c r="C188" s="8">
+        <v>0</v>
+      </c>
+      <c r="D188" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E188" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F188" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G188">
+        <f t="shared" ca="1" si="8"/>
+        <v>995</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="1">
+        <v>47187</v>
+      </c>
+      <c r="C189" s="8">
+        <v>0</v>
+      </c>
+      <c r="D189" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E189" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F189" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ca="1" si="8"/>
+        <v>1176</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>22</v>
+      </c>
+      <c r="B190" s="1">
+        <v>47371</v>
+      </c>
+      <c r="C190" s="8">
+        <v>0</v>
+      </c>
+      <c r="D190" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E190" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F190" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G190">
+        <f t="shared" ca="1" si="8"/>
+        <v>1360</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>22</v>
+      </c>
+      <c r="B191" s="1">
+        <v>47552</v>
+      </c>
+      <c r="C191" s="8">
+        <v>0</v>
+      </c>
+      <c r="D191" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E191" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F191" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G191">
+        <f t="shared" ca="1" si="8"/>
+        <v>1541</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>22</v>
+      </c>
+      <c r="B192" s="1">
+        <v>47736</v>
+      </c>
+      <c r="C192" s="8">
+        <v>0</v>
+      </c>
+      <c r="D192" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E192" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F192" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G192">
+        <f t="shared" ca="1" si="8"/>
+        <v>1725</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>22</v>
+      </c>
+      <c r="B193" s="1">
+        <v>47917</v>
+      </c>
+      <c r="C193" s="8">
+        <v>0</v>
+      </c>
+      <c r="D193" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E193" s="7">
+        <f t="shared" si="9"/>
+        <v>3.98</v>
+      </c>
+      <c r="F193" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G193">
+        <f t="shared" ca="1" si="8"/>
+        <v>1906</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" s="15">
+        <v>48101</v>
+      </c>
+      <c r="C194" s="8">
+        <v>100</v>
+      </c>
+      <c r="D194" s="8">
+        <v>3.98</v>
+      </c>
+      <c r="E194" s="7">
+        <f t="shared" si="9"/>
+        <v>103.98</v>
+      </c>
+      <c r="F194" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="G194">
+        <f t="shared" ca="1" si="8"/>
+        <v>2090</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45807</v>
+      </c>
+      <c r="C195" s="7">
+        <v>0</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F195" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G195">
+        <f t="shared" ca="1" si="8"/>
+        <v>-204</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45991</v>
+      </c>
+      <c r="C196" s="8">
+        <v>0</v>
+      </c>
+      <c r="D196" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E196" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F196" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G196">
+        <f t="shared" ca="1" si="8"/>
+        <v>-20</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="1">
+        <v>46172</v>
+      </c>
+      <c r="C197" s="8">
+        <v>0</v>
+      </c>
+      <c r="D197" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E197" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F197" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G197">
+        <f t="shared" ca="1" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="1">
+        <v>46356</v>
+      </c>
+      <c r="C198" s="8">
+        <v>0</v>
+      </c>
+      <c r="D198" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E198" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F198" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G198">
+        <f t="shared" ca="1" si="8"/>
+        <v>345</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="1">
+        <v>46537</v>
+      </c>
+      <c r="C199" s="8">
+        <v>0</v>
+      </c>
+      <c r="D199" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E199" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F199" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G199">
+        <f t="shared" ca="1" si="8"/>
+        <v>526</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="1">
+        <v>46721</v>
+      </c>
+      <c r="C200" s="8">
+        <v>0</v>
+      </c>
+      <c r="D200" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E200" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F200" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" ca="1" si="8"/>
+        <v>710</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="1">
+        <v>46903</v>
+      </c>
+      <c r="C201" s="8">
+        <v>0</v>
+      </c>
+      <c r="D201" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E201" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F201" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G201">
+        <f t="shared" ca="1" si="8"/>
+        <v>892</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="1">
+        <v>47087</v>
+      </c>
+      <c r="C202" s="8">
+        <v>0</v>
+      </c>
+      <c r="D202" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E202" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F202" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G202">
+        <f t="shared" ca="1" si="8"/>
+        <v>1076</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="1">
+        <v>47268</v>
+      </c>
+      <c r="C203" s="8">
+        <v>0</v>
+      </c>
+      <c r="D203" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E203" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F203" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G203">
+        <f t="shared" ca="1" si="8"/>
+        <v>1257</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="1">
+        <v>47452</v>
+      </c>
+      <c r="C204" s="8">
+        <v>0</v>
+      </c>
+      <c r="D204" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E204" s="7">
+        <f t="shared" si="9"/>
+        <v>4.25</v>
+      </c>
+      <c r="F204" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G204">
+        <f t="shared" ca="1" si="8"/>
+        <v>1441</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="1">
+        <v>47633</v>
+      </c>
+      <c r="C205" s="8">
+        <v>33</v>
+      </c>
+      <c r="D205" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E205" s="7">
+        <f t="shared" si="9"/>
+        <v>37.25</v>
+      </c>
+      <c r="F205" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G205">
+        <f t="shared" ca="1" si="8"/>
+        <v>1622</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="1">
+        <v>47817</v>
+      </c>
+      <c r="C206" s="8">
+        <v>0</v>
+      </c>
+      <c r="D206" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="E206" s="7">
+        <f t="shared" si="9"/>
+        <v>2.85</v>
+      </c>
+      <c r="F206" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G206">
+        <f t="shared" ca="1" si="8"/>
+        <v>1806</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="1">
+        <v>47998</v>
+      </c>
+      <c r="C207" s="8">
+        <v>33</v>
+      </c>
+      <c r="D207" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="E207" s="7">
+        <f t="shared" si="9"/>
+        <v>35.85</v>
+      </c>
+      <c r="F207" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G207">
+        <f t="shared" ca="1" si="8"/>
+        <v>1987</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="1">
+        <v>48182</v>
+      </c>
+      <c r="C208" s="8">
+        <v>0</v>
+      </c>
+      <c r="D208" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="E208" s="7">
+        <f t="shared" si="9"/>
+        <v>1.45</v>
+      </c>
+      <c r="F208" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G208">
+        <f t="shared" ca="1" si="8"/>
+        <v>2171</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="1">
+        <v>48364</v>
+      </c>
+      <c r="C209" s="8">
+        <v>34</v>
+      </c>
+      <c r="D209" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E209" s="7">
+        <f t="shared" si="9"/>
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F209" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G209">
+        <f t="shared" ca="1" si="8"/>
+        <v>2353</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44239</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F210" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G210">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1772</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44469</v>
+      </c>
+      <c r="C211" s="17"/>
+      <c r="D211" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E211" s="7">
+        <f t="shared" si="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="F211" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G211">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1542</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44650</v>
+      </c>
+      <c r="C212" s="17"/>
+      <c r="D212" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E212" s="7">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F212" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G212">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1361</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44834</v>
+      </c>
+      <c r="C213" s="17"/>
+      <c r="D213" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E213" s="7">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F213" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G213">
+        <f t="shared" ca="1" si="8"/>
+        <v>-1177</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45015</v>
+      </c>
+      <c r="C214" s="17"/>
+      <c r="D214" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E214" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F214" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G214">
+        <f t="shared" ca="1" si="8"/>
+        <v>-996</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C215" s="17"/>
+      <c r="D215" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E215" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F215" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G215">
+        <f t="shared" ca="1" si="8"/>
+        <v>-812</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45381</v>
+      </c>
+      <c r="C216" s="17"/>
+      <c r="D216" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E216" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F216" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G216">
+        <f t="shared" ca="1" si="8"/>
+        <v>-630</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45565</v>
+      </c>
+      <c r="C217" s="17"/>
+      <c r="D217" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E217" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F217" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G217">
+        <f t="shared" ca="1" si="8"/>
+        <v>-446</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C218" s="17"/>
+      <c r="D218" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E218" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F218" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G218">
+        <f t="shared" ca="1" si="8"/>
+        <v>-265</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C219" s="17"/>
+      <c r="D219" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E219" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F219" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G219">
+        <f t="shared" ca="1" si="8"/>
+        <v>-81</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" s="1">
+        <v>46111</v>
+      </c>
+      <c r="C220" s="17"/>
+      <c r="D220" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E220" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F220" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G220">
+        <f t="shared" ca="1" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" s="1">
+        <v>46295</v>
+      </c>
+      <c r="C221" s="17"/>
+      <c r="D221" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E221" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F221" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G221">
+        <f t="shared" ca="1" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" s="1">
+        <v>46476</v>
+      </c>
+      <c r="C222" s="17"/>
+      <c r="D222" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E222" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F222" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G222">
+        <f t="shared" ca="1" si="8"/>
+        <v>465</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="1">
+        <v>46660</v>
+      </c>
+      <c r="C223" s="17"/>
+      <c r="D223" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E223" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F223" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G223">
+        <f t="shared" ca="1" si="8"/>
+        <v>649</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" s="1">
+        <v>46842</v>
+      </c>
+      <c r="C224" s="17"/>
+      <c r="D224" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E224" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F224" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G224">
+        <f t="shared" ca="1" si="8"/>
+        <v>831</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="1">
+        <v>47026</v>
+      </c>
+      <c r="C225" s="17"/>
+      <c r="D225" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E225" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F225" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G225">
+        <f t="shared" ca="1" si="8"/>
+        <v>1015</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" s="1">
+        <v>47207</v>
+      </c>
+      <c r="C226" s="17"/>
+      <c r="D226" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E226" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F226" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G226">
+        <f t="shared" ca="1" si="8"/>
+        <v>1196</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="1">
+        <v>47391</v>
+      </c>
+      <c r="C227" s="17"/>
+      <c r="D227" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E227" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F227" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G227">
+        <f t="shared" ca="1" si="8"/>
+        <v>1380</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228" s="1">
+        <v>47572</v>
+      </c>
+      <c r="C228" s="17"/>
+      <c r="D228" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E228" s="7">
+        <f t="shared" si="9"/>
+        <v>3.5</v>
+      </c>
+      <c r="F228" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G228">
+        <f t="shared" ca="1" si="8"/>
+        <v>1561</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="1">
+        <v>47756</v>
+      </c>
+      <c r="C229" s="8">
+        <v>25</v>
+      </c>
+      <c r="D229" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E229" s="7">
+        <f t="shared" si="9"/>
+        <v>28.5</v>
+      </c>
+      <c r="F229" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G229">
+        <f t="shared" ca="1" si="8"/>
+        <v>1745</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="1">
+        <v>47937</v>
+      </c>
+      <c r="C230" s="17"/>
+      <c r="D230" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="E230" s="7">
+        <f t="shared" si="9"/>
+        <v>2.63</v>
+      </c>
+      <c r="F230" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G230">
+        <f t="shared" ca="1" si="8"/>
+        <v>1926</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="1">
+        <v>48121</v>
+      </c>
+      <c r="C231" s="8">
+        <v>25</v>
+      </c>
+      <c r="D231" s="8">
+        <v>2.63</v>
+      </c>
+      <c r="E231" s="7">
+        <f t="shared" si="9"/>
+        <v>27.63</v>
+      </c>
+      <c r="F231" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G231">
+        <f t="shared" ca="1" si="8"/>
+        <v>2110</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>24</v>
+      </c>
+      <c r="B232" s="1">
+        <v>48303</v>
+      </c>
+      <c r="C232" s="17"/>
+      <c r="D232" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E232" s="7">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+      <c r="F232" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G232">
+        <f t="shared" ca="1" si="8"/>
+        <v>2292</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" s="1">
+        <v>48487</v>
+      </c>
+      <c r="C233" s="8">
+        <v>25</v>
+      </c>
+      <c r="D233" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E233" s="7">
+        <f t="shared" si="9"/>
+        <v>26.75</v>
+      </c>
+      <c r="F233" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G233">
+        <f t="shared" ca="1" si="8"/>
+        <v>2476</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" s="1">
+        <v>48668</v>
+      </c>
+      <c r="C234" s="17"/>
+      <c r="D234" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E234" s="7">
+        <f t="shared" si="9"/>
+        <v>0.88</v>
+      </c>
+      <c r="F234" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G234">
+        <f t="shared" ref="G234:G235" ca="1" si="10">B234-$Q$1</f>
+        <v>2657</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="1">
+        <v>48852</v>
+      </c>
+      <c r="C235" s="8">
+        <v>25</v>
+      </c>
+      <c r="D235" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E235" s="7">
+        <f t="shared" ref="E235" si="11">C235+D235</f>
+        <v>25.88</v>
+      </c>
+      <c r="F235" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G235">
+        <f t="shared" ca="1" si="10"/>
+        <v>2841</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/BD ONs.xlsx
+++ b/data/BD ONs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAC489C-82FE-4888-B192-F640EC1FC454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F80FC-16C1-4FE6-A830-44630A58809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB8ACD95-2FAD-499C-A444-8C523315DBC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="26">
   <si>
     <t>ARC1O</t>
   </si>
@@ -112,13 +112,16 @@
   <si>
     <t>YMCJO</t>
   </si>
+  <si>
+    <t>VSCVO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -280,7 +283,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7999CC-3586-44AD-A24E-E30070673374}">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Q253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J214" sqref="J214"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7831,7 +7834,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G234">
-        <f t="shared" ref="G234:G235" ca="1" si="10">B234-$Q$1</f>
+        <f t="shared" ref="G234:G252" ca="1" si="10">B234-$Q$1</f>
         <v>2657</v>
       </c>
       <c r="H234" t="s">
@@ -7841,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>24</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>0.88</v>
       </c>
       <c r="E235" s="7">
-        <f t="shared" ref="E235" si="11">C235+D235</f>
+        <f t="shared" ref="E235:E252" si="11">C235+D235</f>
         <v>25.88</v>
       </c>
       <c r="F235" s="10">
@@ -7872,6 +7875,532 @@
         <v>1</v>
       </c>
     </row>
+    <row r="236" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C236" s="7">
+        <v>0</v>
+      </c>
+      <c r="D236" s="12"/>
+      <c r="E236" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F236" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G236">
+        <f t="shared" ca="1" si="10"/>
+        <v>-193</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C237" s="8">
+        <v>0</v>
+      </c>
+      <c r="D237" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E237" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F237" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G237">
+        <f t="shared" ca="1" si="10"/>
+        <v>-10</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>25</v>
+      </c>
+      <c r="B238" s="1">
+        <v>46183</v>
+      </c>
+      <c r="C238" s="8">
+        <v>0</v>
+      </c>
+      <c r="D238" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E238" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F238" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G238">
+        <f t="shared" ca="1" si="10"/>
+        <v>172</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>25</v>
+      </c>
+      <c r="B239" s="1">
+        <v>46366</v>
+      </c>
+      <c r="C239" s="8">
+        <v>0</v>
+      </c>
+      <c r="D239" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E239" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F239" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G239">
+        <f t="shared" ca="1" si="10"/>
+        <v>355</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240" s="1">
+        <v>46548</v>
+      </c>
+      <c r="C240" s="8">
+        <v>0</v>
+      </c>
+      <c r="D240" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E240" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F240" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G240">
+        <f t="shared" ca="1" si="10"/>
+        <v>537</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
+      </c>
+      <c r="I240">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>25</v>
+      </c>
+      <c r="B241" s="1">
+        <v>46731</v>
+      </c>
+      <c r="C241" s="8">
+        <v>0</v>
+      </c>
+      <c r="D241" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E241" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F241" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G241">
+        <f t="shared" ca="1" si="10"/>
+        <v>720</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>25</v>
+      </c>
+      <c r="B242" s="1">
+        <v>46914</v>
+      </c>
+      <c r="C242" s="8">
+        <v>0</v>
+      </c>
+      <c r="D242" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E242" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F242" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G242">
+        <f t="shared" ca="1" si="10"/>
+        <v>903</v>
+      </c>
+      <c r="H242" t="s">
+        <v>14</v>
+      </c>
+      <c r="I242">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>25</v>
+      </c>
+      <c r="B243" s="1">
+        <v>47097</v>
+      </c>
+      <c r="C243" s="8">
+        <v>0</v>
+      </c>
+      <c r="D243" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E243" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F243" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ca="1" si="10"/>
+        <v>1086</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>25</v>
+      </c>
+      <c r="B244" s="1">
+        <v>47279</v>
+      </c>
+      <c r="C244" s="8">
+        <v>0</v>
+      </c>
+      <c r="D244" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E244" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F244" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G244">
+        <f t="shared" ca="1" si="10"/>
+        <v>1268</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>25</v>
+      </c>
+      <c r="B245" s="1">
+        <v>47462</v>
+      </c>
+      <c r="C245" s="8">
+        <v>0</v>
+      </c>
+      <c r="D245" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E245" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F245" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G245">
+        <f t="shared" ca="1" si="10"/>
+        <v>1451</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>25</v>
+      </c>
+      <c r="B246" s="1">
+        <v>47644</v>
+      </c>
+      <c r="C246" s="8">
+        <v>0</v>
+      </c>
+      <c r="D246" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E246" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F246" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G246">
+        <f t="shared" ca="1" si="10"/>
+        <v>1633</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>25</v>
+      </c>
+      <c r="B247" s="1">
+        <v>47827</v>
+      </c>
+      <c r="C247" s="8">
+        <v>0</v>
+      </c>
+      <c r="D247" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E247" s="7">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F247" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G247">
+        <f t="shared" ca="1" si="10"/>
+        <v>1816</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>25</v>
+      </c>
+      <c r="B248" s="1">
+        <v>48009</v>
+      </c>
+      <c r="C248" s="8">
+        <v>33</v>
+      </c>
+      <c r="D248" s="8">
+        <v>4.25</v>
+      </c>
+      <c r="E248" s="7">
+        <f t="shared" si="11"/>
+        <v>37.25</v>
+      </c>
+      <c r="F248" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G248">
+        <f t="shared" ca="1" si="10"/>
+        <v>1998</v>
+      </c>
+      <c r="H248" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>25</v>
+      </c>
+      <c r="B249" s="1">
+        <v>48192</v>
+      </c>
+      <c r="C249" s="8">
+        <v>0</v>
+      </c>
+      <c r="D249" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="E249" s="7">
+        <f t="shared" si="11"/>
+        <v>2.85</v>
+      </c>
+      <c r="F249" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G249">
+        <f t="shared" ca="1" si="10"/>
+        <v>2181</v>
+      </c>
+      <c r="H249" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>25</v>
+      </c>
+      <c r="B250" s="1">
+        <v>48375</v>
+      </c>
+      <c r="C250" s="8">
+        <v>33</v>
+      </c>
+      <c r="D250" s="8">
+        <v>2.85</v>
+      </c>
+      <c r="E250" s="7">
+        <f t="shared" si="11"/>
+        <v>35.85</v>
+      </c>
+      <c r="F250" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G250">
+        <f t="shared" ca="1" si="10"/>
+        <v>2364</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>25</v>
+      </c>
+      <c r="B251" s="1">
+        <v>48558</v>
+      </c>
+      <c r="C251" s="8">
+        <v>0</v>
+      </c>
+      <c r="D251" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="E251" s="7">
+        <f t="shared" si="11"/>
+        <v>1.45</v>
+      </c>
+      <c r="F251" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G251">
+        <f t="shared" ca="1" si="10"/>
+        <v>2547</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" s="1">
+        <v>48740</v>
+      </c>
+      <c r="C252" s="8">
+        <v>34</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="E252" s="7">
+        <f t="shared" si="11"/>
+        <v>35.450000000000003</v>
+      </c>
+      <c r="F252" s="10">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G252">
+        <f t="shared" ca="1" si="10"/>
+        <v>2729</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/BD ONs.xlsx
+++ b/data/BD ONs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70F80FC-16C1-4FE6-A830-44630A58809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408BA42E-605C-4C83-A17A-1D0DCFD3F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB8ACD95-2FAD-499C-A444-8C523315DBC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="34">
   <si>
     <t>ARC1O</t>
   </si>
@@ -115,6 +115,30 @@
   <si>
     <t>VSCVO</t>
   </si>
+  <si>
+    <t>RC1CO</t>
+  </si>
+  <si>
+    <t>TLCPO</t>
+  </si>
+  <si>
+    <t>YM34O</t>
+  </si>
+  <si>
+    <t>GN49O</t>
+  </si>
+  <si>
+    <t>IRCPO</t>
+  </si>
+  <si>
+    <t>MGCOO</t>
+  </si>
+  <si>
+    <t>VSCTO</t>
+  </si>
+  <si>
+    <t>TSC4O</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +182,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -292,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7999CC-3586-44AD-A24E-E30070673374}">
-  <dimension ref="A1:Q253"/>
+  <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245"/>
+    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I389" sqref="I389:I408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +701,7 @@
       </c>
       <c r="Q1" s="5">
         <f ca="1">+TODAY()</f>
-        <v>46011</v>
+        <v>46013</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -689,7 +722,7 @@
       <c r="F2" s="10"/>
       <c r="G2">
         <f t="shared" ref="G2:G18" ca="1" si="1">B2-$Q$1</f>
-        <v>-1514</v>
+        <v>-1516</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -720,7 +753,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1418</v>
+        <v>-1420</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -751,7 +784,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1329</v>
+        <v>-1331</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -782,7 +815,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1237</v>
+        <v>-1239</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -816,7 +849,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1145</v>
+        <v>-1147</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -850,7 +883,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1053</v>
+        <v>-1055</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -884,7 +917,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>-964</v>
+        <v>-966</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -918,7 +951,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>-872</v>
+        <v>-874</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -952,7 +985,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>-780</v>
+        <v>-782</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -986,7 +1019,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>-688</v>
+        <v>-690</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1017,7 +1050,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>-598</v>
+        <v>-600</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1048,7 +1081,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>-506</v>
+        <v>-508</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1079,7 +1112,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>-414</v>
+        <v>-416</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1110,7 +1143,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>-322</v>
+        <v>-324</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1141,7 +1174,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>-233</v>
+        <v>-235</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1172,7 +1205,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-141</v>
+        <v>-143</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1203,7 +1236,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1234,7 +1267,7 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G41" ca="1" si="3">B19-$Q$1</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1265,7 +1298,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1296,7 +1329,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1327,7 +1360,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1358,7 +1391,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1389,7 +1422,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1420,7 +1453,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1451,7 +1484,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1482,7 +1515,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1513,7 +1546,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1544,7 +1577,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1575,7 +1608,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1606,7 +1639,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -1637,7 +1670,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1668,7 +1701,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1699,7 +1732,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1730,7 +1763,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1761,7 +1794,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1792,7 +1825,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -1823,7 +1856,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -1854,7 +1887,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -1885,7 +1918,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -1916,7 +1949,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1947,7 +1980,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G105" ca="1" si="4">B42-$Q$1</f>
-        <v>-180</v>
+        <v>-182</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -1978,7 +2011,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2009,7 +2042,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -2040,7 +2073,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -2071,7 +2104,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -2102,7 +2135,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2133,7 +2166,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2164,7 +2197,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2195,7 +2228,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2226,7 +2259,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>-436</v>
+        <v>-438</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -2257,7 +2290,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>-254</v>
+        <v>-256</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2288,7 +2321,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>-71</v>
+        <v>-73</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2319,7 +2352,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2350,7 +2383,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2381,7 +2414,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2412,7 +2445,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2443,7 +2476,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2474,7 +2507,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -2505,7 +2538,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>-848</v>
+        <v>-850</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -2536,7 +2569,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>-664</v>
+        <v>-666</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2567,7 +2600,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>-482</v>
+        <v>-484</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -2598,7 +2631,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>-298</v>
+        <v>-300</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -2629,7 +2662,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>-117</v>
+        <v>-119</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -2660,7 +2693,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -2691,7 +2724,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2722,7 +2755,7 @@
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="4"/>
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2753,7 +2786,7 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="4"/>
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2784,7 +2817,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2815,7 +2848,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2846,7 +2879,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>-422</v>
+        <v>-424</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2877,7 +2910,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>-240</v>
+        <v>-242</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -2908,7 +2941,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>-57</v>
+        <v>-59</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -2939,7 +2972,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -2970,7 +3003,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -3001,7 +3034,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -3032,7 +3065,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3063,7 +3096,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -3094,7 +3127,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3125,7 +3158,7 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -3156,7 +3189,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3187,7 +3220,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -3218,7 +3251,7 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -3247,7 +3280,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>-1797</v>
+        <v>-1799</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -3278,7 +3311,7 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
-        <v>-1616</v>
+        <v>-1618</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
@@ -3309,7 +3342,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>-1432</v>
+        <v>-1434</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -3340,7 +3373,7 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>-1251</v>
+        <v>-1253</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -3371,7 +3404,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>-1067</v>
+        <v>-1069</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -3402,7 +3435,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>-886</v>
+        <v>-888</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
@@ -3433,7 +3466,7 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
-        <v>-702</v>
+        <v>-704</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
@@ -3464,7 +3497,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>-520</v>
+        <v>-522</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -3495,7 +3528,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
-        <v>-336</v>
+        <v>-338</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -3526,7 +3559,7 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>-155</v>
+        <v>-157</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
@@ -3557,7 +3590,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
@@ -3588,7 +3621,7 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
@@ -3617,7 +3650,7 @@
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>-1695</v>
+        <v>-1697</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
@@ -3648,7 +3681,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>-1330</v>
+        <v>-1332</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -3679,7 +3712,7 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="4"/>
-        <v>-1147</v>
+        <v>-1149</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
@@ -3710,7 +3743,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="4"/>
-        <v>-965</v>
+        <v>-967</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
@@ -3741,7 +3774,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="4"/>
-        <v>-782</v>
+        <v>-784</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -3772,7 +3805,7 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="4"/>
-        <v>-599</v>
+        <v>-601</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -3803,7 +3836,7 @@
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="4"/>
-        <v>-416</v>
+        <v>-418</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -3834,7 +3867,7 @@
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="4"/>
-        <v>-234</v>
+        <v>-236</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -3865,7 +3898,7 @@
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="4"/>
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
@@ -3896,7 +3929,7 @@
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
@@ -3927,7 +3960,7 @@
       </c>
       <c r="G106">
         <f t="shared" ref="G106:G169" ca="1" si="6">B106-$Q$1</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
@@ -3958,7 +3991,7 @@
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="6"/>
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
@@ -3987,7 +4020,7 @@
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="6"/>
-        <v>-380</v>
+        <v>-382</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
@@ -4018,7 +4051,7 @@
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="6"/>
-        <v>-198</v>
+        <v>-200</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
@@ -4049,7 +4082,7 @@
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="6"/>
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
@@ -4080,7 +4113,7 @@
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="6"/>
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
@@ -4111,7 +4144,7 @@
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="6"/>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
@@ -4142,7 +4175,7 @@
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="6"/>
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -4173,7 +4206,7 @@
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="6"/>
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -4204,7 +4237,7 @@
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="6"/>
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -4235,7 +4268,7 @@
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="6"/>
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -4266,7 +4299,7 @@
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="6"/>
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -4297,7 +4330,7 @@
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="6"/>
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -4328,7 +4361,7 @@
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="6"/>
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -4359,7 +4392,7 @@
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="6"/>
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
@@ -4388,7 +4421,7 @@
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="6"/>
-        <v>-520</v>
+        <v>-522</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
@@ -4419,7 +4452,7 @@
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="6"/>
-        <v>-336</v>
+        <v>-338</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -4450,7 +4483,7 @@
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="6"/>
-        <v>-155</v>
+        <v>-157</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
@@ -4481,7 +4514,7 @@
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -4512,7 +4545,7 @@
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
@@ -4543,7 +4576,7 @@
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="6"/>
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
@@ -4574,7 +4607,7 @@
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="6"/>
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
@@ -4605,7 +4638,7 @@
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="6"/>
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -4636,7 +4669,7 @@
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="6"/>
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
@@ -4667,7 +4700,7 @@
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="6"/>
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
@@ -4698,7 +4731,7 @@
       </c>
       <c r="G131">
         <f t="shared" ca="1" si="6"/>
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -4729,7 +4762,7 @@
       </c>
       <c r="G132">
         <f t="shared" ca="1" si="6"/>
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
@@ -4760,7 +4793,7 @@
       </c>
       <c r="G133">
         <f t="shared" ca="1" si="6"/>
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
@@ -4791,7 +4824,7 @@
       </c>
       <c r="G134">
         <f t="shared" ca="1" si="6"/>
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
@@ -4822,7 +4855,7 @@
       </c>
       <c r="G135">
         <f t="shared" ca="1" si="6"/>
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
@@ -4851,7 +4884,7 @@
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="6"/>
-        <v>-465</v>
+        <v>-467</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -4882,7 +4915,7 @@
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="6"/>
-        <v>-284</v>
+        <v>-286</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -4913,7 +4946,7 @@
       </c>
       <c r="G138">
         <f t="shared" ca="1" si="6"/>
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="H138" t="s">
         <v>14</v>
@@ -4944,7 +4977,7 @@
       </c>
       <c r="G139">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s">
         <v>14</v>
@@ -4975,7 +5008,7 @@
       </c>
       <c r="G140">
         <f t="shared" ca="1" si="6"/>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
@@ -5006,7 +5039,7 @@
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="6"/>
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
@@ -5037,7 +5070,7 @@
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="6"/>
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H142" t="s">
         <v>14</v>
@@ -5068,7 +5101,7 @@
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="6"/>
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
@@ -5099,7 +5132,7 @@
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="6"/>
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
@@ -5130,7 +5163,7 @@
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="6"/>
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -5161,7 +5194,7 @@
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="6"/>
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -5192,7 +5225,7 @@
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="6"/>
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -5223,7 +5256,7 @@
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="6"/>
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
@@ -5254,7 +5287,7 @@
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="6"/>
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -5285,7 +5318,7 @@
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="6"/>
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -5314,7 +5347,7 @@
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="6"/>
-        <v>-599</v>
+        <v>-601</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -5345,7 +5378,7 @@
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="6"/>
-        <v>-416</v>
+        <v>-418</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
@@ -5376,7 +5409,7 @@
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="6"/>
-        <v>-234</v>
+        <v>-236</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
@@ -5407,7 +5440,7 @@
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="6"/>
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -5438,7 +5471,7 @@
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="6"/>
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -5469,7 +5502,7 @@
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="6"/>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -5500,7 +5533,7 @@
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="6"/>
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -5531,7 +5564,7 @@
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="6"/>
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
@@ -5562,7 +5595,7 @@
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="6"/>
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="H159" t="s">
         <v>14</v>
@@ -5593,7 +5626,7 @@
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="6"/>
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
@@ -5624,7 +5657,7 @@
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="6"/>
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
@@ -5655,7 +5688,7 @@
       </c>
       <c r="G162">
         <f t="shared" ca="1" si="6"/>
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
@@ -5686,7 +5719,7 @@
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="6"/>
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -5717,7 +5750,7 @@
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="6"/>
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
@@ -5748,7 +5781,7 @@
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="6"/>
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
@@ -5779,7 +5812,7 @@
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="6"/>
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
@@ -5810,7 +5843,7 @@
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="6"/>
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
@@ -5839,7 +5872,7 @@
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="6"/>
-        <v>-32</v>
+        <v>-34</v>
       </c>
       <c r="H168" t="s">
         <v>14</v>
@@ -5870,7 +5903,7 @@
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="6"/>
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H169" t="s">
         <v>14</v>
@@ -5901,7 +5934,7 @@
       </c>
       <c r="G170">
         <f t="shared" ref="G170:G233" ca="1" si="8">B170-$Q$1</f>
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H170" t="s">
         <v>14</v>
@@ -5932,7 +5965,7 @@
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="8"/>
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -5963,7 +5996,7 @@
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="8"/>
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
@@ -5994,7 +6027,7 @@
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="8"/>
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
@@ -6025,7 +6058,7 @@
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="8"/>
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
@@ -6056,7 +6089,7 @@
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="8"/>
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -6087,7 +6120,7 @@
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="8"/>
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="H176" t="s">
         <v>14</v>
@@ -6118,7 +6151,7 @@
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="8"/>
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="H177" t="s">
         <v>14</v>
@@ -6149,7 +6182,7 @@
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="8"/>
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
@@ -6180,7 +6213,7 @@
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="8"/>
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="H179" t="s">
         <v>14</v>
@@ -6209,7 +6242,7 @@
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="8"/>
-        <v>-466</v>
+        <v>-468</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -6240,7 +6273,7 @@
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="8"/>
-        <v>-285</v>
+        <v>-287</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
@@ -6271,7 +6304,7 @@
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="8"/>
-        <v>-101</v>
+        <v>-103</v>
       </c>
       <c r="H182" t="s">
         <v>14</v>
@@ -6302,7 +6335,7 @@
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
@@ -6333,7 +6366,7 @@
       </c>
       <c r="G184">
         <f t="shared" ca="1" si="8"/>
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H184" t="s">
         <v>14</v>
@@ -6364,7 +6397,7 @@
       </c>
       <c r="G185">
         <f t="shared" ca="1" si="8"/>
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
@@ -6395,7 +6428,7 @@
       </c>
       <c r="G186">
         <f t="shared" ca="1" si="8"/>
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
@@ -6426,7 +6459,7 @@
       </c>
       <c r="G187">
         <f t="shared" ca="1" si="8"/>
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H187" t="s">
         <v>14</v>
@@ -6457,7 +6490,7 @@
       </c>
       <c r="G188">
         <f t="shared" ca="1" si="8"/>
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
@@ -6488,7 +6521,7 @@
       </c>
       <c r="G189">
         <f t="shared" ca="1" si="8"/>
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H189" t="s">
         <v>14</v>
@@ -6519,7 +6552,7 @@
       </c>
       <c r="G190">
         <f t="shared" ca="1" si="8"/>
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="H190" t="s">
         <v>14</v>
@@ -6550,7 +6583,7 @@
       </c>
       <c r="G191">
         <f t="shared" ca="1" si="8"/>
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H191" t="s">
         <v>14</v>
@@ -6581,7 +6614,7 @@
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="8"/>
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="H192" t="s">
         <v>14</v>
@@ -6612,7 +6645,7 @@
       </c>
       <c r="G193">
         <f t="shared" ca="1" si="8"/>
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="H193" t="s">
         <v>14</v>
@@ -6643,7 +6676,7 @@
       </c>
       <c r="G194">
         <f t="shared" ca="1" si="8"/>
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="H194" t="s">
         <v>14</v>
@@ -6672,7 +6705,7 @@
       </c>
       <c r="G195">
         <f t="shared" ca="1" si="8"/>
-        <v>-204</v>
+        <v>-206</v>
       </c>
       <c r="H195" t="s">
         <v>14</v>
@@ -6703,7 +6736,7 @@
       </c>
       <c r="G196">
         <f t="shared" ca="1" si="8"/>
-        <v>-20</v>
+        <v>-22</v>
       </c>
       <c r="H196" t="s">
         <v>14</v>
@@ -6734,7 +6767,7 @@
       </c>
       <c r="G197">
         <f t="shared" ca="1" si="8"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H197" t="s">
         <v>14</v>
@@ -6765,7 +6798,7 @@
       </c>
       <c r="G198">
         <f t="shared" ca="1" si="8"/>
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H198" t="s">
         <v>14</v>
@@ -6796,7 +6829,7 @@
       </c>
       <c r="G199">
         <f t="shared" ca="1" si="8"/>
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H199" t="s">
         <v>14</v>
@@ -6827,7 +6860,7 @@
       </c>
       <c r="G200">
         <f t="shared" ca="1" si="8"/>
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H200" t="s">
         <v>14</v>
@@ -6858,7 +6891,7 @@
       </c>
       <c r="G201">
         <f t="shared" ca="1" si="8"/>
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H201" t="s">
         <v>14</v>
@@ -6889,7 +6922,7 @@
       </c>
       <c r="G202">
         <f t="shared" ca="1" si="8"/>
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H202" t="s">
         <v>14</v>
@@ -6920,7 +6953,7 @@
       </c>
       <c r="G203">
         <f t="shared" ca="1" si="8"/>
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H203" t="s">
         <v>14</v>
@@ -6951,7 +6984,7 @@
       </c>
       <c r="G204">
         <f t="shared" ca="1" si="8"/>
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="H204" t="s">
         <v>14</v>
@@ -6982,7 +7015,7 @@
       </c>
       <c r="G205">
         <f t="shared" ca="1" si="8"/>
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="H205" t="s">
         <v>14</v>
@@ -7013,7 +7046,7 @@
       </c>
       <c r="G206">
         <f t="shared" ca="1" si="8"/>
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
@@ -7044,7 +7077,7 @@
       </c>
       <c r="G207">
         <f t="shared" ca="1" si="8"/>
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="H207" t="s">
         <v>14</v>
@@ -7075,7 +7108,7 @@
       </c>
       <c r="G208">
         <f t="shared" ca="1" si="8"/>
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="H208" t="s">
         <v>14</v>
@@ -7106,7 +7139,7 @@
       </c>
       <c r="G209">
         <f t="shared" ca="1" si="8"/>
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="H209" t="s">
         <v>14</v>
@@ -7133,7 +7166,7 @@
       </c>
       <c r="G210">
         <f t="shared" ca="1" si="8"/>
-        <v>-1772</v>
+        <v>-1774</v>
       </c>
       <c r="H210" t="s">
         <v>14</v>
@@ -7162,7 +7195,7 @@
       </c>
       <c r="G211">
         <f t="shared" ca="1" si="8"/>
-        <v>-1542</v>
+        <v>-1544</v>
       </c>
       <c r="H211" t="s">
         <v>14</v>
@@ -7191,7 +7224,7 @@
       </c>
       <c r="G212">
         <f t="shared" ca="1" si="8"/>
-        <v>-1361</v>
+        <v>-1363</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
@@ -7220,7 +7253,7 @@
       </c>
       <c r="G213">
         <f t="shared" ca="1" si="8"/>
-        <v>-1177</v>
+        <v>-1179</v>
       </c>
       <c r="H213" t="s">
         <v>14</v>
@@ -7249,7 +7282,7 @@
       </c>
       <c r="G214">
         <f t="shared" ca="1" si="8"/>
-        <v>-996</v>
+        <v>-998</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
@@ -7278,7 +7311,7 @@
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="8"/>
-        <v>-812</v>
+        <v>-814</v>
       </c>
       <c r="H215" t="s">
         <v>14</v>
@@ -7307,7 +7340,7 @@
       </c>
       <c r="G216">
         <f t="shared" ca="1" si="8"/>
-        <v>-630</v>
+        <v>-632</v>
       </c>
       <c r="H216" t="s">
         <v>14</v>
@@ -7336,7 +7369,7 @@
       </c>
       <c r="G217">
         <f t="shared" ca="1" si="8"/>
-        <v>-446</v>
+        <v>-448</v>
       </c>
       <c r="H217" t="s">
         <v>14</v>
@@ -7365,7 +7398,7 @@
       </c>
       <c r="G218">
         <f t="shared" ca="1" si="8"/>
-        <v>-265</v>
+        <v>-267</v>
       </c>
       <c r="H218" t="s">
         <v>14</v>
@@ -7394,7 +7427,7 @@
       </c>
       <c r="G219">
         <f t="shared" ca="1" si="8"/>
-        <v>-81</v>
+        <v>-83</v>
       </c>
       <c r="H219" t="s">
         <v>14</v>
@@ -7423,7 +7456,7 @@
       </c>
       <c r="G220">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -7452,7 +7485,7 @@
       </c>
       <c r="G221">
         <f t="shared" ca="1" si="8"/>
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H221" t="s">
         <v>14</v>
@@ -7481,7 +7514,7 @@
       </c>
       <c r="G222">
         <f t="shared" ca="1" si="8"/>
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H222" t="s">
         <v>14</v>
@@ -7510,7 +7543,7 @@
       </c>
       <c r="G223">
         <f t="shared" ca="1" si="8"/>
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H223" t="s">
         <v>14</v>
@@ -7539,7 +7572,7 @@
       </c>
       <c r="G224">
         <f t="shared" ca="1" si="8"/>
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H224" t="s">
         <v>14</v>
@@ -7568,7 +7601,7 @@
       </c>
       <c r="G225">
         <f t="shared" ca="1" si="8"/>
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
@@ -7597,7 +7630,7 @@
       </c>
       <c r="G226">
         <f t="shared" ca="1" si="8"/>
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="H226" t="s">
         <v>14</v>
@@ -7626,7 +7659,7 @@
       </c>
       <c r="G227">
         <f t="shared" ca="1" si="8"/>
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="H227" t="s">
         <v>14</v>
@@ -7655,7 +7688,7 @@
       </c>
       <c r="G228">
         <f t="shared" ca="1" si="8"/>
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="H228" t="s">
         <v>14</v>
@@ -7686,7 +7719,7 @@
       </c>
       <c r="G229">
         <f t="shared" ca="1" si="8"/>
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="H229" t="s">
         <v>14</v>
@@ -7715,7 +7748,7 @@
       </c>
       <c r="G230">
         <f t="shared" ca="1" si="8"/>
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="H230" t="s">
         <v>14</v>
@@ -7746,7 +7779,7 @@
       </c>
       <c r="G231">
         <f t="shared" ca="1" si="8"/>
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
@@ -7775,7 +7808,7 @@
       </c>
       <c r="G232">
         <f t="shared" ca="1" si="8"/>
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="H232" t="s">
         <v>14</v>
@@ -7806,7 +7839,7 @@
       </c>
       <c r="G233">
         <f t="shared" ca="1" si="8"/>
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="H233" t="s">
         <v>14</v>
@@ -7834,8 +7867,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G234">
-        <f t="shared" ref="G234:G252" ca="1" si="10">B234-$Q$1</f>
-        <v>2657</v>
+        <f t="shared" ref="G234:G297" ca="1" si="10">B234-$Q$1</f>
+        <v>2655</v>
       </c>
       <c r="H234" t="s">
         <v>14</v>
@@ -7858,7 +7891,7 @@
         <v>0.88</v>
       </c>
       <c r="E235" s="7">
-        <f t="shared" ref="E235:E252" si="11">C235+D235</f>
+        <f t="shared" ref="E235:E298" si="11">C235+D235</f>
         <v>25.88</v>
       </c>
       <c r="F235" s="10">
@@ -7866,7 +7899,7 @@
       </c>
       <c r="G235">
         <f t="shared" ca="1" si="10"/>
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
@@ -7895,7 +7928,7 @@
       </c>
       <c r="G236">
         <f t="shared" ca="1" si="10"/>
-        <v>-193</v>
+        <v>-195</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
@@ -7926,7 +7959,7 @@
       </c>
       <c r="G237">
         <f t="shared" ca="1" si="10"/>
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="H237" t="s">
         <v>14</v>
@@ -7957,7 +7990,7 @@
       </c>
       <c r="G238">
         <f t="shared" ca="1" si="10"/>
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H238" t="s">
         <v>14</v>
@@ -7988,7 +8021,7 @@
       </c>
       <c r="G239">
         <f t="shared" ca="1" si="10"/>
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H239" t="s">
         <v>14</v>
@@ -8019,7 +8052,7 @@
       </c>
       <c r="G240">
         <f t="shared" ca="1" si="10"/>
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H240" t="s">
         <v>14</v>
@@ -8050,7 +8083,7 @@
       </c>
       <c r="G241">
         <f t="shared" ca="1" si="10"/>
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
@@ -8081,7 +8114,7 @@
       </c>
       <c r="G242">
         <f t="shared" ca="1" si="10"/>
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H242" t="s">
         <v>14</v>
@@ -8112,7 +8145,7 @@
       </c>
       <c r="G243">
         <f t="shared" ca="1" si="10"/>
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H243" t="s">
         <v>14</v>
@@ -8143,7 +8176,7 @@
       </c>
       <c r="G244">
         <f t="shared" ca="1" si="10"/>
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H244" t="s">
         <v>14</v>
@@ -8174,7 +8207,7 @@
       </c>
       <c r="G245">
         <f t="shared" ca="1" si="10"/>
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H245" t="s">
         <v>14</v>
@@ -8205,7 +8238,7 @@
       </c>
       <c r="G246">
         <f t="shared" ca="1" si="10"/>
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="H246" t="s">
         <v>14</v>
@@ -8236,7 +8269,7 @@
       </c>
       <c r="G247">
         <f t="shared" ca="1" si="10"/>
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="H247" t="s">
         <v>14</v>
@@ -8267,7 +8300,7 @@
       </c>
       <c r="G248">
         <f t="shared" ca="1" si="10"/>
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="H248" t="s">
         <v>14</v>
@@ -8298,7 +8331,7 @@
       </c>
       <c r="G249">
         <f t="shared" ca="1" si="10"/>
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="H249" t="s">
         <v>14</v>
@@ -8329,7 +8362,7 @@
       </c>
       <c r="G250">
         <f t="shared" ca="1" si="10"/>
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="H250" t="s">
         <v>14</v>
@@ -8360,7 +8393,7 @@
       </c>
       <c r="G251">
         <f t="shared" ca="1" si="10"/>
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="H251" t="s">
         <v>14</v>
@@ -8391,7 +8424,7 @@
       </c>
       <c r="G252">
         <f t="shared" ca="1" si="10"/>
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="H252" t="s">
         <v>14</v>
@@ -8400,7 +8433,4827 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>26</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45869</v>
+      </c>
+      <c r="C253" s="7">
+        <v>0</v>
+      </c>
+      <c r="D253" s="12"/>
+      <c r="E253" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F253" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G253">
+        <f t="shared" ca="1" si="10"/>
+        <v>-144</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" s="1">
+        <v>46053</v>
+      </c>
+      <c r="C254" s="8">
+        <v>0</v>
+      </c>
+      <c r="D254" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E254" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F254" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G254">
+        <f t="shared" ca="1" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" s="1">
+        <v>46234</v>
+      </c>
+      <c r="C255" s="8">
+        <v>0</v>
+      </c>
+      <c r="D255" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E255" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F255" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G255">
+        <f t="shared" ca="1" si="10"/>
+        <v>221</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>26</v>
+      </c>
+      <c r="B256" s="1">
+        <v>46418</v>
+      </c>
+      <c r="C256" s="8">
+        <v>0</v>
+      </c>
+      <c r="D256" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E256" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F256" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G256">
+        <f t="shared" ca="1" si="10"/>
+        <v>405</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>26</v>
+      </c>
+      <c r="B257" s="1">
+        <v>46599</v>
+      </c>
+      <c r="C257" s="8">
+        <v>0</v>
+      </c>
+      <c r="D257" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E257" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F257" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G257">
+        <f t="shared" ca="1" si="10"/>
+        <v>586</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+      <c r="I257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>26</v>
+      </c>
+      <c r="B258" s="1">
+        <v>46783</v>
+      </c>
+      <c r="C258" s="8">
+        <v>0</v>
+      </c>
+      <c r="D258" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E258" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F258" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G258">
+        <f t="shared" ca="1" si="10"/>
+        <v>770</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>26</v>
+      </c>
+      <c r="B259" s="1">
+        <v>46965</v>
+      </c>
+      <c r="C259" s="8">
+        <v>0</v>
+      </c>
+      <c r="D259" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E259" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F259" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G259">
+        <f t="shared" ca="1" si="10"/>
+        <v>952</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+      <c r="I259">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260" s="1">
+        <v>47149</v>
+      </c>
+      <c r="C260" s="8">
+        <v>0</v>
+      </c>
+      <c r="D260" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E260" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F260" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G260">
+        <f t="shared" ca="1" si="10"/>
+        <v>1136</v>
+      </c>
+      <c r="H260" t="s">
+        <v>14</v>
+      </c>
+      <c r="I260">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" s="1">
+        <v>47330</v>
+      </c>
+      <c r="C261" s="8">
+        <v>0</v>
+      </c>
+      <c r="D261" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E261" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F261" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G261">
+        <f t="shared" ca="1" si="10"/>
+        <v>1317</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>26</v>
+      </c>
+      <c r="B262" s="1">
+        <v>47514</v>
+      </c>
+      <c r="C262" s="8">
+        <v>0</v>
+      </c>
+      <c r="D262" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E262" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F262" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G262">
+        <f t="shared" ca="1" si="10"/>
+        <v>1501</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" s="1">
+        <v>47695</v>
+      </c>
+      <c r="C263" s="8">
+        <v>0</v>
+      </c>
+      <c r="D263" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E263" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F263" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G263">
+        <f t="shared" ca="1" si="10"/>
+        <v>1682</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" s="1">
+        <v>47879</v>
+      </c>
+      <c r="C264" s="8">
+        <v>0</v>
+      </c>
+      <c r="D264" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E264" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8</v>
+      </c>
+      <c r="F264" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G264">
+        <f t="shared" ca="1" si="10"/>
+        <v>1866</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" s="1">
+        <v>48060</v>
+      </c>
+      <c r="C265" s="8">
+        <v>33</v>
+      </c>
+      <c r="D265" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="E265" s="7">
+        <f t="shared" si="11"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F265" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G265">
+        <f t="shared" ca="1" si="10"/>
+        <v>2047</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" s="1">
+        <v>48244</v>
+      </c>
+      <c r="C266" s="8">
+        <v>0</v>
+      </c>
+      <c r="D266" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E266" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F266" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G266">
+        <f t="shared" ca="1" si="10"/>
+        <v>2231</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+      <c r="I266">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" s="1">
+        <v>48426</v>
+      </c>
+      <c r="C267" s="8">
+        <v>33</v>
+      </c>
+      <c r="D267" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E267" s="7">
+        <f t="shared" si="11"/>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="F267" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G267">
+        <f t="shared" ca="1" si="10"/>
+        <v>2413</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+      <c r="I267">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B268" s="1">
+        <v>48610</v>
+      </c>
+      <c r="C268" s="8">
+        <v>0</v>
+      </c>
+      <c r="D268" s="8">
+        <v>1.29</v>
+      </c>
+      <c r="E268" s="7">
+        <f t="shared" si="11"/>
+        <v>1.29</v>
+      </c>
+      <c r="F268" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G268">
+        <f t="shared" ca="1" si="10"/>
+        <v>2597</v>
+      </c>
+      <c r="H268" t="s">
+        <v>14</v>
+      </c>
+      <c r="I268">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269" s="1">
+        <v>48791</v>
+      </c>
+      <c r="C269" s="8">
+        <v>34</v>
+      </c>
+      <c r="D269" s="9">
+        <v>1.29</v>
+      </c>
+      <c r="E269" s="7">
+        <f t="shared" si="11"/>
+        <v>35.29</v>
+      </c>
+      <c r="F269" s="10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G269">
+        <f t="shared" ca="1" si="10"/>
+        <v>2778</v>
+      </c>
+      <c r="H269" t="s">
+        <v>14</v>
+      </c>
+      <c r="I269">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>27</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45804</v>
+      </c>
+      <c r="C270" s="7">
+        <v>0</v>
+      </c>
+      <c r="D270" s="12"/>
+      <c r="E270" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F270" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G270">
+        <f t="shared" ca="1" si="10"/>
+        <v>-209</v>
+      </c>
+      <c r="H270" t="s">
+        <v>14</v>
+      </c>
+      <c r="I270">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45988</v>
+      </c>
+      <c r="C271" s="8">
+        <v>0</v>
+      </c>
+      <c r="D271" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E271" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F271" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G271">
+        <f t="shared" ca="1" si="10"/>
+        <v>-25</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" s="1">
+        <v>46169</v>
+      </c>
+      <c r="C272" s="8">
+        <v>0</v>
+      </c>
+      <c r="D272" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E272" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F272" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G272">
+        <f t="shared" ca="1" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+      <c r="I272">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="1">
+        <v>46353</v>
+      </c>
+      <c r="C273" s="8">
+        <v>0</v>
+      </c>
+      <c r="D273" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E273" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F273" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G273">
+        <f t="shared" ca="1" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" s="1">
+        <v>46534</v>
+      </c>
+      <c r="C274" s="8">
+        <v>0</v>
+      </c>
+      <c r="D274" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E274" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F274" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G274">
+        <f t="shared" ca="1" si="10"/>
+        <v>521</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" s="1">
+        <v>46718</v>
+      </c>
+      <c r="C275" s="8">
+        <v>0</v>
+      </c>
+      <c r="D275" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E275" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F275" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G275">
+        <f t="shared" ca="1" si="10"/>
+        <v>705</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" s="1">
+        <v>46900</v>
+      </c>
+      <c r="C276" s="8">
+        <v>0</v>
+      </c>
+      <c r="D276" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E276" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F276" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G276">
+        <f t="shared" ca="1" si="10"/>
+        <v>887</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" s="1">
+        <v>47084</v>
+      </c>
+      <c r="C277" s="8">
+        <v>0</v>
+      </c>
+      <c r="D277" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E277" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F277" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G277">
+        <f t="shared" ca="1" si="10"/>
+        <v>1071</v>
+      </c>
+      <c r="H277" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>27</v>
+      </c>
+      <c r="B278" s="1">
+        <v>47265</v>
+      </c>
+      <c r="C278" s="8">
+        <v>0</v>
+      </c>
+      <c r="D278" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E278" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F278" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G278">
+        <f t="shared" ca="1" si="10"/>
+        <v>1252</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" s="1">
+        <v>47449</v>
+      </c>
+      <c r="C279" s="8">
+        <v>0</v>
+      </c>
+      <c r="D279" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E279" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F279" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G279">
+        <f t="shared" ca="1" si="10"/>
+        <v>1436</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" s="1">
+        <v>47630</v>
+      </c>
+      <c r="C280" s="8">
+        <v>0</v>
+      </c>
+      <c r="D280" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E280" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F280" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G280">
+        <f t="shared" ca="1" si="10"/>
+        <v>1617</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>27</v>
+      </c>
+      <c r="B281" s="1">
+        <v>47814</v>
+      </c>
+      <c r="C281" s="8">
+        <v>0</v>
+      </c>
+      <c r="D281" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E281" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F281" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G281">
+        <f t="shared" ca="1" si="10"/>
+        <v>1801</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>27</v>
+      </c>
+      <c r="B282" s="1">
+        <v>47995</v>
+      </c>
+      <c r="C282" s="8">
+        <v>0</v>
+      </c>
+      <c r="D282" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E282" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F282" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G282">
+        <f t="shared" ca="1" si="10"/>
+        <v>1982</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>27</v>
+      </c>
+      <c r="B283" s="1">
+        <v>48179</v>
+      </c>
+      <c r="C283" s="8">
+        <v>0</v>
+      </c>
+      <c r="D283" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E283" s="7">
+        <f t="shared" si="11"/>
+        <v>4.63</v>
+      </c>
+      <c r="F283" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G283">
+        <f t="shared" ca="1" si="10"/>
+        <v>2166</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>27</v>
+      </c>
+      <c r="B284" s="1">
+        <v>48361</v>
+      </c>
+      <c r="C284" s="8">
+        <v>50</v>
+      </c>
+      <c r="D284" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="E284" s="7">
+        <f t="shared" si="11"/>
+        <v>54.63</v>
+      </c>
+      <c r="F284" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G284">
+        <f t="shared" ca="1" si="10"/>
+        <v>2348</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+      <c r="I284">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>27</v>
+      </c>
+      <c r="B285" s="1">
+        <v>48545</v>
+      </c>
+      <c r="C285" s="8">
+        <v>0</v>
+      </c>
+      <c r="D285" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="E285" s="7">
+        <f t="shared" si="11"/>
+        <v>2.31</v>
+      </c>
+      <c r="F285" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G285">
+        <f t="shared" ca="1" si="10"/>
+        <v>2532</v>
+      </c>
+      <c r="H285" t="s">
+        <v>14</v>
+      </c>
+      <c r="I285">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="1">
+        <v>48726</v>
+      </c>
+      <c r="C286" s="8">
+        <v>50</v>
+      </c>
+      <c r="D286" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="E286" s="7">
+        <f t="shared" si="11"/>
+        <v>52.31</v>
+      </c>
+      <c r="F286" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="G286">
+        <f t="shared" ca="1" si="10"/>
+        <v>2713</v>
+      </c>
+      <c r="H286" t="s">
+        <v>14</v>
+      </c>
+      <c r="I286">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45674</v>
+      </c>
+      <c r="C287" s="7">
+        <v>0</v>
+      </c>
+      <c r="D287" s="12"/>
+      <c r="E287" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F287" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G287">
+        <f t="shared" ca="1" si="10"/>
+        <v>-339</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+      <c r="I287">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45855</v>
+      </c>
+      <c r="C288" s="8">
+        <v>0</v>
+      </c>
+      <c r="D288" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E288" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F288" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G288">
+        <f t="shared" ca="1" si="10"/>
+        <v>-158</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
+      </c>
+      <c r="I288">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="1">
+        <v>46039</v>
+      </c>
+      <c r="C289" s="8">
+        <v>0</v>
+      </c>
+      <c r="D289" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E289" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F289" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G289">
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="1">
+        <v>46220</v>
+      </c>
+      <c r="C290" s="8">
+        <v>0</v>
+      </c>
+      <c r="D290" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E290" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F290" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G290">
+        <f t="shared" ca="1" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="1">
+        <v>46404</v>
+      </c>
+      <c r="C291" s="8">
+        <v>0</v>
+      </c>
+      <c r="D291" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E291" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F291" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G291">
+        <f t="shared" ca="1" si="10"/>
+        <v>391</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>28</v>
+      </c>
+      <c r="B292" s="1">
+        <v>46585</v>
+      </c>
+      <c r="C292" s="8">
+        <v>0</v>
+      </c>
+      <c r="D292" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E292" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F292" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G292">
+        <f t="shared" ca="1" si="10"/>
+        <v>572</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
+      </c>
+      <c r="I292">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>28</v>
+      </c>
+      <c r="B293" s="1">
+        <v>46769</v>
+      </c>
+      <c r="C293" s="8">
+        <v>0</v>
+      </c>
+      <c r="D293" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E293" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F293" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G293">
+        <f t="shared" ca="1" si="10"/>
+        <v>756</v>
+      </c>
+      <c r="H293" t="s">
+        <v>14</v>
+      </c>
+      <c r="I293">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>28</v>
+      </c>
+      <c r="B294" s="1">
+        <v>46951</v>
+      </c>
+      <c r="C294" s="8">
+        <v>0</v>
+      </c>
+      <c r="D294" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E294" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F294" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G294">
+        <f t="shared" ca="1" si="10"/>
+        <v>938</v>
+      </c>
+      <c r="H294" t="s">
+        <v>14</v>
+      </c>
+      <c r="I294">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>28</v>
+      </c>
+      <c r="B295" s="1">
+        <v>47135</v>
+      </c>
+      <c r="C295" s="8">
+        <v>0</v>
+      </c>
+      <c r="D295" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E295" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F295" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G295">
+        <f t="shared" ca="1" si="10"/>
+        <v>1122</v>
+      </c>
+      <c r="H295" t="s">
+        <v>14</v>
+      </c>
+      <c r="I295">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" s="1">
+        <v>47316</v>
+      </c>
+      <c r="C296" s="8">
+        <v>0</v>
+      </c>
+      <c r="D296" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E296" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F296" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G296">
+        <f t="shared" ca="1" si="10"/>
+        <v>1303</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>28</v>
+      </c>
+      <c r="B297" s="1">
+        <v>47500</v>
+      </c>
+      <c r="C297" s="8">
+        <v>0</v>
+      </c>
+      <c r="D297" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E297" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F297" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G297">
+        <f t="shared" ca="1" si="10"/>
+        <v>1487</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" s="1">
+        <v>47681</v>
+      </c>
+      <c r="C298" s="8">
+        <v>0</v>
+      </c>
+      <c r="D298" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E298" s="7">
+        <f t="shared" si="11"/>
+        <v>4.13</v>
+      </c>
+      <c r="F298" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G298">
+        <f t="shared" ref="G298:G361" ca="1" si="12">B298-$Q$1</f>
+        <v>1668</v>
+      </c>
+      <c r="H298" t="s">
+        <v>14</v>
+      </c>
+      <c r="I298">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>28</v>
+      </c>
+      <c r="B299" s="1">
+        <v>47865</v>
+      </c>
+      <c r="C299" s="8">
+        <v>0</v>
+      </c>
+      <c r="D299" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E299" s="7">
+        <f t="shared" ref="E299:E362" si="13">C299+D299</f>
+        <v>4.13</v>
+      </c>
+      <c r="F299" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G299">
+        <f t="shared" ca="1" si="12"/>
+        <v>1852</v>
+      </c>
+      <c r="H299" t="s">
+        <v>14</v>
+      </c>
+      <c r="I299">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" s="1">
+        <v>48046</v>
+      </c>
+      <c r="C300" s="8">
+        <v>0</v>
+      </c>
+      <c r="D300" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E300" s="7">
+        <f t="shared" si="13"/>
+        <v>4.13</v>
+      </c>
+      <c r="F300" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G300">
+        <f t="shared" ca="1" si="12"/>
+        <v>2033</v>
+      </c>
+      <c r="H300" t="s">
+        <v>14</v>
+      </c>
+      <c r="I300">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" s="1">
+        <v>48230</v>
+      </c>
+      <c r="C301" s="8">
+        <v>30</v>
+      </c>
+      <c r="D301" s="8">
+        <v>4.13</v>
+      </c>
+      <c r="E301" s="7">
+        <f t="shared" si="13"/>
+        <v>34.130000000000003</v>
+      </c>
+      <c r="F301" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G301">
+        <f t="shared" ca="1" si="12"/>
+        <v>2217</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
+      </c>
+      <c r="I301">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>28</v>
+      </c>
+      <c r="B302" s="1">
+        <v>48412</v>
+      </c>
+      <c r="C302" s="8">
+        <v>0</v>
+      </c>
+      <c r="D302" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="E302" s="7">
+        <f t="shared" si="13"/>
+        <v>2.89</v>
+      </c>
+      <c r="F302" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G302">
+        <f t="shared" ca="1" si="12"/>
+        <v>2399</v>
+      </c>
+      <c r="H302" t="s">
+        <v>14</v>
+      </c>
+      <c r="I302">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" s="1">
+        <v>48596</v>
+      </c>
+      <c r="C303" s="8">
+        <v>30</v>
+      </c>
+      <c r="D303" s="8">
+        <v>2.89</v>
+      </c>
+      <c r="E303" s="7">
+        <f t="shared" si="13"/>
+        <v>32.89</v>
+      </c>
+      <c r="F303" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G303">
+        <f t="shared" ca="1" si="12"/>
+        <v>2583</v>
+      </c>
+      <c r="H303" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="1">
+        <v>48777</v>
+      </c>
+      <c r="C304" s="8">
+        <v>0</v>
+      </c>
+      <c r="D304" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="E304" s="7">
+        <f t="shared" si="13"/>
+        <v>1.65</v>
+      </c>
+      <c r="F304" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G304">
+        <f t="shared" ca="1" si="12"/>
+        <v>2764</v>
+      </c>
+      <c r="H304" t="s">
+        <v>14</v>
+      </c>
+      <c r="I304">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" s="1">
+        <v>48961</v>
+      </c>
+      <c r="C305" s="8">
+        <v>40</v>
+      </c>
+      <c r="D305" s="8">
+        <v>1.65</v>
+      </c>
+      <c r="E305" s="7">
+        <f t="shared" si="13"/>
+        <v>41.65</v>
+      </c>
+      <c r="F305" s="10">
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="G305">
+        <f t="shared" ca="1" si="12"/>
+        <v>2948</v>
+      </c>
+      <c r="H305" t="s">
+        <v>14</v>
+      </c>
+      <c r="I305">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>29</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45986</v>
+      </c>
+      <c r="C306" s="7">
+        <v>0</v>
+      </c>
+      <c r="D306" s="12"/>
+      <c r="E306" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F306" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G306">
+        <f t="shared" ca="1" si="12"/>
+        <v>-27</v>
+      </c>
+      <c r="H306" t="s">
+        <v>14</v>
+      </c>
+      <c r="I306">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>29</v>
+      </c>
+      <c r="B307" s="1">
+        <v>46167</v>
+      </c>
+      <c r="C307" s="8">
+        <v>0</v>
+      </c>
+      <c r="D307" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E307" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F307" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G307">
+        <f t="shared" ca="1" si="12"/>
+        <v>154</v>
+      </c>
+      <c r="H307" t="s">
+        <v>14</v>
+      </c>
+      <c r="I307">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>29</v>
+      </c>
+      <c r="B308" s="1">
+        <v>46351</v>
+      </c>
+      <c r="C308" s="8">
+        <v>0</v>
+      </c>
+      <c r="D308" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E308" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F308" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G308">
+        <f t="shared" ca="1" si="12"/>
+        <v>338</v>
+      </c>
+      <c r="H308" t="s">
+        <v>14</v>
+      </c>
+      <c r="I308">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="1">
+        <v>46532</v>
+      </c>
+      <c r="C309" s="8">
+        <v>0</v>
+      </c>
+      <c r="D309" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E309" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F309" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G309">
+        <f t="shared" ca="1" si="12"/>
+        <v>519</v>
+      </c>
+      <c r="H309" t="s">
+        <v>14</v>
+      </c>
+      <c r="I309">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>29</v>
+      </c>
+      <c r="B310" s="1">
+        <v>46716</v>
+      </c>
+      <c r="C310" s="8">
+        <v>0</v>
+      </c>
+      <c r="D310" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E310" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F310" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G310">
+        <f t="shared" ca="1" si="12"/>
+        <v>703</v>
+      </c>
+      <c r="H310" t="s">
+        <v>14</v>
+      </c>
+      <c r="I310">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>29</v>
+      </c>
+      <c r="B311" s="1">
+        <v>46898</v>
+      </c>
+      <c r="C311" s="8">
+        <v>0</v>
+      </c>
+      <c r="D311" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E311" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F311" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G311">
+        <f t="shared" ca="1" si="12"/>
+        <v>885</v>
+      </c>
+      <c r="H311" t="s">
+        <v>14</v>
+      </c>
+      <c r="I311">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A312" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1">
+        <v>47082</v>
+      </c>
+      <c r="C312" s="8">
+        <v>0</v>
+      </c>
+      <c r="D312" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E312" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F312" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G312">
+        <f t="shared" ca="1" si="12"/>
+        <v>1069</v>
+      </c>
+      <c r="H312" t="s">
+        <v>14</v>
+      </c>
+      <c r="I312">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A313" t="s">
+        <v>29</v>
+      </c>
+      <c r="B313" s="1">
+        <v>47263</v>
+      </c>
+      <c r="C313" s="8">
+        <v>0</v>
+      </c>
+      <c r="D313" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E313" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F313" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G313">
+        <f t="shared" ca="1" si="12"/>
+        <v>1250</v>
+      </c>
+      <c r="H313" t="s">
+        <v>14</v>
+      </c>
+      <c r="I313">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A314" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="1">
+        <v>47447</v>
+      </c>
+      <c r="C314" s="8">
+        <v>0</v>
+      </c>
+      <c r="D314" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E314" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F314" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G314">
+        <f t="shared" ca="1" si="12"/>
+        <v>1434</v>
+      </c>
+      <c r="H314" t="s">
+        <v>14</v>
+      </c>
+      <c r="I314">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" s="1">
+        <v>47628</v>
+      </c>
+      <c r="C315" s="8">
+        <v>0</v>
+      </c>
+      <c r="D315" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E315" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F315" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G315">
+        <f t="shared" ca="1" si="12"/>
+        <v>1615</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+      <c r="I315">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A316" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="1">
+        <v>47812</v>
+      </c>
+      <c r="C316" s="8">
+        <v>0</v>
+      </c>
+      <c r="D316" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E316" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F316" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G316">
+        <f t="shared" ca="1" si="12"/>
+        <v>1799</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
+      </c>
+      <c r="I316">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>29</v>
+      </c>
+      <c r="B317" s="1">
+        <v>47993</v>
+      </c>
+      <c r="C317" s="8">
+        <v>0</v>
+      </c>
+      <c r="D317" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E317" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F317" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G317">
+        <f t="shared" ca="1" si="12"/>
+        <v>1980</v>
+      </c>
+      <c r="H317" t="s">
+        <v>14</v>
+      </c>
+      <c r="I317">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318" s="1">
+        <v>48177</v>
+      </c>
+      <c r="C318" s="8">
+        <v>0</v>
+      </c>
+      <c r="D318" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E318" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F318" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G318">
+        <f t="shared" ca="1" si="12"/>
+        <v>2164</v>
+      </c>
+      <c r="H318" t="s">
+        <v>14</v>
+      </c>
+      <c r="I318">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A319" t="s">
+        <v>29</v>
+      </c>
+      <c r="B319" s="1">
+        <v>48359</v>
+      </c>
+      <c r="C319" s="8">
+        <v>0</v>
+      </c>
+      <c r="D319" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E319" s="7">
+        <f t="shared" si="13"/>
+        <v>3.88</v>
+      </c>
+      <c r="F319" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G319">
+        <f t="shared" ca="1" si="12"/>
+        <v>2346</v>
+      </c>
+      <c r="H319" t="s">
+        <v>14</v>
+      </c>
+      <c r="I319">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>29</v>
+      </c>
+      <c r="B320" s="1">
+        <v>48543</v>
+      </c>
+      <c r="C320" s="8">
+        <v>33</v>
+      </c>
+      <c r="D320" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E320" s="7">
+        <f t="shared" si="13"/>
+        <v>36.880000000000003</v>
+      </c>
+      <c r="F320" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G320">
+        <f t="shared" ca="1" si="12"/>
+        <v>2530</v>
+      </c>
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+      <c r="I320">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>29</v>
+      </c>
+      <c r="B321" s="1">
+        <v>48724</v>
+      </c>
+      <c r="C321" s="8">
+        <v>33</v>
+      </c>
+      <c r="D321" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="E321" s="7">
+        <f t="shared" si="13"/>
+        <v>35.6</v>
+      </c>
+      <c r="F321" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G321">
+        <f t="shared" ca="1" si="12"/>
+        <v>2711</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+      <c r="I321">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>29</v>
+      </c>
+      <c r="B322" s="1">
+        <v>48908</v>
+      </c>
+      <c r="C322" s="8">
+        <v>34</v>
+      </c>
+      <c r="D322" s="9">
+        <v>1.32</v>
+      </c>
+      <c r="E322" s="7">
+        <f t="shared" si="13"/>
+        <v>35.32</v>
+      </c>
+      <c r="F322" s="10">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G322">
+        <f t="shared" ca="1" si="12"/>
+        <v>2895</v>
+      </c>
+      <c r="H322" t="s">
+        <v>14</v>
+      </c>
+      <c r="I322">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>30</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C323" s="7">
+        <v>0</v>
+      </c>
+      <c r="D323" s="12"/>
+      <c r="E323" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F323" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G323">
+        <f t="shared" ca="1" si="12"/>
+        <v>-266</v>
+      </c>
+      <c r="H323" t="s">
+        <v>14</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45930</v>
+      </c>
+      <c r="C324" s="8">
+        <v>0</v>
+      </c>
+      <c r="D324" s="8">
+        <v>4</v>
+      </c>
+      <c r="E324" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F324" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G324">
+        <f t="shared" ca="1" si="12"/>
+        <v>-83</v>
+      </c>
+      <c r="H324" t="s">
+        <v>14</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="1">
+        <v>46112</v>
+      </c>
+      <c r="C325" s="8">
+        <v>0</v>
+      </c>
+      <c r="D325" s="8">
+        <v>4</v>
+      </c>
+      <c r="E325" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F325" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G325">
+        <f t="shared" ca="1" si="12"/>
+        <v>99</v>
+      </c>
+      <c r="H325" t="s">
+        <v>14</v>
+      </c>
+      <c r="I325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326" s="1">
+        <v>46295</v>
+      </c>
+      <c r="C326" s="8">
+        <v>0</v>
+      </c>
+      <c r="D326" s="8">
+        <v>4</v>
+      </c>
+      <c r="E326" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F326" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G326">
+        <f t="shared" ca="1" si="12"/>
+        <v>282</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" s="1">
+        <v>46477</v>
+      </c>
+      <c r="C327" s="8">
+        <v>0</v>
+      </c>
+      <c r="D327" s="8">
+        <v>4</v>
+      </c>
+      <c r="E327" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F327" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G327">
+        <f t="shared" ca="1" si="12"/>
+        <v>464</v>
+      </c>
+      <c r="H327" t="s">
+        <v>14</v>
+      </c>
+      <c r="I327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="1">
+        <v>46660</v>
+      </c>
+      <c r="C328" s="8">
+        <v>0</v>
+      </c>
+      <c r="D328" s="8">
+        <v>4</v>
+      </c>
+      <c r="E328" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F328" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G328">
+        <f t="shared" ca="1" si="12"/>
+        <v>647</v>
+      </c>
+      <c r="H328" t="s">
+        <v>14</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>30</v>
+      </c>
+      <c r="B329" s="1">
+        <v>46843</v>
+      </c>
+      <c r="C329" s="8">
+        <v>0</v>
+      </c>
+      <c r="D329" s="8">
+        <v>4</v>
+      </c>
+      <c r="E329" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F329" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G329">
+        <f t="shared" ca="1" si="12"/>
+        <v>830</v>
+      </c>
+      <c r="H329" t="s">
+        <v>14</v>
+      </c>
+      <c r="I329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>30</v>
+      </c>
+      <c r="B330" s="1">
+        <v>47026</v>
+      </c>
+      <c r="C330" s="8">
+        <v>0</v>
+      </c>
+      <c r="D330" s="8">
+        <v>4</v>
+      </c>
+      <c r="E330" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F330" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G330">
+        <f t="shared" ca="1" si="12"/>
+        <v>1013</v>
+      </c>
+      <c r="H330" t="s">
+        <v>14</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>30</v>
+      </c>
+      <c r="B331" s="1">
+        <v>47208</v>
+      </c>
+      <c r="C331" s="8">
+        <v>0</v>
+      </c>
+      <c r="D331" s="8">
+        <v>4</v>
+      </c>
+      <c r="E331" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F331" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G331">
+        <f t="shared" ca="1" si="12"/>
+        <v>1195</v>
+      </c>
+      <c r="H331" t="s">
+        <v>14</v>
+      </c>
+      <c r="I331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>30</v>
+      </c>
+      <c r="B332" s="1">
+        <v>47391</v>
+      </c>
+      <c r="C332" s="8">
+        <v>0</v>
+      </c>
+      <c r="D332" s="8">
+        <v>4</v>
+      </c>
+      <c r="E332" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F332" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G332">
+        <f t="shared" ca="1" si="12"/>
+        <v>1378</v>
+      </c>
+      <c r="H332" t="s">
+        <v>14</v>
+      </c>
+      <c r="I332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333" s="1">
+        <v>47573</v>
+      </c>
+      <c r="C333" s="8">
+        <v>0</v>
+      </c>
+      <c r="D333" s="8">
+        <v>4</v>
+      </c>
+      <c r="E333" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F333" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G333">
+        <f t="shared" ca="1" si="12"/>
+        <v>1560</v>
+      </c>
+      <c r="H333" t="s">
+        <v>14</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>30</v>
+      </c>
+      <c r="B334" s="1">
+        <v>47756</v>
+      </c>
+      <c r="C334" s="8">
+        <v>0</v>
+      </c>
+      <c r="D334" s="8">
+        <v>4</v>
+      </c>
+      <c r="E334" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F334" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G334">
+        <f t="shared" ca="1" si="12"/>
+        <v>1743</v>
+      </c>
+      <c r="H334" t="s">
+        <v>14</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>30</v>
+      </c>
+      <c r="B335" s="1">
+        <v>47938</v>
+      </c>
+      <c r="C335" s="8">
+        <v>0</v>
+      </c>
+      <c r="D335" s="8">
+        <v>4</v>
+      </c>
+      <c r="E335" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F335" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G335">
+        <f t="shared" ca="1" si="12"/>
+        <v>1925</v>
+      </c>
+      <c r="H335" t="s">
+        <v>14</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="1">
+        <v>48121</v>
+      </c>
+      <c r="C336" s="8">
+        <v>0</v>
+      </c>
+      <c r="D336" s="8">
+        <v>4</v>
+      </c>
+      <c r="E336" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F336" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G336">
+        <f t="shared" ca="1" si="12"/>
+        <v>2108</v>
+      </c>
+      <c r="H336" t="s">
+        <v>14</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A337" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="1">
+        <v>48304</v>
+      </c>
+      <c r="C337" s="8">
+        <v>0</v>
+      </c>
+      <c r="D337" s="8">
+        <v>4</v>
+      </c>
+      <c r="E337" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F337" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G337">
+        <f t="shared" ca="1" si="12"/>
+        <v>2291</v>
+      </c>
+      <c r="H337" t="s">
+        <v>14</v>
+      </c>
+      <c r="I337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="1">
+        <v>48487</v>
+      </c>
+      <c r="C338" s="8">
+        <v>0</v>
+      </c>
+      <c r="D338" s="8">
+        <v>4</v>
+      </c>
+      <c r="E338" s="7">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="F338" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G338">
+        <f t="shared" ca="1" si="12"/>
+        <v>2474</v>
+      </c>
+      <c r="H338" t="s">
+        <v>14</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>30</v>
+      </c>
+      <c r="B339" s="1">
+        <v>48669</v>
+      </c>
+      <c r="C339" s="8">
+        <v>33</v>
+      </c>
+      <c r="D339" s="8">
+        <v>4</v>
+      </c>
+      <c r="E339" s="7">
+        <f t="shared" si="13"/>
+        <v>37</v>
+      </c>
+      <c r="F339" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G339">
+        <f t="shared" ca="1" si="12"/>
+        <v>2656</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="1">
+        <v>48852</v>
+      </c>
+      <c r="C340" s="8">
+        <v>0</v>
+      </c>
+      <c r="D340" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="E340" s="7">
+        <f t="shared" si="13"/>
+        <v>2.68</v>
+      </c>
+      <c r="F340" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G340">
+        <f t="shared" ca="1" si="12"/>
+        <v>2839</v>
+      </c>
+      <c r="H340" t="s">
+        <v>14</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="1">
+        <v>49034</v>
+      </c>
+      <c r="C341" s="8">
+        <v>33</v>
+      </c>
+      <c r="D341" s="8">
+        <v>2.68</v>
+      </c>
+      <c r="E341" s="7">
+        <f t="shared" si="13"/>
+        <v>35.68</v>
+      </c>
+      <c r="F341" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G341">
+        <f t="shared" ca="1" si="12"/>
+        <v>3021</v>
+      </c>
+      <c r="H341" t="s">
+        <v>14</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="1">
+        <v>49217</v>
+      </c>
+      <c r="C342" s="8">
+        <v>0</v>
+      </c>
+      <c r="D342" s="8">
+        <v>1.36</v>
+      </c>
+      <c r="E342" s="7">
+        <f t="shared" si="13"/>
+        <v>1.36</v>
+      </c>
+      <c r="F342" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G342">
+        <f t="shared" ca="1" si="12"/>
+        <v>3204</v>
+      </c>
+      <c r="H342" t="s">
+        <v>14</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>30</v>
+      </c>
+      <c r="B343" s="1">
+        <v>49399</v>
+      </c>
+      <c r="C343" s="8">
+        <v>34</v>
+      </c>
+      <c r="D343" s="9">
+        <v>1.36</v>
+      </c>
+      <c r="E343" s="7">
+        <f t="shared" si="13"/>
+        <v>35.36</v>
+      </c>
+      <c r="F343" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G343">
+        <f t="shared" ca="1" si="12"/>
+        <v>3386</v>
+      </c>
+      <c r="H343" t="s">
+        <v>14</v>
+      </c>
+      <c r="I343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>31</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C344" s="7">
+        <v>0</v>
+      </c>
+      <c r="D344" s="12"/>
+      <c r="E344" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F344" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G344">
+        <f t="shared" ca="1" si="12"/>
+        <v>-371</v>
+      </c>
+      <c r="H344" t="s">
+        <v>14</v>
+      </c>
+      <c r="I344">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>31</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C345" s="8">
+        <v>0</v>
+      </c>
+      <c r="D345" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E345" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F345" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G345">
+        <f t="shared" ca="1" si="12"/>
+        <v>-189</v>
+      </c>
+      <c r="H345" t="s">
+        <v>14</v>
+      </c>
+      <c r="I345">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>31</v>
+      </c>
+      <c r="B346" s="1">
+        <v>46007</v>
+      </c>
+      <c r="C346" s="8">
+        <v>0</v>
+      </c>
+      <c r="D346" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E346" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F346" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G346">
+        <f t="shared" ca="1" si="12"/>
+        <v>-6</v>
+      </c>
+      <c r="H346" t="s">
+        <v>14</v>
+      </c>
+      <c r="I346">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>31</v>
+      </c>
+      <c r="B347" s="1">
+        <v>46189</v>
+      </c>
+      <c r="C347" s="8">
+        <v>0</v>
+      </c>
+      <c r="D347" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E347" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F347" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G347">
+        <f t="shared" ca="1" si="12"/>
+        <v>176</v>
+      </c>
+      <c r="H347" t="s">
+        <v>14</v>
+      </c>
+      <c r="I347">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>31</v>
+      </c>
+      <c r="B348" s="1">
+        <v>46372</v>
+      </c>
+      <c r="C348" s="8">
+        <v>0</v>
+      </c>
+      <c r="D348" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E348" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F348" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G348">
+        <f t="shared" ca="1" si="12"/>
+        <v>359</v>
+      </c>
+      <c r="H348" t="s">
+        <v>14</v>
+      </c>
+      <c r="I348">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>31</v>
+      </c>
+      <c r="B349" s="1">
+        <v>46554</v>
+      </c>
+      <c r="C349" s="8">
+        <v>0</v>
+      </c>
+      <c r="D349" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E349" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F349" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G349">
+        <f t="shared" ca="1" si="12"/>
+        <v>541</v>
+      </c>
+      <c r="H349" t="s">
+        <v>14</v>
+      </c>
+      <c r="I349">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>31</v>
+      </c>
+      <c r="B350" s="1">
+        <v>46737</v>
+      </c>
+      <c r="C350" s="8">
+        <v>0</v>
+      </c>
+      <c r="D350" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E350" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F350" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G350">
+        <f t="shared" ca="1" si="12"/>
+        <v>724</v>
+      </c>
+      <c r="H350" t="s">
+        <v>14</v>
+      </c>
+      <c r="I350">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>31</v>
+      </c>
+      <c r="B351" s="1">
+        <v>46920</v>
+      </c>
+      <c r="C351" s="8">
+        <v>0</v>
+      </c>
+      <c r="D351" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E351" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F351" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G351">
+        <f t="shared" ca="1" si="12"/>
+        <v>907</v>
+      </c>
+      <c r="H351" t="s">
+        <v>14</v>
+      </c>
+      <c r="I351">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>31</v>
+      </c>
+      <c r="B352" s="1">
+        <v>47103</v>
+      </c>
+      <c r="C352" s="8">
+        <v>0</v>
+      </c>
+      <c r="D352" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E352" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F352" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G352">
+        <f t="shared" ca="1" si="12"/>
+        <v>1090</v>
+      </c>
+      <c r="H352" t="s">
+        <v>14</v>
+      </c>
+      <c r="I352">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A353" t="s">
+        <v>31</v>
+      </c>
+      <c r="B353" s="1">
+        <v>47285</v>
+      </c>
+      <c r="C353" s="8">
+        <v>0</v>
+      </c>
+      <c r="D353" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E353" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F353" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G353">
+        <f t="shared" ca="1" si="12"/>
+        <v>1272</v>
+      </c>
+      <c r="H353" t="s">
+        <v>14</v>
+      </c>
+      <c r="I353">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354" s="1">
+        <v>47468</v>
+      </c>
+      <c r="C354" s="8">
+        <v>0</v>
+      </c>
+      <c r="D354" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E354" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F354" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G354">
+        <f t="shared" ca="1" si="12"/>
+        <v>1455</v>
+      </c>
+      <c r="H354" t="s">
+        <v>14</v>
+      </c>
+      <c r="I354">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>31</v>
+      </c>
+      <c r="B355" s="1">
+        <v>47650</v>
+      </c>
+      <c r="C355" s="8">
+        <v>0</v>
+      </c>
+      <c r="D355" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E355" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F355" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G355">
+        <f t="shared" ca="1" si="12"/>
+        <v>1637</v>
+      </c>
+      <c r="H355" t="s">
+        <v>14</v>
+      </c>
+      <c r="I355">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>31</v>
+      </c>
+      <c r="B356" s="1">
+        <v>47833</v>
+      </c>
+      <c r="C356" s="8">
+        <v>0</v>
+      </c>
+      <c r="D356" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E356" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F356" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G356">
+        <f t="shared" ca="1" si="12"/>
+        <v>1820</v>
+      </c>
+      <c r="H356" t="s">
+        <v>14</v>
+      </c>
+      <c r="I356">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>31</v>
+      </c>
+      <c r="B357" s="1">
+        <v>48015</v>
+      </c>
+      <c r="C357" s="8">
+        <v>0</v>
+      </c>
+      <c r="D357" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E357" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F357" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G357">
+        <f t="shared" ca="1" si="12"/>
+        <v>2002</v>
+      </c>
+      <c r="H357" t="s">
+        <v>14</v>
+      </c>
+      <c r="I357">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>31</v>
+      </c>
+      <c r="B358" s="1">
+        <v>48198</v>
+      </c>
+      <c r="C358" s="8">
+        <v>0</v>
+      </c>
+      <c r="D358" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E358" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F358" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G358">
+        <f t="shared" ca="1" si="12"/>
+        <v>2185</v>
+      </c>
+      <c r="H358" t="s">
+        <v>14</v>
+      </c>
+      <c r="I358">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>31</v>
+      </c>
+      <c r="B359" s="1">
+        <v>48381</v>
+      </c>
+      <c r="C359" s="8">
+        <v>0</v>
+      </c>
+      <c r="D359" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E359" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F359" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G359">
+        <f t="shared" ca="1" si="12"/>
+        <v>2368</v>
+      </c>
+      <c r="H359" t="s">
+        <v>14</v>
+      </c>
+      <c r="I359">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>31</v>
+      </c>
+      <c r="B360" s="1">
+        <v>48564</v>
+      </c>
+      <c r="C360" s="8">
+        <v>0</v>
+      </c>
+      <c r="D360" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E360" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F360" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G360">
+        <f t="shared" ca="1" si="12"/>
+        <v>2551</v>
+      </c>
+      <c r="H360" t="s">
+        <v>14</v>
+      </c>
+      <c r="I360">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>31</v>
+      </c>
+      <c r="B361" s="1">
+        <v>48746</v>
+      </c>
+      <c r="C361" s="8">
+        <v>0</v>
+      </c>
+      <c r="D361" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E361" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F361" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G361">
+        <f t="shared" ca="1" si="12"/>
+        <v>2733</v>
+      </c>
+      <c r="H361" t="s">
+        <v>14</v>
+      </c>
+      <c r="I361">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>31</v>
+      </c>
+      <c r="B362" s="1">
+        <v>48929</v>
+      </c>
+      <c r="C362" s="8">
+        <v>0</v>
+      </c>
+      <c r="D362" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E362" s="7">
+        <f t="shared" si="13"/>
+        <v>3.94</v>
+      </c>
+      <c r="F362" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G362">
+        <f t="shared" ref="G362:G408" ca="1" si="14">B362-$Q$1</f>
+        <v>2916</v>
+      </c>
+      <c r="H362" t="s">
+        <v>14</v>
+      </c>
+      <c r="I362">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>31</v>
+      </c>
+      <c r="B363" s="1">
+        <v>49111</v>
+      </c>
+      <c r="C363" s="8">
+        <v>0</v>
+      </c>
+      <c r="D363" s="8">
+        <v>3.94</v>
+      </c>
+      <c r="E363" s="7">
+        <f t="shared" ref="E363:E408" si="15">C363+D363</f>
+        <v>3.94</v>
+      </c>
+      <c r="F363" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G363">
+        <f t="shared" ca="1" si="14"/>
+        <v>3098</v>
+      </c>
+      <c r="H363" t="s">
+        <v>14</v>
+      </c>
+      <c r="I363">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>31</v>
+      </c>
+      <c r="B364" s="1">
+        <v>49294</v>
+      </c>
+      <c r="C364" s="8">
+        <v>100</v>
+      </c>
+      <c r="D364" s="9">
+        <v>3.94</v>
+      </c>
+      <c r="E364" s="7">
+        <f t="shared" si="15"/>
+        <v>103.94</v>
+      </c>
+      <c r="F364" s="14">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="G364">
+        <f t="shared" ca="1" si="14"/>
+        <v>3281</v>
+      </c>
+      <c r="H364" t="s">
+        <v>14</v>
+      </c>
+      <c r="I364">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45636</v>
+      </c>
+      <c r="C365" s="7">
+        <v>0</v>
+      </c>
+      <c r="D365" s="12"/>
+      <c r="E365" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F365" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G365">
+        <f t="shared" ca="1" si="14"/>
+        <v>-377</v>
+      </c>
+      <c r="H365" t="s">
+        <v>14</v>
+      </c>
+      <c r="I365">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45818</v>
+      </c>
+      <c r="C366" s="8">
+        <v>0</v>
+      </c>
+      <c r="D366" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E366" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F366" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G366">
+        <f t="shared" ca="1" si="14"/>
+        <v>-195</v>
+      </c>
+      <c r="H366" t="s">
+        <v>14</v>
+      </c>
+      <c r="I366">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" s="1">
+        <v>46001</v>
+      </c>
+      <c r="C367" s="8">
+        <v>0</v>
+      </c>
+      <c r="D367" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E367" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F367" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G367">
+        <f t="shared" ca="1" si="14"/>
+        <v>-12</v>
+      </c>
+      <c r="H367" t="s">
+        <v>14</v>
+      </c>
+      <c r="I367">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" s="1">
+        <v>46183</v>
+      </c>
+      <c r="C368" s="8">
+        <v>0</v>
+      </c>
+      <c r="D368" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E368" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F368" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G368">
+        <f t="shared" ca="1" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="H368" t="s">
+        <v>14</v>
+      </c>
+      <c r="I368">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369" s="1">
+        <v>46366</v>
+      </c>
+      <c r="C369" s="8">
+        <v>0</v>
+      </c>
+      <c r="D369" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E369" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F369" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G369">
+        <f t="shared" ca="1" si="14"/>
+        <v>353</v>
+      </c>
+      <c r="H369" t="s">
+        <v>14</v>
+      </c>
+      <c r="I369">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>32</v>
+      </c>
+      <c r="B370" s="1">
+        <v>46548</v>
+      </c>
+      <c r="C370" s="8">
+        <v>0</v>
+      </c>
+      <c r="D370" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E370" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F370" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G370">
+        <f t="shared" ca="1" si="14"/>
+        <v>535</v>
+      </c>
+      <c r="H370" t="s">
+        <v>14</v>
+      </c>
+      <c r="I370">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" s="1">
+        <v>46731</v>
+      </c>
+      <c r="C371" s="8">
+        <v>0</v>
+      </c>
+      <c r="D371" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E371" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F371" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G371">
+        <f t="shared" ca="1" si="14"/>
+        <v>718</v>
+      </c>
+      <c r="H371" t="s">
+        <v>14</v>
+      </c>
+      <c r="I371">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>32</v>
+      </c>
+      <c r="B372" s="1">
+        <v>46914</v>
+      </c>
+      <c r="C372" s="8">
+        <v>0</v>
+      </c>
+      <c r="D372" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E372" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F372" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G372">
+        <f t="shared" ca="1" si="14"/>
+        <v>901</v>
+      </c>
+      <c r="H372" t="s">
+        <v>14</v>
+      </c>
+      <c r="I372">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>32</v>
+      </c>
+      <c r="B373" s="1">
+        <v>47097</v>
+      </c>
+      <c r="C373" s="8">
+        <v>0</v>
+      </c>
+      <c r="D373" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E373" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F373" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G373">
+        <f t="shared" ca="1" si="14"/>
+        <v>1084</v>
+      </c>
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+      <c r="I373">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>32</v>
+      </c>
+      <c r="B374" s="1">
+        <v>47279</v>
+      </c>
+      <c r="C374" s="8">
+        <v>0</v>
+      </c>
+      <c r="D374" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E374" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F374" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G374">
+        <f t="shared" ca="1" si="14"/>
+        <v>1266</v>
+      </c>
+      <c r="H374" t="s">
+        <v>14</v>
+      </c>
+      <c r="I374">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>32</v>
+      </c>
+      <c r="B375" s="1">
+        <v>47462</v>
+      </c>
+      <c r="C375" s="8">
+        <v>0</v>
+      </c>
+      <c r="D375" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E375" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F375" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G375">
+        <f t="shared" ca="1" si="14"/>
+        <v>1449</v>
+      </c>
+      <c r="H375" t="s">
+        <v>14</v>
+      </c>
+      <c r="I375">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>32</v>
+      </c>
+      <c r="B376" s="1">
+        <v>47644</v>
+      </c>
+      <c r="C376" s="8">
+        <v>0</v>
+      </c>
+      <c r="D376" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E376" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F376" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G376">
+        <f t="shared" ca="1" si="14"/>
+        <v>1631</v>
+      </c>
+      <c r="H376" t="s">
+        <v>14</v>
+      </c>
+      <c r="I376">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>32</v>
+      </c>
+      <c r="B377" s="1">
+        <v>47827</v>
+      </c>
+      <c r="C377" s="8">
+        <v>0</v>
+      </c>
+      <c r="D377" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E377" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F377" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G377">
+        <f t="shared" ca="1" si="14"/>
+        <v>1814</v>
+      </c>
+      <c r="H377" t="s">
+        <v>14</v>
+      </c>
+      <c r="I377">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>32</v>
+      </c>
+      <c r="B378" s="1">
+        <v>48009</v>
+      </c>
+      <c r="C378" s="8">
+        <v>0</v>
+      </c>
+      <c r="D378" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E378" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F378" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G378">
+        <f t="shared" ca="1" si="14"/>
+        <v>1996</v>
+      </c>
+      <c r="H378" t="s">
+        <v>14</v>
+      </c>
+      <c r="I378">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>32</v>
+      </c>
+      <c r="B379" s="1">
+        <v>48192</v>
+      </c>
+      <c r="C379" s="8">
+        <v>0</v>
+      </c>
+      <c r="D379" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E379" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F379" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G379">
+        <f t="shared" ca="1" si="14"/>
+        <v>2179</v>
+      </c>
+      <c r="H379" t="s">
+        <v>14</v>
+      </c>
+      <c r="I379">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>32</v>
+      </c>
+      <c r="B380" s="1">
+        <v>48375</v>
+      </c>
+      <c r="C380" s="8">
+        <v>0</v>
+      </c>
+      <c r="D380" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E380" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F380" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G380">
+        <f t="shared" ca="1" si="14"/>
+        <v>2362</v>
+      </c>
+      <c r="H380" t="s">
+        <v>14</v>
+      </c>
+      <c r="I380">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>32</v>
+      </c>
+      <c r="B381" s="1">
+        <v>48558</v>
+      </c>
+      <c r="C381" s="8">
+        <v>0</v>
+      </c>
+      <c r="D381" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E381" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F381" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G381">
+        <f t="shared" ca="1" si="14"/>
+        <v>2545</v>
+      </c>
+      <c r="H381" t="s">
+        <v>14</v>
+      </c>
+      <c r="I381">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>32</v>
+      </c>
+      <c r="B382" s="1">
+        <v>48740</v>
+      </c>
+      <c r="C382" s="8">
+        <v>0</v>
+      </c>
+      <c r="D382" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E382" s="7">
+        <f t="shared" si="15"/>
+        <v>3.81</v>
+      </c>
+      <c r="F382" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G382">
+        <f t="shared" ca="1" si="14"/>
+        <v>2727</v>
+      </c>
+      <c r="H382" t="s">
+        <v>14</v>
+      </c>
+      <c r="I382">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383" s="1">
+        <v>48923</v>
+      </c>
+      <c r="C383" s="8">
+        <v>33</v>
+      </c>
+      <c r="D383" s="8">
+        <v>3.81</v>
+      </c>
+      <c r="E383" s="7">
+        <f t="shared" si="15"/>
+        <v>36.81</v>
+      </c>
+      <c r="F383" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G383">
+        <f t="shared" ca="1" si="14"/>
+        <v>2910</v>
+      </c>
+      <c r="H383" t="s">
+        <v>14</v>
+      </c>
+      <c r="I383">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>32</v>
+      </c>
+      <c r="B384" s="1">
+        <v>49105</v>
+      </c>
+      <c r="C384" s="8">
+        <v>0</v>
+      </c>
+      <c r="D384" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E384" s="7">
+        <f t="shared" si="15"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F384" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G384">
+        <f t="shared" ca="1" si="14"/>
+        <v>3092</v>
+      </c>
+      <c r="H384" t="s">
+        <v>14</v>
+      </c>
+      <c r="I384">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A385" t="s">
+        <v>32</v>
+      </c>
+      <c r="B385" s="1">
+        <v>49288</v>
+      </c>
+      <c r="C385" s="8">
+        <v>33</v>
+      </c>
+      <c r="D385" s="8">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E385" s="7">
+        <f t="shared" si="15"/>
+        <v>35.549999999999997</v>
+      </c>
+      <c r="F385" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G385">
+        <f t="shared" ca="1" si="14"/>
+        <v>3275</v>
+      </c>
+      <c r="H385" t="s">
+        <v>14</v>
+      </c>
+      <c r="I385">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A386" t="s">
+        <v>32</v>
+      </c>
+      <c r="B386" s="1">
+        <v>49470</v>
+      </c>
+      <c r="C386" s="8">
+        <v>0</v>
+      </c>
+      <c r="D386" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E386" s="7">
+        <f t="shared" si="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="F386" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G386">
+        <f t="shared" ca="1" si="14"/>
+        <v>3457</v>
+      </c>
+      <c r="H386" t="s">
+        <v>14</v>
+      </c>
+      <c r="I386">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>32</v>
+      </c>
+      <c r="B387" s="1">
+        <v>49653</v>
+      </c>
+      <c r="C387" s="8">
+        <v>35</v>
+      </c>
+      <c r="D387" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="E387" s="7">
+        <f t="shared" si="15"/>
+        <v>36.299999999999997</v>
+      </c>
+      <c r="F387" s="14">
+        <v>7.6249999999999998E-2</v>
+      </c>
+      <c r="G387">
+        <f t="shared" ca="1" si="14"/>
+        <v>3640</v>
+      </c>
+      <c r="H387" t="s">
+        <v>14</v>
+      </c>
+      <c r="I387">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45981</v>
+      </c>
+      <c r="C388" s="7">
+        <v>0</v>
+      </c>
+      <c r="D388" s="12"/>
+      <c r="E388" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F388" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G388">
+        <f t="shared" ca="1" si="14"/>
+        <v>-32</v>
+      </c>
+      <c r="H388" t="s">
+        <v>14</v>
+      </c>
+      <c r="I388">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>33</v>
+      </c>
+      <c r="B389" s="1">
+        <v>46162</v>
+      </c>
+      <c r="C389" s="8">
+        <v>0</v>
+      </c>
+      <c r="D389" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E389" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F389" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G389">
+        <f t="shared" ca="1" si="14"/>
+        <v>149</v>
+      </c>
+      <c r="H389" t="s">
+        <v>14</v>
+      </c>
+      <c r="I389">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>33</v>
+      </c>
+      <c r="B390" s="1">
+        <v>46346</v>
+      </c>
+      <c r="C390" s="8">
+        <v>0</v>
+      </c>
+      <c r="D390" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E390" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F390" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G390">
+        <f t="shared" ca="1" si="14"/>
+        <v>333</v>
+      </c>
+      <c r="H390" t="s">
+        <v>14</v>
+      </c>
+      <c r="I390">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>33</v>
+      </c>
+      <c r="B391" s="1">
+        <v>46527</v>
+      </c>
+      <c r="C391" s="8">
+        <v>0</v>
+      </c>
+      <c r="D391" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E391" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F391" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G391">
+        <f t="shared" ca="1" si="14"/>
+        <v>514</v>
+      </c>
+      <c r="H391" t="s">
+        <v>14</v>
+      </c>
+      <c r="I391">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>33</v>
+      </c>
+      <c r="B392" s="1">
+        <v>46711</v>
+      </c>
+      <c r="C392" s="8">
+        <v>0</v>
+      </c>
+      <c r="D392" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E392" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F392" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G392">
+        <f t="shared" ca="1" si="14"/>
+        <v>698</v>
+      </c>
+      <c r="H392" t="s">
+        <v>14</v>
+      </c>
+      <c r="I392">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="1">
+        <v>46893</v>
+      </c>
+      <c r="C393" s="8">
+        <v>0</v>
+      </c>
+      <c r="D393" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E393" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F393" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G393">
+        <f t="shared" ca="1" si="14"/>
+        <v>880</v>
+      </c>
+      <c r="H393" t="s">
+        <v>14</v>
+      </c>
+      <c r="I393">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1">
+        <v>47077</v>
+      </c>
+      <c r="C394" s="8">
+        <v>0</v>
+      </c>
+      <c r="D394" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E394" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F394" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G394">
+        <f t="shared" ca="1" si="14"/>
+        <v>1064</v>
+      </c>
+      <c r="H394" t="s">
+        <v>14</v>
+      </c>
+      <c r="I394">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1">
+        <v>47258</v>
+      </c>
+      <c r="C395" s="8">
+        <v>0</v>
+      </c>
+      <c r="D395" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E395" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F395" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G395">
+        <f t="shared" ca="1" si="14"/>
+        <v>1245</v>
+      </c>
+      <c r="H395" t="s">
+        <v>14</v>
+      </c>
+      <c r="I395">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1">
+        <v>47442</v>
+      </c>
+      <c r="C396" s="8">
+        <v>0</v>
+      </c>
+      <c r="D396" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E396" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F396" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G396">
+        <f t="shared" ca="1" si="14"/>
+        <v>1429</v>
+      </c>
+      <c r="H396" t="s">
+        <v>14</v>
+      </c>
+      <c r="I396">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1">
+        <v>47623</v>
+      </c>
+      <c r="C397" s="8">
+        <v>0</v>
+      </c>
+      <c r="D397" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E397" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F397" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G397">
+        <f t="shared" ca="1" si="14"/>
+        <v>1610</v>
+      </c>
+      <c r="H397" t="s">
+        <v>14</v>
+      </c>
+      <c r="I397">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1">
+        <v>47807</v>
+      </c>
+      <c r="C398" s="8">
+        <v>0</v>
+      </c>
+      <c r="D398" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E398" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F398" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G398">
+        <f t="shared" ca="1" si="14"/>
+        <v>1794</v>
+      </c>
+      <c r="H398" t="s">
+        <v>14</v>
+      </c>
+      <c r="I398">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1">
+        <v>47988</v>
+      </c>
+      <c r="C399" s="8">
+        <v>0</v>
+      </c>
+      <c r="D399" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E399" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F399" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G399">
+        <f t="shared" ca="1" si="14"/>
+        <v>1975</v>
+      </c>
+      <c r="H399" t="s">
+        <v>14</v>
+      </c>
+      <c r="I399">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1">
+        <v>48172</v>
+      </c>
+      <c r="C400" s="8">
+        <v>0</v>
+      </c>
+      <c r="D400" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E400" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F400" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G400">
+        <f t="shared" ca="1" si="14"/>
+        <v>2159</v>
+      </c>
+      <c r="H400" t="s">
+        <v>14</v>
+      </c>
+      <c r="I400">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1">
+        <v>48354</v>
+      </c>
+      <c r="C401" s="8">
+        <v>0</v>
+      </c>
+      <c r="D401" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E401" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F401" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G401">
+        <f t="shared" ca="1" si="14"/>
+        <v>2341</v>
+      </c>
+      <c r="H401" t="s">
+        <v>14</v>
+      </c>
+      <c r="I401">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1">
+        <v>48538</v>
+      </c>
+      <c r="C402" s="8">
+        <v>0</v>
+      </c>
+      <c r="D402" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E402" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F402" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G402">
+        <f t="shared" ca="1" si="14"/>
+        <v>2525</v>
+      </c>
+      <c r="H402" t="s">
+        <v>14</v>
+      </c>
+      <c r="I402">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1">
+        <v>48719</v>
+      </c>
+      <c r="C403" s="8">
+        <v>0</v>
+      </c>
+      <c r="D403" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E403" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F403" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G403">
+        <f t="shared" ca="1" si="14"/>
+        <v>2706</v>
+      </c>
+      <c r="H403" t="s">
+        <v>14</v>
+      </c>
+      <c r="I403">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1">
+        <v>48903</v>
+      </c>
+      <c r="C404" s="8">
+        <v>0</v>
+      </c>
+      <c r="D404" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E404" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F404" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G404">
+        <f t="shared" ca="1" si="14"/>
+        <v>2890</v>
+      </c>
+      <c r="H404" t="s">
+        <v>14</v>
+      </c>
+      <c r="I404">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1">
+        <v>49084</v>
+      </c>
+      <c r="C405" s="8">
+        <v>0</v>
+      </c>
+      <c r="D405" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E405" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F405" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G405">
+        <f t="shared" ca="1" si="14"/>
+        <v>3071</v>
+      </c>
+      <c r="H405" t="s">
+        <v>14</v>
+      </c>
+      <c r="I405">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1">
+        <v>49268</v>
+      </c>
+      <c r="C406" s="8">
+        <v>0</v>
+      </c>
+      <c r="D406" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E406" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F406" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G406">
+        <f t="shared" ca="1" si="14"/>
+        <v>3255</v>
+      </c>
+      <c r="H406" t="s">
+        <v>14</v>
+      </c>
+      <c r="I406">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1">
+        <v>49449</v>
+      </c>
+      <c r="C407" s="8">
+        <v>0</v>
+      </c>
+      <c r="D407" s="8">
+        <v>3.88</v>
+      </c>
+      <c r="E407" s="7">
+        <f t="shared" si="15"/>
+        <v>3.88</v>
+      </c>
+      <c r="F407" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G407">
+        <f t="shared" ca="1" si="14"/>
+        <v>3436</v>
+      </c>
+      <c r="H407" t="s">
+        <v>14</v>
+      </c>
+      <c r="I407">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="18">
+        <v>49633</v>
+      </c>
+      <c r="C408" s="8">
+        <v>100</v>
+      </c>
+      <c r="D408" s="9">
+        <v>3.88</v>
+      </c>
+      <c r="E408" s="7">
+        <f t="shared" si="15"/>
+        <v>103.88</v>
+      </c>
+      <c r="F408" s="14">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="G408">
+        <f t="shared" ca="1" si="14"/>
+        <v>3620</v>
+      </c>
+      <c r="H408" t="s">
+        <v>14</v>
+      </c>
+      <c r="I408">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/BD ONs.xlsx
+++ b/data/BD ONs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1ftoIZqhxjIK-zxyM2xIG9xFIX4GG9BvJ\DCF\Marketing\Instagram\Scripts Python\App DCF Dani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408BA42E-605C-4C83-A17A-1D0DCFD3F120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C367FC-E785-480C-A6BC-158A49E044EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB8ACD95-2FAD-499C-A444-8C523315DBC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="41">
   <si>
     <t>ARC1O</t>
   </si>
@@ -139,6 +139,27 @@
   <si>
     <t>TSC4O</t>
   </si>
+  <si>
+    <t>PLC3O</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>TLCOO</t>
+  </si>
+  <si>
+    <t>YM37O</t>
+  </si>
+  <si>
+    <t>OTS3O</t>
+  </si>
+  <si>
+    <t>PN35O</t>
+  </si>
+  <si>
+    <t>VSCRO</t>
+  </si>
 </sst>
 </file>
 
@@ -182,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +219,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -322,9 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7999CC-3586-44AD-A24E-E30070673374}">
-  <dimension ref="A1:Q409"/>
+  <dimension ref="A1:Q476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I389" sqref="I389:I408"/>
+    <sheetView tabSelected="1" topLeftCell="A447" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P467" sqref="P467"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,7 +713,7 @@
       </c>
       <c r="Q1" s="5">
         <f ca="1">+TODAY()</f>
-        <v>46013</v>
+        <v>46014</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -722,7 +734,7 @@
       <c r="F2" s="10"/>
       <c r="G2">
         <f t="shared" ref="G2:G18" ca="1" si="1">B2-$Q$1</f>
-        <v>-1516</v>
+        <v>-1517</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -753,7 +765,7 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1420</v>
+        <v>-1421</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -784,7 +796,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1331</v>
+        <v>-1332</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -815,7 +827,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1239</v>
+        <v>-1240</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -849,7 +861,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1147</v>
+        <v>-1148</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -883,7 +895,7 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1055</v>
+        <v>-1056</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -917,7 +929,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>-966</v>
+        <v>-967</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -951,7 +963,7 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>-874</v>
+        <v>-875</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -985,7 +997,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>-782</v>
+        <v>-783</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1019,7 +1031,7 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>-690</v>
+        <v>-691</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1050,7 +1062,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>-600</v>
+        <v>-601</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1081,7 +1093,7 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>-508</v>
+        <v>-509</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1112,7 +1124,7 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>-416</v>
+        <v>-417</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1143,7 +1155,7 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>-324</v>
+        <v>-325</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1174,7 +1186,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>-235</v>
+        <v>-236</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1205,7 +1217,7 @@
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-143</v>
+        <v>-144</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1236,7 +1248,7 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-51</v>
+        <v>-52</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1267,7 +1279,7 @@
       </c>
       <c r="G19">
         <f t="shared" ref="G19:G41" ca="1" si="3">B19-$Q$1</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1298,7 +1310,7 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1329,7 +1341,7 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1360,7 +1372,7 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1391,7 +1403,7 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1422,7 +1434,7 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1453,7 +1465,7 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1484,7 +1496,7 @@
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1515,7 +1527,7 @@
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1546,7 +1558,7 @@
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1577,7 +1589,7 @@
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1608,7 +1620,7 @@
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1639,7 +1651,7 @@
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -1670,7 +1682,7 @@
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -1701,7 +1713,7 @@
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1732,7 +1744,7 @@
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -1763,7 +1775,7 @@
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -1794,7 +1806,7 @@
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1825,7 +1837,7 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -1856,7 +1868,7 @@
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -1918,7 +1930,7 @@
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -1949,7 +1961,7 @@
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -1980,7 +1992,7 @@
       </c>
       <c r="G42">
         <f t="shared" ref="G42:G105" ca="1" si="4">B42-$Q$1</f>
-        <v>-182</v>
+        <v>-183</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -2011,7 +2023,7 @@
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2042,7 +2054,7 @@
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="4"/>
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -2073,7 +2085,7 @@
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -2104,7 +2116,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -2135,7 +2147,7 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2166,7 +2178,7 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="4"/>
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2197,7 +2209,7 @@
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="4"/>
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="4"/>
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2259,7 +2271,7 @@
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="4"/>
-        <v>-438</v>
+        <v>-439</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="4"/>
-        <v>-256</v>
+        <v>-257</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2321,7 +2333,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="4"/>
-        <v>-73</v>
+        <v>-74</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2352,7 +2364,7 @@
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="4"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2383,7 +2395,7 @@
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="4"/>
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2414,7 +2426,7 @@
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="4"/>
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2445,7 +2457,7 @@
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="4"/>
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2476,7 +2488,7 @@
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="4"/>
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2507,7 +2519,7 @@
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="4"/>
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -2538,7 +2550,7 @@
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="4"/>
-        <v>-850</v>
+        <v>-851</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -2569,7 +2581,7 @@
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="4"/>
-        <v>-666</v>
+        <v>-667</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2600,7 +2612,7 @@
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="4"/>
-        <v>-484</v>
+        <v>-485</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -2631,7 +2643,7 @@
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="4"/>
-        <v>-300</v>
+        <v>-301</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -2662,7 +2674,7 @@
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="4"/>
-        <v>-119</v>
+        <v>-120</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -2693,7 +2705,7 @@
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -2724,7 +2736,7 @@
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="4"/>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -2755,7 +2767,7 @@
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="4"/>
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2786,7 +2798,7 @@
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="4"/>
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2817,7 +2829,7 @@
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="4"/>
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2848,7 +2860,7 @@
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="4"/>
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2879,7 +2891,7 @@
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="4"/>
-        <v>-424</v>
+        <v>-425</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="4"/>
-        <v>-242</v>
+        <v>-243</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -2941,7 +2953,7 @@
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="4"/>
-        <v>-59</v>
+        <v>-60</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -2972,7 +2984,7 @@
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="4"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -3003,7 +3015,7 @@
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="4"/>
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -3034,7 +3046,7 @@
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="4"/>
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -3065,7 +3077,7 @@
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="4"/>
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3096,7 +3108,7 @@
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="4"/>
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -3127,7 +3139,7 @@
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="4"/>
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3158,7 +3170,7 @@
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="4"/>
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -3189,7 +3201,7 @@
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="4"/>
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3220,7 +3232,7 @@
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="4"/>
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -3251,7 +3263,7 @@
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="4"/>
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -3280,7 +3292,7 @@
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="4"/>
-        <v>-1799</v>
+        <v>-1800</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -3311,7 +3323,7 @@
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="4"/>
-        <v>-1618</v>
+        <v>-1619</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
@@ -3342,7 +3354,7 @@
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="4"/>
-        <v>-1434</v>
+        <v>-1435</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -3373,7 +3385,7 @@
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="4"/>
-        <v>-1253</v>
+        <v>-1254</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -3404,7 +3416,7 @@
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="4"/>
-        <v>-1069</v>
+        <v>-1070</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -3435,7 +3447,7 @@
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="4"/>
-        <v>-888</v>
+        <v>-889</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
@@ -3466,7 +3478,7 @@
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="4"/>
-        <v>-704</v>
+        <v>-705</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
@@ -3497,7 +3509,7 @@
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="4"/>
-        <v>-522</v>
+        <v>-523</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="4"/>
-        <v>-338</v>
+        <v>-339</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -3559,7 +3571,7 @@
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="4"/>
-        <v>-157</v>
+        <v>-158</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
@@ -3590,7 +3602,7 @@
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
@@ -3621,7 +3633,7 @@
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="4"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
@@ -3650,7 +3662,7 @@
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="4"/>
-        <v>-1697</v>
+        <v>-1698</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
@@ -3681,7 +3693,7 @@
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="4"/>
-        <v>-1332</v>
+        <v>-1333</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -3712,7 +3724,7 @@
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="4"/>
-        <v>-1149</v>
+        <v>-1150</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
@@ -3743,7 +3755,7 @@
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="4"/>
-        <v>-967</v>
+        <v>-968</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
@@ -3774,7 +3786,7 @@
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="4"/>
-        <v>-784</v>
+        <v>-785</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -3805,7 +3817,7 @@
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="4"/>
-        <v>-601</v>
+        <v>-602</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -3836,7 +3848,7 @@
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="4"/>
-        <v>-418</v>
+        <v>-419</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -3867,7 +3879,7 @@
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="4"/>
-        <v>-236</v>
+        <v>-237</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -3898,7 +3910,7 @@
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="4"/>
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
@@ -3929,7 +3941,7 @@
       </c>
       <c r="G105">
         <f t="shared" ca="1" si="4"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
@@ -3960,7 +3972,7 @@
       </c>
       <c r="G106">
         <f t="shared" ref="G106:G169" ca="1" si="6">B106-$Q$1</f>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
@@ -3991,7 +4003,7 @@
       </c>
       <c r="G107">
         <f t="shared" ca="1" si="6"/>
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
@@ -4020,7 +4032,7 @@
       </c>
       <c r="G108">
         <f t="shared" ca="1" si="6"/>
-        <v>-382</v>
+        <v>-383</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
@@ -4051,7 +4063,7 @@
       </c>
       <c r="G109">
         <f t="shared" ca="1" si="6"/>
-        <v>-200</v>
+        <v>-201</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
@@ -4082,7 +4094,7 @@
       </c>
       <c r="G110">
         <f t="shared" ca="1" si="6"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
@@ -4113,7 +4125,7 @@
       </c>
       <c r="G111">
         <f t="shared" ca="1" si="6"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
@@ -4144,7 +4156,7 @@
       </c>
       <c r="G112">
         <f t="shared" ca="1" si="6"/>
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
@@ -4175,7 +4187,7 @@
       </c>
       <c r="G113">
         <f t="shared" ca="1" si="6"/>
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -4206,7 +4218,7 @@
       </c>
       <c r="G114">
         <f t="shared" ca="1" si="6"/>
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -4237,7 +4249,7 @@
       </c>
       <c r="G115">
         <f t="shared" ca="1" si="6"/>
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -4268,7 +4280,7 @@
       </c>
       <c r="G116">
         <f t="shared" ca="1" si="6"/>
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -4299,7 +4311,7 @@
       </c>
       <c r="G117">
         <f t="shared" ca="1" si="6"/>
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -4330,7 +4342,7 @@
       </c>
       <c r="G118">
         <f t="shared" ca="1" si="6"/>
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -4361,7 +4373,7 @@
       </c>
       <c r="G119">
         <f t="shared" ca="1" si="6"/>
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -4392,7 +4404,7 @@
       </c>
       <c r="G120">
         <f t="shared" ca="1" si="6"/>
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
@@ -4421,7 +4433,7 @@
       </c>
       <c r="G121">
         <f t="shared" ca="1" si="6"/>
-        <v>-522</v>
+        <v>-523</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
@@ -4452,7 +4464,7 @@
       </c>
       <c r="G122">
         <f t="shared" ca="1" si="6"/>
-        <v>-338</v>
+        <v>-339</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -4483,7 +4495,7 @@
       </c>
       <c r="G123">
         <f t="shared" ca="1" si="6"/>
-        <v>-157</v>
+        <v>-158</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
@@ -4514,7 +4526,7 @@
       </c>
       <c r="G124">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -4545,7 +4557,7 @@
       </c>
       <c r="G125">
         <f t="shared" ca="1" si="6"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
@@ -4576,7 +4588,7 @@
       </c>
       <c r="G126">
         <f t="shared" ca="1" si="6"/>
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
@@ -4607,7 +4619,7 @@
       </c>
       <c r="G127">
         <f t="shared" ca="1" si="6"/>
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
@@ -4638,7 +4650,7 @@
       </c>
       <c r="G128">
         <f t="shared" ca="1" si="6"/>
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -4669,7 +4681,7 @@
       </c>
       <c r="G129">
         <f t="shared" ca="1" si="6"/>
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
@@ -4700,7 +4712,7 @@
       </c>
       <c r="G130">
         <f t="shared" ca="1" si="6"/>
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
@@ -4731,7 +4743,7 @@
       </c>
       <c r="G131">
         <f t="shared" ca="1" si="6"/>
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -4762,7 +4774,7 @@
       </c>
       <c r="G132">
         <f t="shared" ca="1" si="6"/>
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
@@ -4793,7 +4805,7 @@
       </c>
       <c r="G133">
         <f t="shared" ca="1" si="6"/>
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
@@ -4824,7 +4836,7 @@
       </c>
       <c r="G134">
         <f t="shared" ca="1" si="6"/>
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
@@ -4855,7 +4867,7 @@
       </c>
       <c r="G135">
         <f t="shared" ca="1" si="6"/>
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
@@ -4884,7 +4896,7 @@
       </c>
       <c r="G136">
         <f t="shared" ca="1" si="6"/>
-        <v>-467</v>
+        <v>-468</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -4915,7 +4927,7 @@
       </c>
       <c r="G137">
         <f t="shared" ca="1" si="6"/>
-        <v>-286</v>
+        <v>-287</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -4946,7 +4958,7 @@
       </c>
       <c r="G138">
         <f t="shared" ca="1" si="6"/>
-        <v>-102</v>
+        <v>-103</v>
       </c>
       <c r="H138" t="s">
         <v>14</v>
@@ -4977,7 +4989,7 @@
       </c>
       <c r="G139">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H139" t="s">
         <v>14</v>
@@ -5008,7 +5020,7 @@
       </c>
       <c r="G140">
         <f t="shared" ca="1" si="6"/>
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
@@ -5039,7 +5051,7 @@
       </c>
       <c r="G141">
         <f t="shared" ca="1" si="6"/>
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
@@ -5070,7 +5082,7 @@
       </c>
       <c r="G142">
         <f t="shared" ca="1" si="6"/>
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H142" t="s">
         <v>14</v>
@@ -5101,7 +5113,7 @@
       </c>
       <c r="G143">
         <f t="shared" ca="1" si="6"/>
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
@@ -5132,7 +5144,7 @@
       </c>
       <c r="G144">
         <f t="shared" ca="1" si="6"/>
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
@@ -5163,7 +5175,7 @@
       </c>
       <c r="G145">
         <f t="shared" ca="1" si="6"/>
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -5194,7 +5206,7 @@
       </c>
       <c r="G146">
         <f t="shared" ca="1" si="6"/>
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -5225,7 +5237,7 @@
       </c>
       <c r="G147">
         <f t="shared" ca="1" si="6"/>
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -5256,7 +5268,7 @@
       </c>
       <c r="G148">
         <f t="shared" ca="1" si="6"/>
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
@@ -5287,7 +5299,7 @@
       </c>
       <c r="G149">
         <f t="shared" ca="1" si="6"/>
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -5318,7 +5330,7 @@
       </c>
       <c r="G150">
         <f t="shared" ca="1" si="6"/>
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -5347,7 +5359,7 @@
       </c>
       <c r="G151">
         <f t="shared" ca="1" si="6"/>
-        <v>-601</v>
+        <v>-602</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -5378,7 +5390,7 @@
       </c>
       <c r="G152">
         <f t="shared" ca="1" si="6"/>
-        <v>-418</v>
+        <v>-419</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
@@ -5409,7 +5421,7 @@
       </c>
       <c r="G153">
         <f t="shared" ca="1" si="6"/>
-        <v>-236</v>
+        <v>-237</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
@@ -5440,7 +5452,7 @@
       </c>
       <c r="G154">
         <f t="shared" ca="1" si="6"/>
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -5471,7 +5483,7 @@
       </c>
       <c r="G155">
         <f t="shared" ca="1" si="6"/>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -5502,7 +5514,7 @@
       </c>
       <c r="G156">
         <f t="shared" ca="1" si="6"/>
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -5533,7 +5545,7 @@
       </c>
       <c r="G157">
         <f t="shared" ca="1" si="6"/>
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -5564,7 +5576,7 @@
       </c>
       <c r="G158">
         <f t="shared" ca="1" si="6"/>
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
@@ -5595,7 +5607,7 @@
       </c>
       <c r="G159">
         <f t="shared" ca="1" si="6"/>
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H159" t="s">
         <v>14</v>
@@ -5626,7 +5638,7 @@
       </c>
       <c r="G160">
         <f t="shared" ca="1" si="6"/>
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
@@ -5657,7 +5669,7 @@
       </c>
       <c r="G161">
         <f t="shared" ca="1" si="6"/>
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
@@ -5688,7 +5700,7 @@
       </c>
       <c r="G162">
         <f t="shared" ca="1" si="6"/>
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
@@ -5719,7 +5731,7 @@
       </c>
       <c r="G163">
         <f t="shared" ca="1" si="6"/>
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -5750,7 +5762,7 @@
       </c>
       <c r="G164">
         <f t="shared" ca="1" si="6"/>
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
@@ -5781,7 +5793,7 @@
       </c>
       <c r="G165">
         <f t="shared" ca="1" si="6"/>
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
@@ -5812,7 +5824,7 @@
       </c>
       <c r="G166">
         <f t="shared" ca="1" si="6"/>
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
@@ -5843,7 +5855,7 @@
       </c>
       <c r="G167">
         <f t="shared" ca="1" si="6"/>
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
@@ -5872,7 +5884,7 @@
       </c>
       <c r="G168">
         <f t="shared" ca="1" si="6"/>
-        <v>-34</v>
+        <v>-35</v>
       </c>
       <c r="H168" t="s">
         <v>14</v>
@@ -5903,7 +5915,7 @@
       </c>
       <c r="G169">
         <f t="shared" ca="1" si="6"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H169" t="s">
         <v>14</v>
@@ -5934,7 +5946,7 @@
       </c>
       <c r="G170">
         <f t="shared" ref="G170:G233" ca="1" si="8">B170-$Q$1</f>
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H170" t="s">
         <v>14</v>
@@ -5965,7 +5977,7 @@
       </c>
       <c r="G171">
         <f t="shared" ca="1" si="8"/>
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -5996,7 +6008,7 @@
       </c>
       <c r="G172">
         <f t="shared" ca="1" si="8"/>
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
@@ -6027,7 +6039,7 @@
       </c>
       <c r="G173">
         <f t="shared" ca="1" si="8"/>
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
@@ -6058,7 +6070,7 @@
       </c>
       <c r="G174">
         <f t="shared" ca="1" si="8"/>
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
@@ -6089,7 +6101,7 @@
       </c>
       <c r="G175">
         <f t="shared" ca="1" si="8"/>
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -6120,7 +6132,7 @@
       </c>
       <c r="G176">
         <f t="shared" ca="1" si="8"/>
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H176" t="s">
         <v>14</v>
@@ -6151,7 +6163,7 @@
       </c>
       <c r="G177">
         <f t="shared" ca="1" si="8"/>
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H177" t="s">
         <v>14</v>
@@ -6182,7 +6194,7 @@
       </c>
       <c r="G178">
         <f t="shared" ca="1" si="8"/>
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
@@ -6213,7 +6225,7 @@
       </c>
       <c r="G179">
         <f t="shared" ca="1" si="8"/>
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H179" t="s">
         <v>14</v>
@@ -6242,7 +6254,7 @@
       </c>
       <c r="G180">
         <f t="shared" ca="1" si="8"/>
-        <v>-468</v>
+        <v>-469</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -6273,7 +6285,7 @@
       </c>
       <c r="G181">
         <f t="shared" ca="1" si="8"/>
-        <v>-287</v>
+        <v>-288</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
@@ -6304,7 +6316,7 @@
       </c>
       <c r="G182">
         <f t="shared" ca="1" si="8"/>
-        <v>-103</v>
+        <v>-104</v>
       </c>
       <c r="H182" t="s">
         <v>14</v>
@@ -6335,7 +6347,7 @@
       </c>
       <c r="G183">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
@@ -6366,7 +6378,7 @@
       </c>
       <c r="G184">
         <f t="shared" ca="1" si="8"/>
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H184" t="s">
         <v>14</v>
@@ -6397,7 +6409,7 @@
       </c>
       <c r="G185">
         <f t="shared" ca="1" si="8"/>
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
@@ -6428,7 +6440,7 @@
       </c>
       <c r="G186">
         <f t="shared" ca="1" si="8"/>
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
@@ -6459,7 +6471,7 @@
       </c>
       <c r="G187">
         <f t="shared" ca="1" si="8"/>
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H187" t="s">
         <v>14</v>
@@ -6490,7 +6502,7 @@
       </c>
       <c r="G188">
         <f t="shared" ca="1" si="8"/>
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
@@ -6521,7 +6533,7 @@
       </c>
       <c r="G189">
         <f t="shared" ca="1" si="8"/>
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H189" t="s">
         <v>14</v>
@@ -6552,7 +6564,7 @@
       </c>
       <c r="G190">
         <f t="shared" ca="1" si="8"/>
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="H190" t="s">
         <v>14</v>
@@ -6583,7 +6595,7 @@
       </c>
       <c r="G191">
         <f t="shared" ca="1" si="8"/>
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H191" t="s">
         <v>14</v>
@@ -6614,7 +6626,7 @@
       </c>
       <c r="G192">
         <f t="shared" ca="1" si="8"/>
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H192" t="s">
         <v>14</v>
@@ -6645,7 +6657,7 @@
       </c>
       <c r="G193">
         <f t="shared" ca="1" si="8"/>
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H193" t="s">
         <v>14</v>
@@ -6676,7 +6688,7 @@
       </c>
       <c r="G194">
         <f t="shared" ca="1" si="8"/>
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="H194" t="s">
         <v>14</v>
@@ -6705,7 +6717,7 @@
       </c>
       <c r="G195">
         <f t="shared" ca="1" si="8"/>
-        <v>-206</v>
+        <v>-207</v>
       </c>
       <c r="H195" t="s">
         <v>14</v>
@@ -6736,7 +6748,7 @@
       </c>
       <c r="G196">
         <f t="shared" ca="1" si="8"/>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="H196" t="s">
         <v>14</v>
@@ -6767,7 +6779,7 @@
       </c>
       <c r="G197">
         <f t="shared" ca="1" si="8"/>
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H197" t="s">
         <v>14</v>
@@ -6798,7 +6810,7 @@
       </c>
       <c r="G198">
         <f t="shared" ca="1" si="8"/>
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H198" t="s">
         <v>14</v>
@@ -6829,7 +6841,7 @@
       </c>
       <c r="G199">
         <f t="shared" ca="1" si="8"/>
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H199" t="s">
         <v>14</v>
@@ -6860,7 +6872,7 @@
       </c>
       <c r="G200">
         <f t="shared" ca="1" si="8"/>
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H200" t="s">
         <v>14</v>
@@ -6891,7 +6903,7 @@
       </c>
       <c r="G201">
         <f t="shared" ca="1" si="8"/>
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H201" t="s">
         <v>14</v>
@@ -6922,7 +6934,7 @@
       </c>
       <c r="G202">
         <f t="shared" ca="1" si="8"/>
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H202" t="s">
         <v>14</v>
@@ -6953,7 +6965,7 @@
       </c>
       <c r="G203">
         <f t="shared" ca="1" si="8"/>
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H203" t="s">
         <v>14</v>
@@ -6984,7 +6996,7 @@
       </c>
       <c r="G204">
         <f t="shared" ca="1" si="8"/>
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H204" t="s">
         <v>14</v>
@@ -7015,7 +7027,7 @@
       </c>
       <c r="G205">
         <f t="shared" ca="1" si="8"/>
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H205" t="s">
         <v>14</v>
@@ -7046,7 +7058,7 @@
       </c>
       <c r="G206">
         <f t="shared" ca="1" si="8"/>
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
@@ -7077,7 +7089,7 @@
       </c>
       <c r="G207">
         <f t="shared" ca="1" si="8"/>
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="H207" t="s">
         <v>14</v>
@@ -7108,7 +7120,7 @@
       </c>
       <c r="G208">
         <f t="shared" ca="1" si="8"/>
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="H208" t="s">
         <v>14</v>
@@ -7139,7 +7151,7 @@
       </c>
       <c r="G209">
         <f t="shared" ca="1" si="8"/>
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="H209" t="s">
         <v>14</v>
@@ -7166,7 +7178,7 @@
       </c>
       <c r="G210">
         <f t="shared" ca="1" si="8"/>
-        <v>-1774</v>
+        <v>-1775</v>
       </c>
       <c r="H210" t="s">
         <v>14</v>
@@ -7195,7 +7207,7 @@
       </c>
       <c r="G211">
         <f t="shared" ca="1" si="8"/>
-        <v>-1544</v>
+        <v>-1545</v>
       </c>
       <c r="H211" t="s">
         <v>14</v>
@@ -7224,7 +7236,7 @@
       </c>
       <c r="G212">
         <f t="shared" ca="1" si="8"/>
-        <v>-1363</v>
+        <v>-1364</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
@@ -7253,7 +7265,7 @@
       </c>
       <c r="G213">
         <f t="shared" ca="1" si="8"/>
-        <v>-1179</v>
+        <v>-1180</v>
       </c>
       <c r="H213" t="s">
         <v>14</v>
@@ -7282,7 +7294,7 @@
       </c>
       <c r="G214">
         <f t="shared" ca="1" si="8"/>
-        <v>-998</v>
+        <v>-999</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
@@ -7311,7 +7323,7 @@
       </c>
       <c r="G215">
         <f t="shared" ca="1" si="8"/>
-        <v>-814</v>
+        <v>-815</v>
       </c>
       <c r="H215" t="s">
         <v>14</v>
@@ -7340,7 +7352,7 @@
       </c>
       <c r="G216">
         <f t="shared" ca="1" si="8"/>
-        <v>-632</v>
+        <v>-633</v>
       </c>
       <c r="H216" t="s">
         <v>14</v>
@@ -7369,7 +7381,7 @@
       </c>
       <c r="G217">
         <f t="shared" ca="1" si="8"/>
-        <v>-448</v>
+        <v>-449</v>
       </c>
       <c r="H217" t="s">
         <v>14</v>
@@ -7398,7 +7410,7 @@
       </c>
       <c r="G218">
         <f t="shared" ca="1" si="8"/>
-        <v>-267</v>
+        <v>-268</v>
       </c>
       <c r="H218" t="s">
         <v>14</v>
@@ -7427,7 +7439,7 @@
       </c>
       <c r="G219">
         <f t="shared" ca="1" si="8"/>
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="H219" t="s">
         <v>14</v>
@@ -7456,7 +7468,7 @@
       </c>
       <c r="G220">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -7485,7 +7497,7 @@
       </c>
       <c r="G221">
         <f t="shared" ca="1" si="8"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H221" t="s">
         <v>14</v>
@@ -7514,7 +7526,7 @@
       </c>
       <c r="G222">
         <f t="shared" ca="1" si="8"/>
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H222" t="s">
         <v>14</v>
@@ -7543,7 +7555,7 @@
       </c>
       <c r="G223">
         <f t="shared" ca="1" si="8"/>
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H223" t="s">
         <v>14</v>
@@ -7572,7 +7584,7 @@
       </c>
       <c r="G224">
         <f t="shared" ca="1" si="8"/>
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H224" t="s">
         <v>14</v>
@@ -7601,7 +7613,7 @@
       </c>
       <c r="G225">
         <f t="shared" ca="1" si="8"/>
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
@@ -7630,7 +7642,7 @@
       </c>
       <c r="G226">
         <f t="shared" ca="1" si="8"/>
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H226" t="s">
         <v>14</v>
@@ -7659,7 +7671,7 @@
       </c>
       <c r="G227">
         <f t="shared" ca="1" si="8"/>
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H227" t="s">
         <v>14</v>
@@ -7688,7 +7700,7 @@
       </c>
       <c r="G228">
         <f t="shared" ca="1" si="8"/>
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H228" t="s">
         <v>14</v>
@@ -7719,7 +7731,7 @@
       </c>
       <c r="G229">
         <f t="shared" ca="1" si="8"/>
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H229" t="s">
         <v>14</v>
@@ -7748,7 +7760,7 @@
       </c>
       <c r="G230">
         <f t="shared" ca="1" si="8"/>
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H230" t="s">
         <v>14</v>
@@ -7779,7 +7791,7 @@
       </c>
       <c r="G231">
         <f t="shared" ca="1" si="8"/>
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
@@ -7808,7 +7820,7 @@
       </c>
       <c r="G232">
         <f t="shared" ca="1" si="8"/>
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="H232" t="s">
         <v>14</v>
@@ -7839,7 +7851,7 @@
       </c>
       <c r="G233">
         <f t="shared" ca="1" si="8"/>
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="H233" t="s">
         <v>14</v>
@@ -7868,7 +7880,7 @@
       </c>
       <c r="G234">
         <f t="shared" ref="G234:G297" ca="1" si="10">B234-$Q$1</f>
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="H234" t="s">
         <v>14</v>
@@ -7899,7 +7911,7 @@
       </c>
       <c r="G235">
         <f t="shared" ca="1" si="10"/>
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
@@ -7928,7 +7940,7 @@
       </c>
       <c r="G236">
         <f t="shared" ca="1" si="10"/>
-        <v>-195</v>
+        <v>-196</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
@@ -7959,7 +7971,7 @@
       </c>
       <c r="G237">
         <f t="shared" ca="1" si="10"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="H237" t="s">
         <v>14</v>
@@ -7990,7 +8002,7 @@
       </c>
       <c r="G238">
         <f t="shared" ca="1" si="10"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H238" t="s">
         <v>14</v>
@@ -8021,7 +8033,7 @@
       </c>
       <c r="G239">
         <f t="shared" ca="1" si="10"/>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H239" t="s">
         <v>14</v>
@@ -8052,7 +8064,7 @@
       </c>
       <c r="G240">
         <f t="shared" ca="1" si="10"/>
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H240" t="s">
         <v>14</v>
@@ -8083,7 +8095,7 @@
       </c>
       <c r="G241">
         <f t="shared" ca="1" si="10"/>
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
@@ -8114,7 +8126,7 @@
       </c>
       <c r="G242">
         <f t="shared" ca="1" si="10"/>
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H242" t="s">
         <v>14</v>
@@ -8145,7 +8157,7 @@
       </c>
       <c r="G243">
         <f t="shared" ca="1" si="10"/>
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H243" t="s">
         <v>14</v>
@@ -8176,7 +8188,7 @@
       </c>
       <c r="G244">
         <f t="shared" ca="1" si="10"/>
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H244" t="s">
         <v>14</v>
@@ -8207,7 +8219,7 @@
       </c>
       <c r="G245">
         <f t="shared" ca="1" si="10"/>
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H245" t="s">
         <v>14</v>
@@ -8238,7 +8250,7 @@
       </c>
       <c r="G246">
         <f t="shared" ca="1" si="10"/>
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H246" t="s">
         <v>14</v>
@@ -8269,7 +8281,7 @@
       </c>
       <c r="G247">
         <f t="shared" ca="1" si="10"/>
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H247" t="s">
         <v>14</v>
@@ -8300,7 +8312,7 @@
       </c>
       <c r="G248">
         <f t="shared" ca="1" si="10"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H248" t="s">
         <v>14</v>
@@ -8331,7 +8343,7 @@
       </c>
       <c r="G249">
         <f t="shared" ca="1" si="10"/>
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="H249" t="s">
         <v>14</v>
@@ -8362,7 +8374,7 @@
       </c>
       <c r="G250">
         <f t="shared" ca="1" si="10"/>
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="H250" t="s">
         <v>14</v>
@@ -8393,7 +8405,7 @@
       </c>
       <c r="G251">
         <f t="shared" ca="1" si="10"/>
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="H251" t="s">
         <v>14</v>
@@ -8424,7 +8436,7 @@
       </c>
       <c r="G252">
         <f t="shared" ca="1" si="10"/>
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="H252" t="s">
         <v>14</v>
@@ -8453,7 +8465,7 @@
       </c>
       <c r="G253">
         <f t="shared" ca="1" si="10"/>
-        <v>-144</v>
+        <v>-145</v>
       </c>
       <c r="H253" t="s">
         <v>14</v>
@@ -8484,7 +8496,7 @@
       </c>
       <c r="G254">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H254" t="s">
         <v>14</v>
@@ -8515,7 +8527,7 @@
       </c>
       <c r="G255">
         <f t="shared" ca="1" si="10"/>
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H255" t="s">
         <v>14</v>
@@ -8546,7 +8558,7 @@
       </c>
       <c r="G256">
         <f t="shared" ca="1" si="10"/>
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H256" t="s">
         <v>14</v>
@@ -8577,7 +8589,7 @@
       </c>
       <c r="G257">
         <f t="shared" ca="1" si="10"/>
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H257" t="s">
         <v>14</v>
@@ -8608,7 +8620,7 @@
       </c>
       <c r="G258">
         <f t="shared" ca="1" si="10"/>
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H258" t="s">
         <v>14</v>
@@ -8639,7 +8651,7 @@
       </c>
       <c r="G259">
         <f t="shared" ca="1" si="10"/>
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H259" t="s">
         <v>14</v>
@@ -8670,7 +8682,7 @@
       </c>
       <c r="G260">
         <f t="shared" ca="1" si="10"/>
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H260" t="s">
         <v>14</v>
@@ -8701,7 +8713,7 @@
       </c>
       <c r="G261">
         <f t="shared" ca="1" si="10"/>
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="H261" t="s">
         <v>14</v>
@@ -8732,7 +8744,7 @@
       </c>
       <c r="G262">
         <f t="shared" ca="1" si="10"/>
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H262" t="s">
         <v>14</v>
@@ -8763,7 +8775,7 @@
       </c>
       <c r="G263">
         <f t="shared" ca="1" si="10"/>
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="H263" t="s">
         <v>14</v>
@@ -8794,7 +8806,7 @@
       </c>
       <c r="G264">
         <f t="shared" ca="1" si="10"/>
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H264" t="s">
         <v>14</v>
@@ -8825,7 +8837,7 @@
       </c>
       <c r="G265">
         <f t="shared" ca="1" si="10"/>
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H265" t="s">
         <v>14</v>
@@ -8856,7 +8868,7 @@
       </c>
       <c r="G266">
         <f t="shared" ca="1" si="10"/>
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H266" t="s">
         <v>14</v>
@@ -8887,7 +8899,7 @@
       </c>
       <c r="G267">
         <f t="shared" ca="1" si="10"/>
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="H267" t="s">
         <v>14</v>
@@ -8918,7 +8930,7 @@
       </c>
       <c r="G268">
         <f t="shared" ca="1" si="10"/>
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="H268" t="s">
         <v>14</v>
@@ -8949,7 +8961,7 @@
       </c>
       <c r="G269">
         <f t="shared" ca="1" si="10"/>
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="H269" t="s">
         <v>14</v>
@@ -8978,7 +8990,7 @@
       </c>
       <c r="G270">
         <f t="shared" ca="1" si="10"/>
-        <v>-209</v>
+        <v>-210</v>
       </c>
       <c r="H270" t="s">
         <v>14</v>
@@ -9009,7 +9021,7 @@
       </c>
       <c r="G271">
         <f t="shared" ca="1" si="10"/>
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="H271" t="s">
         <v>14</v>
@@ -9040,7 +9052,7 @@
       </c>
       <c r="G272">
         <f t="shared" ca="1" si="10"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H272" t="s">
         <v>14</v>
@@ -9071,7 +9083,7 @@
       </c>
       <c r="G273">
         <f t="shared" ca="1" si="10"/>
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H273" t="s">
         <v>14</v>
@@ -9102,7 +9114,7 @@
       </c>
       <c r="G274">
         <f t="shared" ca="1" si="10"/>
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H274" t="s">
         <v>14</v>
@@ -9133,7 +9145,7 @@
       </c>
       <c r="G275">
         <f t="shared" ca="1" si="10"/>
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H275" t="s">
         <v>14</v>
@@ -9164,7 +9176,7 @@
       </c>
       <c r="G276">
         <f t="shared" ca="1" si="10"/>
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H276" t="s">
         <v>14</v>
@@ -9195,7 +9207,7 @@
       </c>
       <c r="G277">
         <f t="shared" ca="1" si="10"/>
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H277" t="s">
         <v>14</v>
@@ -9226,7 +9238,7 @@
       </c>
       <c r="G278">
         <f t="shared" ca="1" si="10"/>
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H278" t="s">
         <v>14</v>
@@ -9257,7 +9269,7 @@
       </c>
       <c r="G279">
         <f t="shared" ca="1" si="10"/>
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="H279" t="s">
         <v>14</v>
@@ -9288,7 +9300,7 @@
       </c>
       <c r="G280">
         <f t="shared" ca="1" si="10"/>
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H280" t="s">
         <v>14</v>
@@ -9319,7 +9331,7 @@
       </c>
       <c r="G281">
         <f t="shared" ca="1" si="10"/>
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H281" t="s">
         <v>14</v>
@@ -9350,7 +9362,7 @@
       </c>
       <c r="G282">
         <f t="shared" ca="1" si="10"/>
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="H282" t="s">
         <v>14</v>
@@ -9381,7 +9393,7 @@
       </c>
       <c r="G283">
         <f t="shared" ca="1" si="10"/>
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="H283" t="s">
         <v>14</v>
@@ -9412,7 +9424,7 @@
       </c>
       <c r="G284">
         <f t="shared" ca="1" si="10"/>
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="H284" t="s">
         <v>14</v>
@@ -9443,7 +9455,7 @@
       </c>
       <c r="G285">
         <f t="shared" ca="1" si="10"/>
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="H285" t="s">
         <v>14</v>
@@ -9474,7 +9486,7 @@
       </c>
       <c r="G286">
         <f t="shared" ca="1" si="10"/>
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="H286" t="s">
         <v>14</v>
@@ -9503,7 +9515,7 @@
       </c>
       <c r="G287">
         <f t="shared" ca="1" si="10"/>
-        <v>-339</v>
+        <v>-340</v>
       </c>
       <c r="H287" t="s">
         <v>14</v>
@@ -9534,7 +9546,7 @@
       </c>
       <c r="G288">
         <f t="shared" ca="1" si="10"/>
-        <v>-158</v>
+        <v>-159</v>
       </c>
       <c r="H288" t="s">
         <v>14</v>
@@ -9565,7 +9577,7 @@
       </c>
       <c r="G289">
         <f t="shared" ca="1" si="10"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H289" t="s">
         <v>14</v>
@@ -9596,7 +9608,7 @@
       </c>
       <c r="G290">
         <f t="shared" ca="1" si="10"/>
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H290" t="s">
         <v>14</v>
@@ -9627,7 +9639,7 @@
       </c>
       <c r="G291">
         <f t="shared" ca="1" si="10"/>
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H291" t="s">
         <v>14</v>
@@ -9658,7 +9670,7 @@
       </c>
       <c r="G292">
         <f t="shared" ca="1" si="10"/>
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H292" t="s">
         <v>14</v>
@@ -9689,7 +9701,7 @@
       </c>
       <c r="G293">
         <f t="shared" ca="1" si="10"/>
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H293" t="s">
         <v>14</v>
@@ -9720,7 +9732,7 @@
       </c>
       <c r="G294">
         <f t="shared" ca="1" si="10"/>
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H294" t="s">
         <v>14</v>
@@ -9751,7 +9763,7 @@
       </c>
       <c r="G295">
         <f t="shared" ca="1" si="10"/>
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H295" t="s">
         <v>14</v>
@@ -9782,7 +9794,7 @@
       </c>
       <c r="G296">
         <f t="shared" ca="1" si="10"/>
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H296" t="s">
         <v>14</v>
@@ -9813,7 +9825,7 @@
       </c>
       <c r="G297">
         <f t="shared" ca="1" si="10"/>
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H297" t="s">
         <v>14</v>
@@ -9844,7 +9856,7 @@
       </c>
       <c r="G298">
         <f t="shared" ref="G298:G361" ca="1" si="12">B298-$Q$1</f>
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="H298" t="s">
         <v>14</v>
@@ -9875,7 +9887,7 @@
       </c>
       <c r="G299">
         <f t="shared" ca="1" si="12"/>
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="H299" t="s">
         <v>14</v>
@@ -9906,7 +9918,7 @@
       </c>
       <c r="G300">
         <f t="shared" ca="1" si="12"/>
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="H300" t="s">
         <v>14</v>
@@ -9937,7 +9949,7 @@
       </c>
       <c r="G301">
         <f t="shared" ca="1" si="12"/>
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="H301" t="s">
         <v>14</v>
@@ -9968,7 +9980,7 @@
       </c>
       <c r="G302">
         <f t="shared" ca="1" si="12"/>
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="H302" t="s">
         <v>14</v>
@@ -9999,7 +10011,7 @@
       </c>
       <c r="G303">
         <f t="shared" ca="1" si="12"/>
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="H303" t="s">
         <v>14</v>
@@ -10030,7 +10042,7 @@
       </c>
       <c r="G304">
         <f t="shared" ca="1" si="12"/>
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="H304" t="s">
         <v>14</v>
@@ -10061,7 +10073,7 @@
       </c>
       <c r="G305">
         <f t="shared" ca="1" si="12"/>
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="H305" t="s">
         <v>14</v>
@@ -10090,7 +10102,7 @@
       </c>
       <c r="G306">
         <f t="shared" ca="1" si="12"/>
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="H306" t="s">
         <v>14</v>
@@ -10121,7 +10133,7 @@
       </c>
       <c r="G307">
         <f t="shared" ca="1" si="12"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H307" t="s">
         <v>14</v>
@@ -10152,7 +10164,7 @@
       </c>
       <c r="G308">
         <f t="shared" ca="1" si="12"/>
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H308" t="s">
         <v>14</v>
@@ -10183,7 +10195,7 @@
       </c>
       <c r="G309">
         <f t="shared" ca="1" si="12"/>
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H309" t="s">
         <v>14</v>
@@ -10214,7 +10226,7 @@
       </c>
       <c r="G310">
         <f t="shared" ca="1" si="12"/>
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H310" t="s">
         <v>14</v>
@@ -10245,7 +10257,7 @@
       </c>
       <c r="G311">
         <f t="shared" ca="1" si="12"/>
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H311" t="s">
         <v>14</v>
@@ -10276,7 +10288,7 @@
       </c>
       <c r="G312">
         <f t="shared" ca="1" si="12"/>
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H312" t="s">
         <v>14</v>
@@ -10307,7 +10319,7 @@
       </c>
       <c r="G313">
         <f t="shared" ca="1" si="12"/>
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H313" t="s">
         <v>14</v>
@@ -10338,7 +10350,7 @@
       </c>
       <c r="G314">
         <f t="shared" ca="1" si="12"/>
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="H314" t="s">
         <v>14</v>
@@ -10369,7 +10381,7 @@
       </c>
       <c r="G315">
         <f t="shared" ca="1" si="12"/>
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H315" t="s">
         <v>14</v>
@@ -10400,7 +10412,7 @@
       </c>
       <c r="G316">
         <f t="shared" ca="1" si="12"/>
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H316" t="s">
         <v>14</v>
@@ -10431,7 +10443,7 @@
       </c>
       <c r="G317">
         <f t="shared" ca="1" si="12"/>
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="H317" t="s">
         <v>14</v>
@@ -10462,7 +10474,7 @@
       </c>
       <c r="G318">
         <f t="shared" ca="1" si="12"/>
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="H318" t="s">
         <v>14</v>
@@ -10493,7 +10505,7 @@
       </c>
       <c r="G319">
         <f t="shared" ca="1" si="12"/>
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="H319" t="s">
         <v>14</v>
@@ -10524,7 +10536,7 @@
       </c>
       <c r="G320">
         <f t="shared" ca="1" si="12"/>
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="H320" t="s">
         <v>14</v>
@@ -10555,7 +10567,7 @@
       </c>
       <c r="G321">
         <f t="shared" ca="1" si="12"/>
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="H321" t="s">
         <v>14</v>
@@ -10586,7 +10598,7 @@
       </c>
       <c r="G322">
         <f t="shared" ca="1" si="12"/>
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="H322" t="s">
         <v>14</v>
@@ -10615,7 +10627,7 @@
       </c>
       <c r="G323">
         <f t="shared" ca="1" si="12"/>
-        <v>-266</v>
+        <v>-267</v>
       </c>
       <c r="H323" t="s">
         <v>14</v>
@@ -10646,7 +10658,7 @@
       </c>
       <c r="G324">
         <f t="shared" ca="1" si="12"/>
-        <v>-83</v>
+        <v>-84</v>
       </c>
       <c r="H324" t="s">
         <v>14</v>
@@ -10677,7 +10689,7 @@
       </c>
       <c r="G325">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H325" t="s">
         <v>14</v>
@@ -10708,7 +10720,7 @@
       </c>
       <c r="G326">
         <f t="shared" ca="1" si="12"/>
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H326" t="s">
         <v>14</v>
@@ -10739,7 +10751,7 @@
       </c>
       <c r="G327">
         <f t="shared" ca="1" si="12"/>
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H327" t="s">
         <v>14</v>
@@ -10770,7 +10782,7 @@
       </c>
       <c r="G328">
         <f t="shared" ca="1" si="12"/>
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H328" t="s">
         <v>14</v>
@@ -10801,7 +10813,7 @@
       </c>
       <c r="G329">
         <f t="shared" ca="1" si="12"/>
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H329" t="s">
         <v>14</v>
@@ -10832,7 +10844,7 @@
       </c>
       <c r="G330">
         <f t="shared" ca="1" si="12"/>
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H330" t="s">
         <v>14</v>
@@ -10863,7 +10875,7 @@
       </c>
       <c r="G331">
         <f t="shared" ca="1" si="12"/>
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H331" t="s">
         <v>14</v>
@@ -10894,7 +10906,7 @@
       </c>
       <c r="G332">
         <f t="shared" ca="1" si="12"/>
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H332" t="s">
         <v>14</v>
@@ -10925,7 +10937,7 @@
       </c>
       <c r="G333">
         <f t="shared" ca="1" si="12"/>
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H333" t="s">
         <v>14</v>
@@ -10956,7 +10968,7 @@
       </c>
       <c r="G334">
         <f t="shared" ca="1" si="12"/>
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H334" t="s">
         <v>14</v>
@@ -10987,7 +10999,7 @@
       </c>
       <c r="G335">
         <f t="shared" ca="1" si="12"/>
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H335" t="s">
         <v>14</v>
@@ -11018,7 +11030,7 @@
       </c>
       <c r="G336">
         <f t="shared" ca="1" si="12"/>
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H336" t="s">
         <v>14</v>
@@ -11049,7 +11061,7 @@
       </c>
       <c r="G337">
         <f t="shared" ca="1" si="12"/>
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="H337" t="s">
         <v>14</v>
@@ -11080,7 +11092,7 @@
       </c>
       <c r="G338">
         <f t="shared" ca="1" si="12"/>
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="H338" t="s">
         <v>14</v>
@@ -11111,7 +11123,7 @@
       </c>
       <c r="G339">
         <f t="shared" ca="1" si="12"/>
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="H339" t="s">
         <v>14</v>
@@ -11142,7 +11154,7 @@
       </c>
       <c r="G340">
         <f t="shared" ca="1" si="12"/>
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="H340" t="s">
         <v>14</v>
@@ -11173,7 +11185,7 @@
       </c>
       <c r="G341">
         <f t="shared" ca="1" si="12"/>
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="H341" t="s">
         <v>14</v>
@@ -11204,7 +11216,7 @@
       </c>
       <c r="G342">
         <f t="shared" ca="1" si="12"/>
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="H342" t="s">
         <v>14</v>
@@ -11235,7 +11247,7 @@
       </c>
       <c r="G343">
         <f t="shared" ca="1" si="12"/>
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="H343" t="s">
         <v>14</v>
@@ -11264,7 +11276,7 @@
       </c>
       <c r="G344">
         <f t="shared" ca="1" si="12"/>
-        <v>-371</v>
+        <v>-372</v>
       </c>
       <c r="H344" t="s">
         <v>14</v>
@@ -11295,7 +11307,7 @@
       </c>
       <c r="G345">
         <f t="shared" ca="1" si="12"/>
-        <v>-189</v>
+        <v>-190</v>
       </c>
       <c r="H345" t="s">
         <v>14</v>
@@ -11326,7 +11338,7 @@
       </c>
       <c r="G346">
         <f t="shared" ca="1" si="12"/>
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H346" t="s">
         <v>14</v>
@@ -11357,7 +11369,7 @@
       </c>
       <c r="G347">
         <f t="shared" ca="1" si="12"/>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H347" t="s">
         <v>14</v>
@@ -11388,7 +11400,7 @@
       </c>
       <c r="G348">
         <f t="shared" ca="1" si="12"/>
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H348" t="s">
         <v>14</v>
@@ -11419,7 +11431,7 @@
       </c>
       <c r="G349">
         <f t="shared" ca="1" si="12"/>
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H349" t="s">
         <v>14</v>
@@ -11450,7 +11462,7 @@
       </c>
       <c r="G350">
         <f t="shared" ca="1" si="12"/>
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H350" t="s">
         <v>14</v>
@@ -11481,7 +11493,7 @@
       </c>
       <c r="G351">
         <f t="shared" ca="1" si="12"/>
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H351" t="s">
         <v>14</v>
@@ -11512,7 +11524,7 @@
       </c>
       <c r="G352">
         <f t="shared" ca="1" si="12"/>
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H352" t="s">
         <v>14</v>
@@ -11543,7 +11555,7 @@
       </c>
       <c r="G353">
         <f t="shared" ca="1" si="12"/>
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H353" t="s">
         <v>14</v>
@@ -11574,7 +11586,7 @@
       </c>
       <c r="G354">
         <f t="shared" ca="1" si="12"/>
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H354" t="s">
         <v>14</v>
@@ -11605,7 +11617,7 @@
       </c>
       <c r="G355">
         <f t="shared" ca="1" si="12"/>
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="H355" t="s">
         <v>14</v>
@@ -11636,7 +11648,7 @@
       </c>
       <c r="G356">
         <f t="shared" ca="1" si="12"/>
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H356" t="s">
         <v>14</v>
@@ -11667,7 +11679,7 @@
       </c>
       <c r="G357">
         <f t="shared" ca="1" si="12"/>
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="H357" t="s">
         <v>14</v>
@@ -11698,7 +11710,7 @@
       </c>
       <c r="G358">
         <f t="shared" ca="1" si="12"/>
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="H358" t="s">
         <v>14</v>
@@ -11729,7 +11741,7 @@
       </c>
       <c r="G359">
         <f t="shared" ca="1" si="12"/>
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="H359" t="s">
         <v>14</v>
@@ -11760,7 +11772,7 @@
       </c>
       <c r="G360">
         <f t="shared" ca="1" si="12"/>
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="H360" t="s">
         <v>14</v>
@@ -11791,7 +11803,7 @@
       </c>
       <c r="G361">
         <f t="shared" ca="1" si="12"/>
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="H361" t="s">
         <v>14</v>
@@ -11821,8 +11833,8 @@
         <v>7.8750000000000001E-2</v>
       </c>
       <c r="G362">
-        <f t="shared" ref="G362:G408" ca="1" si="14">B362-$Q$1</f>
-        <v>2916</v>
+        <f t="shared" ref="G362:G425" ca="1" si="14">B362-$Q$1</f>
+        <v>2915</v>
       </c>
       <c r="H362" t="s">
         <v>14</v>
@@ -11845,7 +11857,7 @@
         <v>3.94</v>
       </c>
       <c r="E363" s="7">
-        <f t="shared" ref="E363:E408" si="15">C363+D363</f>
+        <f t="shared" ref="E363:E426" si="15">C363+D363</f>
         <v>3.94</v>
       </c>
       <c r="F363" s="14">
@@ -11853,7 +11865,7 @@
       </c>
       <c r="G363">
         <f t="shared" ca="1" si="14"/>
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="H363" t="s">
         <v>14</v>
@@ -11884,7 +11896,7 @@
       </c>
       <c r="G364">
         <f t="shared" ca="1" si="14"/>
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="H364" t="s">
         <v>14</v>
@@ -11913,7 +11925,7 @@
       </c>
       <c r="G365">
         <f t="shared" ca="1" si="14"/>
-        <v>-377</v>
+        <v>-378</v>
       </c>
       <c r="H365" t="s">
         <v>14</v>
@@ -11944,7 +11956,7 @@
       </c>
       <c r="G366">
         <f t="shared" ca="1" si="14"/>
-        <v>-195</v>
+        <v>-196</v>
       </c>
       <c r="H366" t="s">
         <v>14</v>
@@ -11975,7 +11987,7 @@
       </c>
       <c r="G367">
         <f t="shared" ca="1" si="14"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="H367" t="s">
         <v>14</v>
@@ -12006,7 +12018,7 @@
       </c>
       <c r="G368">
         <f t="shared" ca="1" si="14"/>
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H368" t="s">
         <v>14</v>
@@ -12037,7 +12049,7 @@
       </c>
       <c r="G369">
         <f t="shared" ca="1" si="14"/>
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H369" t="s">
         <v>14</v>
@@ -12068,7 +12080,7 @@
       </c>
       <c r="G370">
         <f t="shared" ca="1" si="14"/>
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H370" t="s">
         <v>14</v>
@@ -12099,7 +12111,7 @@
       </c>
       <c r="G371">
         <f t="shared" ca="1" si="14"/>
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H371" t="s">
         <v>14</v>
@@ -12130,7 +12142,7 @@
       </c>
       <c r="G372">
         <f t="shared" ca="1" si="14"/>
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H372" t="s">
         <v>14</v>
@@ -12161,7 +12173,7 @@
       </c>
       <c r="G373">
         <f t="shared" ca="1" si="14"/>
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H373" t="s">
         <v>14</v>
@@ -12192,7 +12204,7 @@
       </c>
       <c r="G374">
         <f t="shared" ca="1" si="14"/>
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H374" t="s">
         <v>14</v>
@@ -12223,7 +12235,7 @@
       </c>
       <c r="G375">
         <f t="shared" ca="1" si="14"/>
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H375" t="s">
         <v>14</v>
@@ -12254,7 +12266,7 @@
       </c>
       <c r="G376">
         <f t="shared" ca="1" si="14"/>
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H376" t="s">
         <v>14</v>
@@ -12285,7 +12297,7 @@
       </c>
       <c r="G377">
         <f t="shared" ca="1" si="14"/>
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H377" t="s">
         <v>14</v>
@@ -12316,7 +12328,7 @@
       </c>
       <c r="G378">
         <f t="shared" ca="1" si="14"/>
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H378" t="s">
         <v>14</v>
@@ -12347,7 +12359,7 @@
       </c>
       <c r="G379">
         <f t="shared" ca="1" si="14"/>
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="H379" t="s">
         <v>14</v>
@@ -12378,7 +12390,7 @@
       </c>
       <c r="G380">
         <f t="shared" ca="1" si="14"/>
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="H380" t="s">
         <v>14</v>
@@ -12409,7 +12421,7 @@
       </c>
       <c r="G381">
         <f t="shared" ca="1" si="14"/>
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="H381" t="s">
         <v>14</v>
@@ -12440,7 +12452,7 @@
       </c>
       <c r="G382">
         <f t="shared" ca="1" si="14"/>
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="H382" t="s">
         <v>14</v>
@@ -12471,7 +12483,7 @@
       </c>
       <c r="G383">
         <f t="shared" ca="1" si="14"/>
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="H383" t="s">
         <v>14</v>
@@ -12502,7 +12514,7 @@
       </c>
       <c r="G384">
         <f t="shared" ca="1" si="14"/>
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="H384" t="s">
         <v>14</v>
@@ -12533,7 +12545,7 @@
       </c>
       <c r="G385">
         <f t="shared" ca="1" si="14"/>
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="H385" t="s">
         <v>14</v>
@@ -12564,7 +12576,7 @@
       </c>
       <c r="G386">
         <f t="shared" ca="1" si="14"/>
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="H386" t="s">
         <v>14</v>
@@ -12595,7 +12607,7 @@
       </c>
       <c r="G387">
         <f t="shared" ca="1" si="14"/>
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="H387" t="s">
         <v>14</v>
@@ -12624,7 +12636,7 @@
       </c>
       <c r="G388">
         <f t="shared" ca="1" si="14"/>
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="H388" t="s">
         <v>14</v>
@@ -12655,7 +12667,7 @@
       </c>
       <c r="G389">
         <f t="shared" ca="1" si="14"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H389" t="s">
         <v>14</v>
@@ -12686,7 +12698,7 @@
       </c>
       <c r="G390">
         <f t="shared" ca="1" si="14"/>
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H390" t="s">
         <v>14</v>
@@ -12717,7 +12729,7 @@
       </c>
       <c r="G391">
         <f t="shared" ca="1" si="14"/>
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H391" t="s">
         <v>14</v>
@@ -12748,7 +12760,7 @@
       </c>
       <c r="G392">
         <f t="shared" ca="1" si="14"/>
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H392" t="s">
         <v>14</v>
@@ -12779,7 +12791,7 @@
       </c>
       <c r="G393">
         <f t="shared" ca="1" si="14"/>
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H393" t="s">
         <v>14</v>
@@ -12810,7 +12822,7 @@
       </c>
       <c r="G394">
         <f t="shared" ca="1" si="14"/>
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H394" t="s">
         <v>14</v>
@@ -12841,7 +12853,7 @@
       </c>
       <c r="G395">
         <f t="shared" ca="1" si="14"/>
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="H395" t="s">
         <v>14</v>
@@ -12872,7 +12884,7 @@
       </c>
       <c r="G396">
         <f t="shared" ca="1" si="14"/>
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H396" t="s">
         <v>14</v>
@@ -12903,7 +12915,7 @@
       </c>
       <c r="G397">
         <f t="shared" ca="1" si="14"/>
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H397" t="s">
         <v>14</v>
@@ -12934,7 +12946,7 @@
       </c>
       <c r="G398">
         <f t="shared" ca="1" si="14"/>
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H398" t="s">
         <v>14</v>
@@ -12965,7 +12977,7 @@
       </c>
       <c r="G399">
         <f t="shared" ca="1" si="14"/>
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="H399" t="s">
         <v>14</v>
@@ -12996,7 +13008,7 @@
       </c>
       <c r="G400">
         <f t="shared" ca="1" si="14"/>
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="H400" t="s">
         <v>14</v>
@@ -13027,7 +13039,7 @@
       </c>
       <c r="G401">
         <f t="shared" ca="1" si="14"/>
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="H401" t="s">
         <v>14</v>
@@ -13058,7 +13070,7 @@
       </c>
       <c r="G402">
         <f t="shared" ca="1" si="14"/>
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="H402" t="s">
         <v>14</v>
@@ -13089,7 +13101,7 @@
       </c>
       <c r="G403">
         <f t="shared" ca="1" si="14"/>
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="H403" t="s">
         <v>14</v>
@@ -13120,7 +13132,7 @@
       </c>
       <c r="G404">
         <f t="shared" ca="1" si="14"/>
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="H404" t="s">
         <v>14</v>
@@ -13151,7 +13163,7 @@
       </c>
       <c r="G405">
         <f t="shared" ca="1" si="14"/>
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="H405" t="s">
         <v>14</v>
@@ -13182,7 +13194,7 @@
       </c>
       <c r="G406">
         <f t="shared" ca="1" si="14"/>
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="H406" t="s">
         <v>14</v>
@@ -13213,7 +13225,7 @@
       </c>
       <c r="G407">
         <f t="shared" ca="1" si="14"/>
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="H407" t="s">
         <v>14</v>
@@ -13226,7 +13238,7 @@
       <c r="A408" t="s">
         <v>33</v>
       </c>
-      <c r="B408" s="18">
+      <c r="B408" s="1">
         <v>49633</v>
       </c>
       <c r="C408" s="8">
@@ -13244,7 +13256,7 @@
       </c>
       <c r="G408">
         <f t="shared" ca="1" si="14"/>
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="H408" t="s">
         <v>14</v>
@@ -13253,7 +13265,2102 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>34</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C409" s="7">
+        <v>0</v>
+      </c>
+      <c r="D409" s="12"/>
+      <c r="E409" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F409" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G409">
+        <f t="shared" ca="1" si="14"/>
+        <v>-237</v>
+      </c>
+      <c r="H409" t="s">
+        <v>35</v>
+      </c>
+      <c r="I409">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>34</v>
+      </c>
+      <c r="B410" s="1">
+        <v>46052</v>
+      </c>
+      <c r="C410" s="8">
+        <v>0</v>
+      </c>
+      <c r="D410" s="8">
+        <v>6</v>
+      </c>
+      <c r="E410" s="7">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="F410" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G410">
+        <f t="shared" ca="1" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="H410" t="s">
+        <v>35</v>
+      </c>
+      <c r="I410">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>34</v>
+      </c>
+      <c r="B411" s="1">
+        <v>46233</v>
+      </c>
+      <c r="C411" s="8">
+        <v>0</v>
+      </c>
+      <c r="D411" s="8">
+        <v>4</v>
+      </c>
+      <c r="E411" s="7">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F411" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G411">
+        <f t="shared" ca="1" si="14"/>
+        <v>219</v>
+      </c>
+      <c r="H411" t="s">
+        <v>35</v>
+      </c>
+      <c r="I411">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>34</v>
+      </c>
+      <c r="B412" s="1">
+        <v>46417</v>
+      </c>
+      <c r="C412" s="8">
+        <v>0</v>
+      </c>
+      <c r="D412" s="8">
+        <v>4</v>
+      </c>
+      <c r="E412" s="7">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F412" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G412">
+        <f t="shared" ca="1" si="14"/>
+        <v>403</v>
+      </c>
+      <c r="H412" t="s">
+        <v>35</v>
+      </c>
+      <c r="I412">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>34</v>
+      </c>
+      <c r="B413" s="1">
+        <v>46598</v>
+      </c>
+      <c r="C413" s="8">
+        <v>0</v>
+      </c>
+      <c r="D413" s="8">
+        <v>4</v>
+      </c>
+      <c r="E413" s="7">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F413" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G413">
+        <f t="shared" ca="1" si="14"/>
+        <v>584</v>
+      </c>
+      <c r="H413" t="s">
+        <v>35</v>
+      </c>
+      <c r="I413">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>34</v>
+      </c>
+      <c r="B414" s="1">
+        <v>46782</v>
+      </c>
+      <c r="C414" s="8">
+        <v>0</v>
+      </c>
+      <c r="D414" s="8">
+        <v>4</v>
+      </c>
+      <c r="E414" s="7">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="F414" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G414">
+        <f t="shared" ca="1" si="14"/>
+        <v>768</v>
+      </c>
+      <c r="H414" t="s">
+        <v>35</v>
+      </c>
+      <c r="I414">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>34</v>
+      </c>
+      <c r="B415" s="1">
+        <v>46873</v>
+      </c>
+      <c r="C415" s="8">
+        <v>100</v>
+      </c>
+      <c r="D415" s="8">
+        <v>2</v>
+      </c>
+      <c r="E415" s="7">
+        <f t="shared" si="15"/>
+        <v>102</v>
+      </c>
+      <c r="F415" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="G415">
+        <f t="shared" ca="1" si="14"/>
+        <v>859</v>
+      </c>
+      <c r="H415" t="s">
+        <v>35</v>
+      </c>
+      <c r="I415">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45624</v>
+      </c>
+      <c r="C416" s="7">
+        <v>0</v>
+      </c>
+      <c r="D416" s="12"/>
+      <c r="E416" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F416" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G416">
+        <f t="shared" ca="1" si="14"/>
+        <v>-390</v>
+      </c>
+      <c r="H416" t="s">
+        <v>35</v>
+      </c>
+      <c r="I416">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" t="s">
+        <v>36</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45805</v>
+      </c>
+      <c r="C417" s="8">
+        <v>0</v>
+      </c>
+      <c r="D417" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E417" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F417" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G417">
+        <f t="shared" ca="1" si="14"/>
+        <v>-209</v>
+      </c>
+      <c r="H417" t="s">
+        <v>35</v>
+      </c>
+      <c r="I417">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45989</v>
+      </c>
+      <c r="C418" s="8">
+        <v>0</v>
+      </c>
+      <c r="D418" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E418" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F418" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G418">
+        <f t="shared" ca="1" si="14"/>
+        <v>-25</v>
+      </c>
+      <c r="H418" t="s">
+        <v>35</v>
+      </c>
+      <c r="I418">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="1">
+        <v>46170</v>
+      </c>
+      <c r="C419" s="8">
+        <v>0</v>
+      </c>
+      <c r="D419" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E419" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F419" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G419">
+        <f t="shared" ca="1" si="14"/>
+        <v>156</v>
+      </c>
+      <c r="H419" t="s">
+        <v>35</v>
+      </c>
+      <c r="I419">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420" s="1">
+        <v>46354</v>
+      </c>
+      <c r="C420" s="8">
+        <v>0</v>
+      </c>
+      <c r="D420" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E420" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F420" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G420">
+        <f t="shared" ca="1" si="14"/>
+        <v>340</v>
+      </c>
+      <c r="H420" t="s">
+        <v>35</v>
+      </c>
+      <c r="I420">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>36</v>
+      </c>
+      <c r="B421" s="1">
+        <v>46535</v>
+      </c>
+      <c r="C421" s="8">
+        <v>0</v>
+      </c>
+      <c r="D421" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E421" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F421" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G421">
+        <f t="shared" ca="1" si="14"/>
+        <v>521</v>
+      </c>
+      <c r="H421" t="s">
+        <v>35</v>
+      </c>
+      <c r="I421">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>36</v>
+      </c>
+      <c r="B422" s="1">
+        <v>46719</v>
+      </c>
+      <c r="C422" s="8">
+        <v>0</v>
+      </c>
+      <c r="D422" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E422" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F422" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G422">
+        <f t="shared" ca="1" si="14"/>
+        <v>705</v>
+      </c>
+      <c r="H422" t="s">
+        <v>35</v>
+      </c>
+      <c r="I422">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>36</v>
+      </c>
+      <c r="B423" s="1">
+        <v>46901</v>
+      </c>
+      <c r="C423" s="8">
+        <v>0</v>
+      </c>
+      <c r="D423" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E423" s="7">
+        <f t="shared" si="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F423" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G423">
+        <f t="shared" ca="1" si="14"/>
+        <v>887</v>
+      </c>
+      <c r="H423" t="s">
+        <v>35</v>
+      </c>
+      <c r="I423">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>36</v>
+      </c>
+      <c r="B424" s="1">
+        <v>47085</v>
+      </c>
+      <c r="C424" s="8">
+        <v>100</v>
+      </c>
+      <c r="D424" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E424" s="7">
+        <f t="shared" si="15"/>
+        <v>103.5</v>
+      </c>
+      <c r="F424" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G424">
+        <f t="shared" ca="1" si="14"/>
+        <v>1071</v>
+      </c>
+      <c r="H424" t="s">
+        <v>35</v>
+      </c>
+      <c r="I424">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>37</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45784</v>
+      </c>
+      <c r="C425" s="7">
+        <v>0</v>
+      </c>
+      <c r="D425" s="12"/>
+      <c r="E425" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F425" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G425">
+        <f t="shared" ca="1" si="14"/>
+        <v>-230</v>
+      </c>
+      <c r="H425" t="s">
+        <v>35</v>
+      </c>
+      <c r="I425">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>37</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45876</v>
+      </c>
+      <c r="C426" s="8">
+        <v>0</v>
+      </c>
+      <c r="D426" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E426" s="7">
+        <f t="shared" si="15"/>
+        <v>1.76</v>
+      </c>
+      <c r="F426" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G426">
+        <f t="shared" ref="G426:G476" ca="1" si="16">B426-$Q$1</f>
+        <v>-138</v>
+      </c>
+      <c r="H426" t="s">
+        <v>35</v>
+      </c>
+      <c r="I426">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>37</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45968</v>
+      </c>
+      <c r="C427" s="8">
+        <v>0</v>
+      </c>
+      <c r="D427" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E427" s="7">
+        <f t="shared" ref="E427:E476" si="17">C427+D427</f>
+        <v>1.76</v>
+      </c>
+      <c r="F427" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G427">
+        <f t="shared" ca="1" si="16"/>
+        <v>-46</v>
+      </c>
+      <c r="H427" t="s">
+        <v>35</v>
+      </c>
+      <c r="I427">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>37</v>
+      </c>
+      <c r="B428" s="1">
+        <v>46060</v>
+      </c>
+      <c r="C428" s="8">
+        <v>0</v>
+      </c>
+      <c r="D428" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E428" s="7">
+        <f t="shared" si="17"/>
+        <v>1.76</v>
+      </c>
+      <c r="F428" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G428">
+        <f t="shared" ca="1" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="H428" t="s">
+        <v>35</v>
+      </c>
+      <c r="I428">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>37</v>
+      </c>
+      <c r="B429" s="1">
+        <v>46149</v>
+      </c>
+      <c r="C429" s="8">
+        <v>0</v>
+      </c>
+      <c r="D429" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="E429" s="7">
+        <f t="shared" si="17"/>
+        <v>1.71</v>
+      </c>
+      <c r="F429" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G429">
+        <f t="shared" ca="1" si="16"/>
+        <v>135</v>
+      </c>
+      <c r="H429" t="s">
+        <v>35</v>
+      </c>
+      <c r="I429">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>37</v>
+      </c>
+      <c r="B430" s="1">
+        <v>46241</v>
+      </c>
+      <c r="C430" s="8">
+        <v>0</v>
+      </c>
+      <c r="D430" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E430" s="7">
+        <f t="shared" si="17"/>
+        <v>1.76</v>
+      </c>
+      <c r="F430" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G430">
+        <f t="shared" ca="1" si="16"/>
+        <v>227</v>
+      </c>
+      <c r="H430" t="s">
+        <v>35</v>
+      </c>
+      <c r="I430">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>37</v>
+      </c>
+      <c r="B431" s="1">
+        <v>46333</v>
+      </c>
+      <c r="C431" s="8">
+        <v>0</v>
+      </c>
+      <c r="D431" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E431" s="7">
+        <f t="shared" si="17"/>
+        <v>1.76</v>
+      </c>
+      <c r="F431" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G431">
+        <f t="shared" ca="1" si="16"/>
+        <v>319</v>
+      </c>
+      <c r="H431" t="s">
+        <v>35</v>
+      </c>
+      <c r="I431">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>37</v>
+      </c>
+      <c r="B432" s="1">
+        <v>46425</v>
+      </c>
+      <c r="C432" s="8">
+        <v>0</v>
+      </c>
+      <c r="D432" s="8">
+        <v>1.76</v>
+      </c>
+      <c r="E432" s="7">
+        <f t="shared" si="17"/>
+        <v>1.76</v>
+      </c>
+      <c r="F432" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G432">
+        <f t="shared" ca="1" si="16"/>
+        <v>411</v>
+      </c>
+      <c r="H432" t="s">
+        <v>35</v>
+      </c>
+      <c r="I432">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>37</v>
+      </c>
+      <c r="B433" s="1">
+        <v>46514</v>
+      </c>
+      <c r="C433" s="8">
+        <v>100</v>
+      </c>
+      <c r="D433" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="E433" s="7">
+        <f t="shared" si="17"/>
+        <v>101.71</v>
+      </c>
+      <c r="F433" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G433">
+        <f t="shared" ca="1" si="16"/>
+        <v>500</v>
+      </c>
+      <c r="H433" t="s">
+        <v>35</v>
+      </c>
+      <c r="I433">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A434" t="s">
+        <v>38</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45597</v>
+      </c>
+      <c r="C434" s="7">
+        <v>0</v>
+      </c>
+      <c r="D434" s="12"/>
+      <c r="E434" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F434" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G434">
+        <f t="shared" ca="1" si="16"/>
+        <v>-417</v>
+      </c>
+      <c r="H434" t="s">
+        <v>35</v>
+      </c>
+      <c r="I434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>38</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45689</v>
+      </c>
+      <c r="C435" s="8">
+        <v>0</v>
+      </c>
+      <c r="D435" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E435" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F435" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G435">
+        <f t="shared" ca="1" si="16"/>
+        <v>-325</v>
+      </c>
+      <c r="H435" t="s">
+        <v>35</v>
+      </c>
+      <c r="I435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>38</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C436" s="8">
+        <v>0</v>
+      </c>
+      <c r="D436" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E436" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F436" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G436">
+        <f t="shared" ca="1" si="16"/>
+        <v>-236</v>
+      </c>
+      <c r="H436" t="s">
+        <v>35</v>
+      </c>
+      <c r="I436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>38</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45870</v>
+      </c>
+      <c r="C437" s="8">
+        <v>0</v>
+      </c>
+      <c r="D437" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E437" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F437" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G437">
+        <f t="shared" ca="1" si="16"/>
+        <v>-144</v>
+      </c>
+      <c r="H437" t="s">
+        <v>35</v>
+      </c>
+      <c r="I437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>38</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45962</v>
+      </c>
+      <c r="C438" s="8">
+        <v>0</v>
+      </c>
+      <c r="D438" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E438" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F438" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G438">
+        <f t="shared" ca="1" si="16"/>
+        <v>-52</v>
+      </c>
+      <c r="H438" t="s">
+        <v>35</v>
+      </c>
+      <c r="I438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>38</v>
+      </c>
+      <c r="B439" s="1">
+        <v>46054</v>
+      </c>
+      <c r="C439" s="8">
+        <v>0</v>
+      </c>
+      <c r="D439" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E439" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F439" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G439">
+        <f t="shared" ca="1" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="H439" t="s">
+        <v>35</v>
+      </c>
+      <c r="I439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>38</v>
+      </c>
+      <c r="B440" s="1">
+        <v>46143</v>
+      </c>
+      <c r="C440" s="8">
+        <v>0</v>
+      </c>
+      <c r="D440" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E440" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F440" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G440">
+        <f t="shared" ca="1" si="16"/>
+        <v>129</v>
+      </c>
+      <c r="H440" t="s">
+        <v>35</v>
+      </c>
+      <c r="I440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>38</v>
+      </c>
+      <c r="B441" s="1">
+        <v>46235</v>
+      </c>
+      <c r="C441" s="8">
+        <v>0</v>
+      </c>
+      <c r="D441" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E441" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F441" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G441">
+        <f t="shared" ca="1" si="16"/>
+        <v>221</v>
+      </c>
+      <c r="H441" t="s">
+        <v>35</v>
+      </c>
+      <c r="I441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>38</v>
+      </c>
+      <c r="B442" s="1">
+        <v>46327</v>
+      </c>
+      <c r="C442" s="8">
+        <v>0</v>
+      </c>
+      <c r="D442" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E442" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F442" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G442">
+        <f t="shared" ca="1" si="16"/>
+        <v>313</v>
+      </c>
+      <c r="H442" t="s">
+        <v>35</v>
+      </c>
+      <c r="I442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>38</v>
+      </c>
+      <c r="B443" s="1">
+        <v>46419</v>
+      </c>
+      <c r="C443" s="8">
+        <v>0</v>
+      </c>
+      <c r="D443" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E443" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F443" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G443">
+        <f t="shared" ca="1" si="16"/>
+        <v>405</v>
+      </c>
+      <c r="H443" t="s">
+        <v>35</v>
+      </c>
+      <c r="I443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>38</v>
+      </c>
+      <c r="B444" s="1">
+        <v>46508</v>
+      </c>
+      <c r="C444" s="8">
+        <v>0</v>
+      </c>
+      <c r="D444" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E444" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F444" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G444">
+        <f t="shared" ca="1" si="16"/>
+        <v>494</v>
+      </c>
+      <c r="H444" t="s">
+        <v>35</v>
+      </c>
+      <c r="I444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>38</v>
+      </c>
+      <c r="B445" s="1">
+        <v>46600</v>
+      </c>
+      <c r="C445" s="8">
+        <v>0</v>
+      </c>
+      <c r="D445" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E445" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F445" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G445">
+        <f t="shared" ca="1" si="16"/>
+        <v>586</v>
+      </c>
+      <c r="H445" t="s">
+        <v>35</v>
+      </c>
+      <c r="I445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>38</v>
+      </c>
+      <c r="B446" s="1">
+        <v>46692</v>
+      </c>
+      <c r="C446" s="8">
+        <v>0</v>
+      </c>
+      <c r="D446" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E446" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F446" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G446">
+        <f t="shared" ca="1" si="16"/>
+        <v>678</v>
+      </c>
+      <c r="H446" t="s">
+        <v>35</v>
+      </c>
+      <c r="I446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>38</v>
+      </c>
+      <c r="B447" s="1">
+        <v>46784</v>
+      </c>
+      <c r="C447" s="8">
+        <v>0</v>
+      </c>
+      <c r="D447" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E447" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F447" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G447">
+        <f t="shared" ca="1" si="16"/>
+        <v>770</v>
+      </c>
+      <c r="H447" t="s">
+        <v>35</v>
+      </c>
+      <c r="I447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>38</v>
+      </c>
+      <c r="B448" s="1">
+        <v>46874</v>
+      </c>
+      <c r="C448" s="8">
+        <v>0</v>
+      </c>
+      <c r="D448" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E448" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F448" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G448">
+        <f t="shared" ca="1" si="16"/>
+        <v>860</v>
+      </c>
+      <c r="H448" t="s">
+        <v>35</v>
+      </c>
+      <c r="I448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>38</v>
+      </c>
+      <c r="B449" s="1">
+        <v>46966</v>
+      </c>
+      <c r="C449" s="8">
+        <v>0</v>
+      </c>
+      <c r="D449" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E449" s="7">
+        <f t="shared" si="17"/>
+        <v>1.75</v>
+      </c>
+      <c r="F449" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G449">
+        <f t="shared" ca="1" si="16"/>
+        <v>952</v>
+      </c>
+      <c r="H449" t="s">
+        <v>35</v>
+      </c>
+      <c r="I449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>38</v>
+      </c>
+      <c r="B450" s="1">
+        <v>47058</v>
+      </c>
+      <c r="C450" s="8">
+        <v>100</v>
+      </c>
+      <c r="D450" s="8">
+        <v>1.75</v>
+      </c>
+      <c r="E450" s="7">
+        <f t="shared" si="17"/>
+        <v>101.75</v>
+      </c>
+      <c r="F450" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G450">
+        <f t="shared" ca="1" si="16"/>
+        <v>1044</v>
+      </c>
+      <c r="H450" t="s">
+        <v>35</v>
+      </c>
+      <c r="I450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>39</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45562</v>
+      </c>
+      <c r="C451" s="7">
+        <v>0</v>
+      </c>
+      <c r="D451" s="12"/>
+      <c r="E451" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F451" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G451">
+        <f t="shared" ca="1" si="16"/>
+        <v>-452</v>
+      </c>
+      <c r="H451" t="s">
+        <v>35</v>
+      </c>
+      <c r="I451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>39</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C452" s="8">
+        <v>0</v>
+      </c>
+      <c r="D452" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E452" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F452" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G452">
+        <f t="shared" ca="1" si="16"/>
+        <v>-271</v>
+      </c>
+      <c r="H452" t="s">
+        <v>35</v>
+      </c>
+      <c r="I452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>39</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45927</v>
+      </c>
+      <c r="C453" s="8">
+        <v>0</v>
+      </c>
+      <c r="D453" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E453" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F453" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G453">
+        <f t="shared" ca="1" si="16"/>
+        <v>-87</v>
+      </c>
+      <c r="H453" t="s">
+        <v>35</v>
+      </c>
+      <c r="I453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>39</v>
+      </c>
+      <c r="B454" s="1">
+        <v>46108</v>
+      </c>
+      <c r="C454" s="8">
+        <v>0</v>
+      </c>
+      <c r="D454" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E454" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F454" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G454">
+        <f t="shared" ca="1" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="H454" t="s">
+        <v>35</v>
+      </c>
+      <c r="I454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>39</v>
+      </c>
+      <c r="B455" s="1">
+        <v>46292</v>
+      </c>
+      <c r="C455" s="8">
+        <v>0</v>
+      </c>
+      <c r="D455" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E455" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F455" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G455">
+        <f t="shared" ca="1" si="16"/>
+        <v>278</v>
+      </c>
+      <c r="H455" t="s">
+        <v>35</v>
+      </c>
+      <c r="I455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>39</v>
+      </c>
+      <c r="B456" s="1">
+        <v>46473</v>
+      </c>
+      <c r="C456" s="8">
+        <v>0</v>
+      </c>
+      <c r="D456" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E456" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F456" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G456">
+        <f t="shared" ca="1" si="16"/>
+        <v>459</v>
+      </c>
+      <c r="H456" t="s">
+        <v>35</v>
+      </c>
+      <c r="I456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>39</v>
+      </c>
+      <c r="B457" s="1">
+        <v>46657</v>
+      </c>
+      <c r="C457" s="8">
+        <v>0</v>
+      </c>
+      <c r="D457" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E457" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F457" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G457">
+        <f t="shared" ca="1" si="16"/>
+        <v>643</v>
+      </c>
+      <c r="H457" t="s">
+        <v>35</v>
+      </c>
+      <c r="I457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>39</v>
+      </c>
+      <c r="B458" s="1">
+        <v>46839</v>
+      </c>
+      <c r="C458" s="8">
+        <v>0</v>
+      </c>
+      <c r="D458" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E458" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F458" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G458">
+        <f t="shared" ca="1" si="16"/>
+        <v>825</v>
+      </c>
+      <c r="H458" t="s">
+        <v>35</v>
+      </c>
+      <c r="I458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>39</v>
+      </c>
+      <c r="B459" s="1">
+        <v>47023</v>
+      </c>
+      <c r="C459" s="8">
+        <v>0</v>
+      </c>
+      <c r="D459" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E459" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F459" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G459">
+        <f t="shared" ca="1" si="16"/>
+        <v>1009</v>
+      </c>
+      <c r="H459" t="s">
+        <v>35</v>
+      </c>
+      <c r="I459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>39</v>
+      </c>
+      <c r="B460" s="1">
+        <v>47204</v>
+      </c>
+      <c r="C460" s="8">
+        <v>0</v>
+      </c>
+      <c r="D460" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E460" s="7">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="F460" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G460">
+        <f t="shared" ca="1" si="16"/>
+        <v>1190</v>
+      </c>
+      <c r="H460" t="s">
+        <v>35</v>
+      </c>
+      <c r="I460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>39</v>
+      </c>
+      <c r="B461" s="1">
+        <v>47388</v>
+      </c>
+      <c r="C461" s="8">
+        <v>100</v>
+      </c>
+      <c r="D461" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E461" s="7">
+        <f t="shared" si="17"/>
+        <v>103.5</v>
+      </c>
+      <c r="F461" s="14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G461">
+        <f t="shared" ca="1" si="16"/>
+        <v>1374</v>
+      </c>
+      <c r="H461" t="s">
+        <v>35</v>
+      </c>
+      <c r="I461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>40</v>
+      </c>
+      <c r="B462" s="1">
+        <v>45575</v>
+      </c>
+      <c r="C462" s="7">
+        <v>0</v>
+      </c>
+      <c r="D462" s="12"/>
+      <c r="E462" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F462" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G462">
+        <f t="shared" ca="1" si="16"/>
+        <v>-439</v>
+      </c>
+      <c r="H462" t="s">
+        <v>35</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>40</v>
+      </c>
+      <c r="B463" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C463" s="8">
+        <v>0</v>
+      </c>
+      <c r="D463" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E463" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F463" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G463">
+        <f t="shared" ca="1" si="16"/>
+        <v>-257</v>
+      </c>
+      <c r="H463" t="s">
+        <v>35</v>
+      </c>
+      <c r="I463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>40</v>
+      </c>
+      <c r="B464" s="1">
+        <v>45940</v>
+      </c>
+      <c r="C464" s="8">
+        <v>0</v>
+      </c>
+      <c r="D464" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E464" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F464" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G464">
+        <f t="shared" ca="1" si="16"/>
+        <v>-74</v>
+      </c>
+      <c r="H464" t="s">
+        <v>35</v>
+      </c>
+      <c r="I464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>40</v>
+      </c>
+      <c r="B465" s="1">
+        <v>46122</v>
+      </c>
+      <c r="C465" s="8">
+        <v>0</v>
+      </c>
+      <c r="D465" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E465" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F465" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G465">
+        <f t="shared" ca="1" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="H465" t="s">
+        <v>35</v>
+      </c>
+      <c r="I465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>40</v>
+      </c>
+      <c r="B466" s="1">
+        <v>46305</v>
+      </c>
+      <c r="C466" s="8">
+        <v>0</v>
+      </c>
+      <c r="D466" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E466" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F466" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G466">
+        <f t="shared" ca="1" si="16"/>
+        <v>291</v>
+      </c>
+      <c r="H466" t="s">
+        <v>35</v>
+      </c>
+      <c r="I466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>40</v>
+      </c>
+      <c r="B467" s="1">
+        <v>46487</v>
+      </c>
+      <c r="C467" s="8">
+        <v>0</v>
+      </c>
+      <c r="D467" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E467" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F467" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G467">
+        <f t="shared" ca="1" si="16"/>
+        <v>473</v>
+      </c>
+      <c r="H467" t="s">
+        <v>35</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>40</v>
+      </c>
+      <c r="B468" s="1">
+        <v>46670</v>
+      </c>
+      <c r="C468" s="8">
+        <v>0</v>
+      </c>
+      <c r="D468" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E468" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F468" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G468">
+        <f t="shared" ca="1" si="16"/>
+        <v>656</v>
+      </c>
+      <c r="H468" t="s">
+        <v>35</v>
+      </c>
+      <c r="I468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>40</v>
+      </c>
+      <c r="B469" s="1">
+        <v>46853</v>
+      </c>
+      <c r="C469" s="8">
+        <v>0</v>
+      </c>
+      <c r="D469" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E469" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F469" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G469">
+        <f t="shared" ca="1" si="16"/>
+        <v>839</v>
+      </c>
+      <c r="H469" t="s">
+        <v>35</v>
+      </c>
+      <c r="I469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B470" s="1">
+        <v>47036</v>
+      </c>
+      <c r="C470" s="8">
+        <v>0</v>
+      </c>
+      <c r="D470" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E470" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F470" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G470">
+        <f t="shared" ca="1" si="16"/>
+        <v>1022</v>
+      </c>
+      <c r="H470" t="s">
+        <v>35</v>
+      </c>
+      <c r="I470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>40</v>
+      </c>
+      <c r="B471" s="1">
+        <v>47218</v>
+      </c>
+      <c r="C471" s="8">
+        <v>0</v>
+      </c>
+      <c r="D471" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E471" s="7">
+        <f t="shared" si="17"/>
+        <v>3.83</v>
+      </c>
+      <c r="F471" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G471">
+        <f t="shared" ca="1" si="16"/>
+        <v>1204</v>
+      </c>
+      <c r="H471" t="s">
+        <v>35</v>
+      </c>
+      <c r="I471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>40</v>
+      </c>
+      <c r="B472" s="1">
+        <v>47401</v>
+      </c>
+      <c r="C472" s="8">
+        <v>33</v>
+      </c>
+      <c r="D472" s="8">
+        <v>3.83</v>
+      </c>
+      <c r="E472" s="7">
+        <f t="shared" si="17"/>
+        <v>36.83</v>
+      </c>
+      <c r="F472" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G472">
+        <f t="shared" ca="1" si="16"/>
+        <v>1387</v>
+      </c>
+      <c r="H472" t="s">
+        <v>35</v>
+      </c>
+      <c r="I472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>40</v>
+      </c>
+      <c r="B473" s="1">
+        <v>47583</v>
+      </c>
+      <c r="C473" s="8">
+        <v>0</v>
+      </c>
+      <c r="D473" s="8">
+        <v>2.56</v>
+      </c>
+      <c r="E473" s="7">
+        <f t="shared" si="17"/>
+        <v>2.56</v>
+      </c>
+      <c r="F473" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G473">
+        <f t="shared" ca="1" si="16"/>
+        <v>1569</v>
+      </c>
+      <c r="H473" t="s">
+        <v>35</v>
+      </c>
+      <c r="I473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>40</v>
+      </c>
+      <c r="B474" s="1">
+        <v>47766</v>
+      </c>
+      <c r="C474" s="8">
+        <v>33</v>
+      </c>
+      <c r="D474" s="8">
+        <v>2.56</v>
+      </c>
+      <c r="E474" s="7">
+        <f t="shared" si="17"/>
+        <v>35.56</v>
+      </c>
+      <c r="F474" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G474">
+        <f t="shared" ca="1" si="16"/>
+        <v>1752</v>
+      </c>
+      <c r="H474" t="s">
+        <v>35</v>
+      </c>
+      <c r="I474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>40</v>
+      </c>
+      <c r="B475" s="1">
+        <v>47948</v>
+      </c>
+      <c r="C475" s="8">
+        <v>0</v>
+      </c>
+      <c r="D475" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E475" s="7">
+        <f t="shared" si="17"/>
+        <v>1.3</v>
+      </c>
+      <c r="F475" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G475">
+        <f t="shared" ca="1" si="16"/>
+        <v>1934</v>
+      </c>
+      <c r="H475" t="s">
+        <v>35</v>
+      </c>
+      <c r="I475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>40</v>
+      </c>
+      <c r="B476" s="1">
+        <v>48131</v>
+      </c>
+      <c r="C476" s="8">
+        <v>34</v>
+      </c>
+      <c r="D476" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="E476" s="7">
+        <f t="shared" si="17"/>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F476" s="14">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="G476">
+        <f t="shared" ca="1" si="16"/>
+        <v>2117</v>
+      </c>
+      <c r="H476" t="s">
+        <v>35</v>
+      </c>
+      <c r="I476">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
